--- a/src/resultados.xlsx
+++ b/src/resultados.xlsx
@@ -497,14 +497,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>["15", "7", "5"]</t>
+          <t>["8", "7", "20"]</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>67.34072999999999</v>
+        <v>57.06745</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -529,14 +529,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>["10", "13", "24"]</t>
+          <t>["16", "13", "24"]</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>72.84650000000001</v>
+        <v>53.93899</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -561,14 +561,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>["17", "22", "5"]</t>
+          <t>["8", "5", "22"]</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.60845</v>
+        <v>71.64939</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -593,14 +593,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>["6", "19", "18"]</t>
+          <t>["24", "8", "3"]</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>71.52233</v>
+        <v>63.27731</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -625,14 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["13", "7", "4"]</t>
+          <t>["22", "12", "4"]</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>65.24632</v>
+        <v>67.83212</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -657,14 +657,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>["23", "11", "15"]</t>
+          <t>["17", "22", "15"]</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>70.86011999999999</v>
+        <v>56.64417</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -689,14 +689,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>["19", "15", "0"]</t>
+          <t>["14", "15", "6"]</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>69.99903</v>
+        <v>53.4779</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -721,14 +721,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["9", "23", "19"]</t>
+          <t>["17", "24", "19"]</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>76.83821</v>
+        <v>73.91059</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -753,14 +753,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>["8", "11", "7"]</t>
+          <t>["12", "9", "11"]</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>84.8476</v>
+        <v>56.61589</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -817,14 +817,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>["48", "33", "35", "34", "24"]</t>
+          <t>["13", "24", "34", "9", "30"]</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>47.55155</v>
+        <v>49.76539</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -849,14 +849,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>["43", "28", "39", "48", "19"]</t>
+          <t>["23", "28", "39", "48", "4"]</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.99173</v>
+        <v>45.67434</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -881,14 +881,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>["11", "29", "37", "46", "38"]</t>
+          <t>["23", "29", "5", "46", "40"]</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.36791</v>
+        <v>49.61807</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -913,14 +913,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>["16", "39", "15", "3", "32"]</t>
+          <t>["37", "39", "32", "7", "3"]</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>46.61752</v>
+        <v>47.37432</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -945,14 +945,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["21", "17", "25", "35", "36"]</t>
+          <t>["7", "17", "25", "48", "6"]</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>45.68958</v>
+        <v>47.48479</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -977,14 +977,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>["19", "28", "9", "17", "42"]</t>
+          <t>["9", "14", "11", "28", "36"]</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.71283</v>
+        <v>48.80959</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1009,14 +1009,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["5", "10", "14", "6", "31"]</t>
+          <t>["47", "10", "37", "2", "27"]</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>47.55095</v>
+        <v>47.49716</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1041,14 +1041,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>["22", "10", "2", "7", "34"]</t>
+          <t>["2", "1", "10", "23", "40"]</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>47.11063</v>
+        <v>47.53345</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1073,14 +1073,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>["44", "3", "22", "49", "47"]</t>
+          <t>["9", "46", "22", "10", "3"]</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>46.91717</v>
+        <v>48.96302</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1105,14 +1105,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>["8", "27", "28", "49", "29"]</t>
+          <t>["14", "49", "46", "36", "26"]</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>50.11292</v>
+        <v>47.20122</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1137,14 +1137,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>["60", "96", "69", "89", "57", "75", "18", "38", "79", "10"]</t>
+          <t>["99", "27", "69", "37", "55", "79", "22", "29", "60", "35"]</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28.86857</v>
+        <v>32.37069</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1169,14 +1169,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>["23", "32", "31", "36", "70", "88", "41", "82", "4", "40"]</t>
+          <t>["31", "36", "41", "74", "27", "88", "66", "82", "26", "77"]</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>29.19417</v>
+        <v>26.4368</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>["39", "21", "30", "10", "5", "98", "56", "68", "31", "76"]</t>
+          <t>["58", "70", "68", "23", "30", "59", "73", "21", "76", "3"]</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>30.68379</v>
+        <v>29.78127</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1233,14 +1233,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>["58", "5", "91", "4", "24", "64", "8", "77", "46", "33"]</t>
+          <t>["37", "84", "5", "31", "71", "2", "16", "24", "89", "12"]</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>28.82272</v>
+        <v>25.16513</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1265,14 +1265,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>["31", "95", "71", "25", "74", "90", "65", "24", "96", "44"]</t>
+          <t>["65", "95", "71", "87", "42", "16", "10", "90", "76", "51"]</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>33.48853</v>
+        <v>29.92558</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>["77", "30", "5", "28", "67", "69", "68", "82", "47", "65"]</t>
+          <t>["81", "5", "30", "56", "39", "25", "28", "68", "14", "42"]</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>31.19735</v>
+        <v>27.65623</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1329,14 +1329,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>["59", "76", "43", "93", "87", "17", "41", "49", "77", "45"]</t>
+          <t>["1", "93", "87", "76", "39", "77", "95", "62", "41", "0"]</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.9112</v>
+        <v>28.90284</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>["59", "1", "75", "0", "84", "52", "51", "25", "4", "60"]</t>
+          <t>["16", "9", "82", "1", "53", "84", "10", "17", "4", "87"]</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>28.90171</v>
+        <v>29.78196</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1393,14 +1393,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>["5", "15", "26", "64", "98", "61", "55", "7", "38", "16"]</t>
+          <t>["13", "64", "38", "15", "85", "26", "61", "55", "51", "93"]</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>31.89847</v>
+        <v>28.87733</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1425,14 +1425,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>["48", "49", "52", "78", "82", "68", "44", "50", "92", "86"]</t>
+          <t>["84", "92", "78", "52", "18", "94", "35", "96", "50", "39"]</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>29.47174</v>
+        <v>27.61745</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1457,14 +1457,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>["188", "43", "109", "122", "14", "142", "75", "216", "68", "231", "233", "9", "201", "54", "32", "65", "104", "111", "13", "34", "92", "213", "80", "211", "57"]</t>
+          <t>["49", "190", "43", "217", "179", "75", "202", "229", "13", "146", "174", "223", "77", "232", "65", "109", "148", "203", "126", "68", "55", "236", "225", "185", "19"]</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0.01</v>
       </c>
       <c r="G32" t="n">
-        <v>16.67507</v>
+        <v>16.43987</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1489,14 +1489,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>["221", "69", "193", "220", "15", "136", "56", "65", "232", "210", "76", "61", "111", "139", "242", "222", "119", "96", "153", "83", "40", "72", "195", "26", "219"]</t>
+          <t>["41", "193", "220", "69", "136", "88", "232", "15", "56", "117", "57", "228", "111", "139", "158", "200", "242", "222", "176", "190", "68", "9", "47", "98", "130"]</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0.01</v>
       </c>
       <c r="G33" t="n">
-        <v>16.88318</v>
+        <v>15.72361</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1521,14 +1521,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>["242", "167", "204", "218", "4", "41", "198", "126", "206", "66", "95", "87", "240", "13", "152", "113", "132", "162", "22", "245", "237", "46", "128", "67", "248"]</t>
+          <t>["81", "48", "204", "24", "99", "15", "94", "75", "167", "220", "7", "153", "4", "88", "67", "6", "30", "76", "211", "128", "96", "229", "138", "214", "89"]</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0.01</v>
       </c>
       <c r="G34" t="n">
-        <v>17.67559</v>
+        <v>16.47118</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1553,14 +1553,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>["70", "55", "68", "225", "211", "129", "235", "216", "198", "123", "58", "132", "50", "115", "126", "104", "243", "62", "139", "178", "10", "128", "156", "165", "160"]</t>
+          <t>["48", "68", "55", "237", "244", "122", "234", "123", "113", "126", "235", "43", "225", "205", "206", "231", "62", "52", "112", "132", "129", "245", "47", "156", "98"]</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>0.01</v>
       </c>
       <c r="G35" t="n">
-        <v>16.60233</v>
+        <v>17.09113</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1585,14 +1585,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>["113", "46", "38", "55", "229", "94", "0", "79", "85", "5", "48", "92", "168", "247", "105", "220", "65", "147", "192", "7", "70", "171", "69", "131", "149"]</t>
+          <t>["27", "232", "247", "11", "58", "115", "100", "46", "61", "128", "207", "54", "210", "150", "135", "76", "236", "240", "143", "155", "215", "202", "226", "145", "203"]</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0.01</v>
       </c>
       <c r="G36" t="n">
-        <v>17.15296</v>
+        <v>17.61813</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1617,14 +1617,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>["106", "157", "116", "120", "103", "46", "105", "15", "118", "18", "9", "34", "143", "3", "132", "93", "225", "193", "216", "14", "21", "25", "176", "223", "58"]</t>
+          <t>["144", "116", "157", "231", "103", "67", "225", "120", "52", "44", "18", "163", "208", "132", "34", "127", "216", "70", "98", "48", "178", "8", "118", "11", "240"]</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>0.01</v>
       </c>
       <c r="G37" t="n">
-        <v>15.99206</v>
+        <v>18.13453</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>["167", "7", "30", "115", "93", "144", "203", "60", "211", "16", "106", "238", "18", "184", "52", "163", "20", "229", "165", "218", "10", "87", "153", "182", "204"]</t>
+          <t>["64", "7", "30", "10", "48", "203", "184", "31", "68", "115", "172", "33", "83", "4", "2", "93", "163", "192", "222", "143", "125", "174", "87", "78", "24"]</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0.01</v>
       </c>
       <c r="G38" t="n">
-        <v>17.33963</v>
+        <v>16.4076</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>["26", "172", "61", "159", "8", "106", "244", "67", "118", "93", "196", "152", "199", "201", "226", "0", "216", "193", "126", "223", "122", "98", "217", "7", "161"]</t>
+          <t>["68", "7", "37", "168", "23", "104", "217", "17", "172", "175", "82", "93", "192", "173", "8", "202", "63", "118", "185", "184", "59", "126", "90", "26", "161"]</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1713,14 +1713,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>["232", "243", "12", "162", "229", "135", "67", "56", "147", "9", "241", "72", "22", "45", "39", "212", "244", "70", "48", "52", "89", "240", "33", "123", "124"]</t>
+          <t>["134", "162", "229", "2", "132", "67", "192", "212", "227", "12", "194", "248", "222", "102", "243", "88", "106", "26", "179", "240", "52", "158", "31", "24", "200"]</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0.01</v>
       </c>
       <c r="G40" t="n">
-        <v>16.7286</v>
+        <v>16.99109</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>["3", "129", "26", "0", "4", "98", "5", "104", "90", "154", "245", "61", "124", "137", "2", "190", "63", "42", "233", "167", "133", "196", "77", "88", "73"]</t>
+          <t>["126", "5", "26", "185", "232", "2", "135", "172", "193", "231", "86", "160", "204", "213", "190", "13", "167", "93", "112", "122", "210", "80", "163", "120", "18"]</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>0.01</v>
       </c>
       <c r="G41" t="n">
-        <v>16.76132</v>
+        <v>17.15129</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1777,14 +1777,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>["318", "150", "215", "459", "50", "27", "330", "10", "377", "104", "486", "478", "249", "60", "25", "325", "475", "258", "173", "313", "359", "190", "209", "4", "41", "127", "195", "297", "360", "257", "68", "341", "415", "311", "26", "461", "405", "163", "408", "77", "342", "424", "446", "234", "312", "400", "283", "111", "199", "435"]</t>
+          <t>["211", "325", "263", "215", "150", "27", "353", "43", "436", "411", "355", "279", "478", "109", "143", "407", "449", "154", "17", "311", "318", "481", "232", "209", "469", "324", "367", "443", "317", "189", "415", "229", "473", "363", "122", "452", "222", "163", "271", "299", "166", "30", "336", "241", "89", "60", "224", "177", "234", "259"]</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G42" t="n">
-        <v>11.20354</v>
+        <v>11.15746</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1809,14 +1809,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>["176", "30", "302", "285", "165", "325", "160", "296", "63", "156", "385", "387", "193", "383", "7", "61", "420", "388", "345", "495", "148", "409", "101", "22", "438", "366", "84", "362", "149", "145", "354", "473", "332", "359", "491", "70", "26", "73", "241", "100", "191", "382", "465", "259", "276", "9", "364", "204", "44", "262"]</t>
+          <t>["427", "285", "30", "234", "260", "54", "269", "155", "323", "161", "112", "372", "31", "204", "463", "465", "51", "464", "106", "311", "25", "394", "257", "300", "197", "212", "415", "480", "457", "492", "359", "438", "191", "255", "470", "296", "45", "89", "167", "181", "316", "102", "140", "409", "48", "53", "174", "377", "491", "302"]</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>0.05</v>
       </c>
       <c r="G43" t="n">
-        <v>10.83448</v>
+        <v>11.44895</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1841,14 +1841,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>["93", "70", "345", "434", "497", "195", "133", "377", "216", "357", "344", "190", "300", "379", "3", "298", "137", "198", "170", "395", "124", "92", "189", "59", "119", "317", "390", "251", "471", "416", "281", "105", "433", "28", "275", "406", "306", "67", "174", "156", "410", "469", "165", "461", "483", "337", "330", "50", "182", "347"]</t>
+          <t>["111", "70", "345", "434", "251", "22", "166", "355", "415", "38", "222", "332", "412", "132", "194", "311", "379", "170", "47", "116", "354", "453", "185", "404", "252", "424", "445", "349", "264", "247", "281", "183", "317", "455", "125", "292", "324", "163", "428", "481", "487", "337", "210", "83", "330", "177", "36", "458", "400", "60"]</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>0.05</v>
       </c>
       <c r="G44" t="n">
-        <v>11.53715</v>
+        <v>11.37176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1873,14 +1873,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>["334", "315", "395", "137", "96", "189", "20", "381", "149", "498", "16", "183", "284", "450", "388", "385", "236", "192", "316", "285", "38", "442", "47", "81", "210", "168", "151", "365", "364", "187", "144", "94", "241", "302", "494", "88", "13", "301", "451", "433", "165", "477", "70", "90", "191", "30", "322", "255", "36", "448"]</t>
+          <t>["295", "395", "315", "176", "96", "386", "490", "485", "475", "498", "379", "316", "388", "349", "231", "23", "468", "192", "334", "299", "489", "81", "22", "47", "154", "210", "417", "197", "464", "255", "297", "263", "169", "30", "458", "293", "269", "164", "5", "109", "451", "170", "448", "267", "70", "175", "261", "284", "433", "106"]</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G45" t="n">
-        <v>11.16706</v>
+        <v>11.72385</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1905,14 +1905,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>["256", "398", "373", "77", "68", "355", "455", "76", "353", "316", "274", "277", "22", "432", "447", "47", "236", "299", "313", "498", "131", "469", "97", "389", "81", "276", "304", "56", "494", "79", "93", "445", "242", "54", "459", "44", "60", "372", "75", "121", "375", "440", "83", "419", "239", "392", "269", "334", "106", "178"]</t>
+          <t>["215", "373", "334", "452", "191", "169", "483", "28", "381", "338", "34", "295", "47", "410", "309", "363", "65", "81", "33", "79", "446", "111", "372", "286", "498", "422", "458", "60", "214", "165", "273", "196", "261", "203", "385", "102", "157", "251", "113", "8", "73", "159", "173", "440", "13", "420", "308", "450", "444", "313"]</t>
         </is>
       </c>
       <c r="F46" t="n">
         <v>0.05</v>
       </c>
       <c r="G46" t="n">
-        <v>11.07704</v>
+        <v>11.13141</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1937,14 +1937,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>["66", "295", "122", "212", "421", "225", "105", "441", "174", "179", "171", "344", "331", "92", "385", "467", "98", "250", "289", "124", "268", "177", "431", "196", "16", "476", "341", "2", "287", "103", "224", "494", "175", "41", "102", "434", "235", "391", "223", "349", "120", "373", "339", "475", "243", "249", "40", "247", "108", "229"]</t>
+          <t>["143", "421", "122", "212", "68", "479", "475", "326", "332", "459", "235", "439", "125", "383", "343", "442", "239", "75", "317", "160", "242", "268", "119", "318", "461", "338", "139", "166", "495", "448", "349", "476", "480", "472", "16", "331", "169", "351", "471", "103", "321", "407", "223", "456", "414", "174", "345", "211", "384", "58"]</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G47" t="n">
-        <v>10.54811</v>
+        <v>11.52342</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1969,14 +1969,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>["191", "95", "83", "318", "445", "94", "498", "44", "124", "57", "194", "211", "374", "472", "469", "19", "123", "442", "69", "406", "148", "2", "10", "302", "476", "60", "489", "33", "370", "151", "0", "210", "11", "235", "205", "14", "188", "288", "278", "306", "92", "214", "274", "497", "144", "165", "261", "230", "465", "295"]</t>
+          <t>["159", "318", "124", "140", "328", "476", "315", "128", "483", "235", "431", "79", "78", "487", "399", "393", "36", "385", "400", "160", "439", "16", "311", "51", "19", "60", "395", "288", "333", "50", "99", "239", "363", "495", "438", "165", "20", "109", "467", "120", "2", "482", "488", "71", "112", "61", "494", "30", "261", "493"]</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G48" t="n">
-        <v>11.373</v>
+        <v>11.48255</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>["433", "247", "48", "84", "406", "318", "388", "330", "45", "182", "194", "137", "351", "372", "350", "429", "199", "111", "76", "295", "448", "38", "305", "8", "144", "428", "1", "251", "297", "446", "490", "476", "411", "445", "353", "80", "235", "378", "36", "19", "178", "70", "3", "173", "401", "311", "34", "307", "427", "206"]</t>
+          <t>["409", "306", "45", "378", "181", "388", "351", "390", "459", "362", "400", "421", "177", "247", "253", "124", "350", "310", "44", "480", "439", "292", "33", "492", "125", "11", "428", "314", "25", "318", "63", "334", "79", "99", "155", "353", "119", "363", "423", "355", "96", "98", "147", "24", "180", "401", "221", "257", "477", "190"]</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G49" t="n">
-        <v>11.35595</v>
+        <v>11.7522</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2033,14 +2033,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>["414", "178", "400", "292", "469", "440", "148", "100", "307", "484", "246", "29", "423", "68", "195", "175", "153", "248", "149", "468", "481", "42", "264", "437", "92", "409", "109", "351", "118", "57", "3", "253", "347", "333", "362", "348", "460", "390", "497", "350", "201", "172", "239", "12", "480", "60", "230", "386", "191", "379"]</t>
+          <t>["379", "3", "92", "408", "454", "440", "196", "189", "264", "149", "137", "422", "148", "293", "400", "369", "153", "287", "106", "102", "111", "354", "178", "414", "349", "406", "28", "225", "384", "68", "334", "315", "274", "265", "215", "11", "237", "434", "17", "174", "390", "114", "497", "227", "209", "496", "425", "208", "291", "351"]</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>0.05</v>
       </c>
       <c r="G50" t="n">
-        <v>11.38184</v>
+        <v>11.60357</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2065,14 +2065,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>["39", "481", "263", "162", "465", "335", "383", "161", "158", "135", "270", "243", "26", "103", "273", "304", "4", "182", "219", "206", "269", "327", "305", "33", "388", "473", "120", "372", "445", "245", "149", "499", "172", "215", "332", "225", "320", "413", "107", "381", "68", "422", "203", "486", "160", "233", "6", "109", "132", "246"]</t>
+          <t>["204", "481", "357", "491", "419", "478", "341", "62", "473", "162", "460", "409", "425", "215", "67", "257", "150", "335", "36", "339", "33", "6", "388", "434", "122", "258", "220", "100", "58", "149", "55", "158", "286", "362", "410", "316", "436", "265", "161", "264", "484", "206", "160", "185", "191", "148", "24", "440", "28", "184"]</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G51" t="n">
-        <v>10.63819</v>
+        <v>11.25091</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2097,14 +2097,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>["541", "779", "211", "8", "202", "392", "629", "196", "829", "742", "456", "284", "26", "19", "207", "471", "789", "784", "546", "253", "515", "410", "922", "379", "981", "562", "522", "52", "925", "389", "723", "854", "33", "138", "190", "301", "977", "714", "698", "980", "755", "340", "459", "139", "960", "44", "451", "278", "654", "693", "279", "424", "423", "688", "354", "564", "43", "501", "148", "557", "397", "130", "549", "798", "251", "998", "676", "520", "92", "686", "863", "49", "87", "385", "745", "650", "793", "375", "237", "986", "997", "764", "999", "203", "374", "490", "352", "915", "491", "107", "702", "970", "729", "425", "174", "645", "184", "266", "593", "312"]</t>
+          <t>["638", "8", "192", "796", "170", "211", "629", "424", "886", "306", "115", "204", "101", "934", "466", "195", "19", "139", "546", "447", "472", "22", "482", "30", "174", "339", "432", "129", "933", "913", "389", "461", "338", "89", "27", "649", "17", "490", "100", "44", "595", "532", "131", "93", "401", "190", "459", "989", "429", "304", "414", "322", "539", "544", "404", "944", "252", "576", "791", "992", "97", "693", "421", "480", "246", "705", "463", "506", "949", "548", "352", "889", "141", "870", "894", "203", "489", "374", "880", "570", "815", "904", "366", "812", "549", "970", "159", "72", "250", "601", "475", "842", "715", "887", "988", "730", "12", "193", "310", "665"]</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="G52" t="n">
-        <v>7.50774</v>
+        <v>7.81623</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2129,14 +2129,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>["713", "722", "681", "886", "531", "390", "45", "982", "752", "448", "256", "590", "947", "983", "593", "557", "545", "585", "418", "882", "166", "57", "391", "174", "238", "274", "561", "548", "277", "828", "27", "501", "53", "60", "527", "904", "719", "404", "333", "637", "602", "730", "472", "607", "674", "216", "158", "285", "619", "137", "690", "669", "953", "457", "134", "431", "160", "89", "364", "147", "227", "866", "800", "745", "0", "108", "792", "491", "643", "724", "223", "382", "683", "579", "715", "873", "912", "894", "130", "329", "735", "558", "440", "88", "24", "816", "79", "767", "756", "107", "540", "224", "985", "991", "176", "66", "262", "831", "525", "133"]</t>
+          <t>["860", "681", "722", "256", "122", "390", "799", "890", "238", "282", "265", "566", "352", "442", "66", "399", "765", "268", "585", "418", "269", "949", "582", "20", "581", "107", "825", "604", "756", "498", "283", "264", "855", "459", "743", "244", "218", "733", "621", "928", "176", "317", "277", "925", "243", "487", "156", "619", "225", "95", "623", "363", "276", "669", "360", "356", "90", "451", "434", "491", "234", "180", "631", "912", "767", "186", "329", "46", "603", "800", "286", "79", "560", "899", "826", "60", "521", "54", "292", "904", "23", "637", "943", "972", "179", "345", "492", "991", "694", "470", "818", "905", "397", "801", "864", "993", "49", "545", "525", "786"]</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="G53" t="n">
-        <v>7.68052</v>
+        <v>7.59092</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2161,14 +2161,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>["780", "379", "21", "918", "251", "959", "289", "738", "420", "396", "511", "509", "165", "155", "481", "742", "15", "829", "674", "484", "168", "547", "750", "238", "731", "997", "209", "409", "327", "403", "134", "729", "53", "917", "991", "247", "132", "280", "618", "663", "318", "100", "960", "401", "475", "300", "55", "333", "605", "31", "644", "451", "208", "77", "872", "988", "162", "97", "83", "886", "103", "367", "68", "854", "783", "909", "351", "527", "354", "219", "337", "813", "812", "589", "221", "386", "469", "570", "565", "762", "624", "947", "851", "129", "869", "358", "442", "384", "838", "8", "536", "230", "599", "726", "269", "946", "331", "51", "737", "299"]</t>
+          <t>["716", "21", "148", "951", "26", "917", "404", "348", "995", "518", "198", "568", "721", "938", "960", "420", "17", "109", "399", "15", "928", "465", "314", "820", "184", "264", "269", "999", "947", "259", "104", "432", "408", "450", "378", "842", "848", "340", "16", "454", "442", "260", "124", "672", "374", "339", "93", "776", "422", "248", "566", "228", "236", "318", "297", "783", "31", "898", "901", "160", "414", "832", "83", "758", "692", "570", "182", "810", "36", "513", "573", "211", "289", "575", "977", "122", "221", "336", "100", "809", "905", "756", "829", "815", "200", "401", "386", "695", "600", "127", "341", "643", "188", "539", "837", "347", "71", "923", "729", "619"]</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="G54" t="n">
-        <v>7.51414</v>
+        <v>7.69617</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>["376", "31", "709", "121", "485", "196", "474", "882", "263", "352", "326", "149", "437", "91", "176", "546", "341", "442", "932", "563", "650", "675", "491", "616", "840", "309", "296", "547", "413", "147", "348", "375", "214", "164", "818", "869", "552", "261", "730", "325", "817", "979", "620", "59", "18", "60", "92", "833", "712", "951", "0", "235", "594", "479", "577", "421", "237", "428", "711", "721", "259", "693", "476", "389", "331", "508", "794", "449", "722", "182", "219", "217", "559", "791", "542", "971", "579", "907", "578", "192", "612", "411", "668", "808", "760", "697", "842", "3", "780", "256", "470", "715", "717", "473", "314", "695", "339", "460", "716", "346"]</t>
+          <t>["720", "435", "31", "458", "709", "273", "467", "78", "196", "612", "105", "716", "51", "553", "776", "764", "205", "689", "828", "630", "449", "702", "845", "489", "739", "817", "416", "98", "791", "669", "193", "863", "441", "334", "535", "157", "171", "565", "615", "498", "813", "785", "232", "478", "588", "600", "179", "101", "808", "180", "975", "939", "259", "744", "15", "866", "222", "92", "338", "923", "299", "503", "547", "150", "457", "762", "927", "84", "262", "400", "97", "637", "261", "697", "237", "829", "315", "169", "440", "302", "922", "442", "930", "696", "820", "83", "89", "267", "659", "48", "793", "414", "827", "916", "943", "540", "156", "57", "766", "589"]</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="G55" t="n">
-        <v>7.61988</v>
+        <v>7.83567</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>["913", "210", "632", "660", "86", "40", "856", "849", "618", "315", "565", "853", "669", "859", "455", "504", "185", "894", "289", "411", "527", "614", "211", "0", "204", "545", "943", "385", "22", "250", "909", "58", "168", "874", "152", "630", "388", "959", "202", "875", "281", "906", "415", "852", "728", "946", "703", "402", "918", "114", "872", "768", "789", "301", "954", "508", "782", "605", "541", "407", "308", "802", "247", "401", "596", "268", "303", "297", "777", "645", "38", "940", "175", "521", "900", "863", "229", "828", "501", "649", "337", "397", "538", "794", "302", "115", "123", "934", "914", "524", "480", "879", "367", "740", "170", "97", "54", "74", "921", "328"]</t>
+          <t>["155", "660", "712", "906", "599", "189", "821", "111", "544", "310", "119", "762", "519", "564", "738", "16", "576", "99", "632", "634", "521", "563", "541", "687", "159", "371", "678", "461", "429", "179", "862", "759", "943", "210", "923", "34", "831", "962", "988", "910", "245", "528", "118", "966", "925", "221", "539", "830", "375", "446", "276", "297", "473", "249", "566", "810", "94", "14", "57", "515", "976", "78", "776", "911", "547", "631", "368", "739", "450", "454", "470", "879", "153", "514", "777", "262", "305", "123", "19", "826", "1", "858", "748", "25", "414", "286", "420", "431", "86", "669", "112", "253", "60", "388", "652", "222", "758", "581", "148", "381"]</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="G56" t="n">
-        <v>7.76503</v>
+        <v>7.83671</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2257,14 +2257,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>["431", "393", "470", "484", "274", "182", "866", "35", "607", "858", "619", "11", "331", "202", "109", "625", "466", "127", "413", "937", "623", "9", "336", "661", "537", "986", "767", "873", "930", "807", "223", "5", "481", "549", "981", "831", "766", "999", "926", "693", "50", "39", "898", "87", "770", "653", "296", "803", "637", "681", "945", "530", "152", "85", "191", "203", "415", "382", "923", "329", "872", "818", "231", "205", "479", "63", "330", "666", "17", "856", "347", "125", "629", "391", "36", "392", "276", "910", "810", "107", "338", "447", "522", "837", "544", "890", "24", "897", "214", "581", "587", "23", "390", "368", "60", "267", "758", "769", "373", "458"]</t>
+          <t>["933", "470", "356", "726", "512", "479", "155", "706", "181", "390", "781", "367", "345", "190", "687", "778", "141", "974", "768", "443", "254", "320", "413", "29", "929", "923", "98", "719", "116", "284", "700", "33", "154", "577", "56", "976", "53", "83", "42", "678", "412", "698", "34", "463", "331", "378", "607", "260", "295", "402", "473", "630", "91", "44", "352", "553", "910", "856", "230", "444", "8", "825", "110", "103", "327", "240", "442", "960", "654", "534", "661", "987", "667", "343", "197", "787", "439", "673", "486", "880", "364", "265", "503", "806", "346", "639", "194", "911", "119", "170", "664", "584", "167", "710", "459", "593", "135", "841", "804", "793"]</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>0.72</v>
       </c>
       <c r="G57" t="n">
-        <v>7.73765</v>
+        <v>7.81845</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2289,14 +2289,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>["405", "345", "425", "697", "668", "863", "912", "429", "545", "294", "88", "316", "488", "634", "152", "309", "939", "924", "396", "379", "65", "357", "76", "712", "903", "696", "596", "553", "602", "563", "117", "526", "768", "900", "872", "681", "604", "790", "161", "167", "8", "418", "7", "591", "911", "472", "445", "109", "933", "368", "859", "793", "946", "719", "972", "533", "250", "977", "86", "423", "475", "416", "456", "516", "153", "56", "645", "339", "751", "614", "132", "452", "307", "347", "438", "989", "361", "421", "315", "626", "865", "773", "266", "162", "686", "764", "442", "760", "898", "699", "829", "469", "441", "213", "409", "372", "255", "834", "36", "275"]</t>
+          <t>["193", "345", "425", "697", "668", "863", "912", "429", "545", "294", "510", "316", "488", "634", "152", "309", "939", "924", "396", "379", "357", "76", "796", "712", "465", "768", "596", "412", "553", "602", "563", "117", "526", "487", "872", "681", "927", "604", "790", "161", "8", "418", "7", "911", "464", "445", "109", "368", "859", "675", "591", "81", "972", "533", "250", "977", "631", "86", "391", "12", "416", "516", "45", "153", "541", "56", "474", "645", "339", "751", "452", "307", "347", "456", "438", "354", "989", "257", "421", "987", "35", "315", "626", "213", "865", "773", "136", "237", "266", "818", "442", "760", "470", "699", "829", "469", "441", "409", "372", "408"]</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="G58" t="n">
-        <v>7.47285</v>
+        <v>7.59051</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>["125", "74", "944", "469", "622", "392", "788", "903", "547", "60", "494", "422", "324", "68", "210", "653", "736", "286", "859", "419", "411", "223", "231", "554", "461", "989", "136", "735", "598", "759", "163", "258", "853", "952", "950", "927", "812", "184", "959", "354", "805", "522", "869", "7", "532", "83", "91", "96", "649", "276", "999", "265", "787", "830", "393", "900", "761", "920", "142", "177", "168", "542", "860", "620", "982", "942", "426", "46", "13", "129", "448", "82", "454", "244", "268", "485", "595", "851", "112", "895", "883", "355", "39", "838", "11", "9", "640", "143", "102", "352", "552", "205", "990", "440", "481", "414", "882", "90", "407", "277"]</t>
+          <t>["611", "697", "446", "462", "478", "233", "911", "522", "13", "298", "640", "357", "529", "38", "516", "110", "305", "634", "158", "694", "1", "888", "873", "162", "3", "354", "130", "654", "646", "937", "384", "270", "971", "273", "407", "166", "202", "152", "229", "285", "999", "194", "624", "206", "136", "471", "317", "133", "783", "905", "663", "28", "615", "343", "376", "942", "15", "875", "164", "745", "55", "31", "497", "902", "935", "789", "675", "483", "599", "411", "40", "92", "244", "390", "238", "21", "706", "121", "819", "582", "733", "378", "210", "866", "177", "572", "30", "844", "403", "27", "838", "165", "772", "928", "144", "542", "926", "9", "917", "690"]</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="G59" t="n">
-        <v>7.8681</v>
+        <v>7.74332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2353,14 +2353,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>["894", "350", "271", "457", "117", "560", "295", "446", "586", "669", "640", "376", "429", "316", "590", "323", "428", "571", "132", "455", "362", "499", "198", "849", "534", "345", "160", "531", "276", "288", "480", "50", "128", "828", "934", "688", "28", "106", "628", "944", "102", "692", "173", "644", "839", "597", "851", "493", "398", "370", "943", "660", "29", "433", "282", "820", "410", "529", "232", "86", "900", "827", "298", "960", "972", "994", "284", "631", "558", "285", "671", "869", "841", "227", "178", "928", "773", "119", "328", "576", "976", "575", "614", "975", "83", "684", "283", "333", "843", "71", "101", "686", "668", "940", "898", "545", "44", "738", "678", "157"]</t>
+          <t>["218", "457", "350", "325", "80", "105", "499", "796", "865", "748", "810", "855", "612", "183", "590", "665", "653", "583", "419", "662", "269", "362", "397", "426", "908", "521", "978", "548", "377", "859", "969", "828", "446", "711", "569", "762", "308", "901", "630", "321", "626", "492", "718", "423", "601", "251", "533", "830", "614", "127", "545", "616", "343", "524", "953", "102", "272", "471", "169", "979", "975", "201", "917", "248", "396", "784", "233", "827", "361", "420", "358", "702", "506", "594", "10", "899", "994", "370", "295", "838", "973", "716", "815", "857", "675", "811", "575", "576", "235", "498", "98", "900", "406", "490", "45", "294", "608", "652", "623", "428"]</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="G60" t="n">
-        <v>7.77875</v>
+        <v>7.91043</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>["498", "389", "80", "598", "403", "562", "30", "421", "308", "789", "360", "749", "336", "692", "236", "194", "427", "450", "411", "156", "271", "397", "983", "123", "856", "524", "409", "107", "540", "505", "946", "796", "310", "859", "438", "9", "169", "332", "618", "850", "514", "931", "981", "458", "520", "412", "89", "746", "667", "977", "957", "798", "31", "17", "223", "281", "195", "993", "962", "894", "808", "698", "559", "655", "689", "899", "385", "676", "817", "634", "408", "898", "85", "130", "597", "500", "102", "183", "285", "606", "803", "175", "889", "907", "0", "210", "639", "716", "656", "48", "441", "26", "873", "719", "720", "515", "885", "394", "249", "541"]</t>
+          <t>["527", "958", "389", "931", "319", "429", "774", "982", "9", "733", "764", "592", "323", "479", "28", "291", "74", "129", "546", "375", "908", "221", "434", "107", "605", "677", "437", "80", "680", "629", "531", "658", "607", "223", "613", "868", "345", "789", "421", "371", "278", "472", "851", "559", "433", "668", "343", "535", "903", "644", "239", "63", "651", "441", "624", "904", "965", "574", "738", "301", "6", "213", "636", "23", "106", "159", "872", "114", "942", "149", "614", "736", "743", "56", "991", "919", "202", "194", "670", "184", "390", "864", "678", "665", "996", "42", "562", "452", "85", "47", "619", "966", "233", "648", "840", "174", "328", "87", "228", "172"]</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G61" t="n">
-        <v>7.67002</v>
+        <v>7.67499</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>["12", "20", "7"]</t>
+          <t>["20", "7", "12"]</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2488,7 +2488,7 @@
         <v>80.28497</v>
       </c>
       <c r="H2" t="n">
-        <v>7341365</v>
+        <v>7289359</v>
       </c>
     </row>
     <row r="3">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>["22", "24", "13"]</t>
+          <t>["24", "13", "22"]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2520,7 +2520,7 @@
         <v>78.42063</v>
       </c>
       <c r="H3" t="n">
-        <v>7115015</v>
+        <v>7271878</v>
       </c>
     </row>
     <row r="4">
@@ -2552,7 +2552,7 @@
         <v>81.20881</v>
       </c>
       <c r="H4" t="n">
-        <v>7225073</v>
+        <v>7300529</v>
       </c>
     </row>
     <row r="5">
@@ -2584,7 +2584,7 @@
         <v>81.5193</v>
       </c>
       <c r="H5" t="n">
-        <v>7223358</v>
+        <v>7291174</v>
       </c>
     </row>
     <row r="6">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["4", "20", "12"]</t>
+          <t>["4", "12", "20"]</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2616,7 +2616,7 @@
         <v>77.95853</v>
       </c>
       <c r="H6" t="n">
-        <v>7277003</v>
+        <v>7307061</v>
       </c>
     </row>
     <row r="7">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>["24", "15", "23"]</t>
+          <t>["23", "15", "24"]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2648,7 +2648,7 @@
         <v>74.06856999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>7111024</v>
+        <v>7296244</v>
       </c>
     </row>
     <row r="8">
@@ -2680,7 +2680,7 @@
         <v>77.00823</v>
       </c>
       <c r="H8" t="n">
-        <v>7257460</v>
+        <v>7283890</v>
       </c>
     </row>
     <row r="9">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["21", "19", "24"]</t>
+          <t>["21", "24", "19"]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2712,7 +2712,7 @@
         <v>91.60720999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>7080999</v>
+        <v>7372655</v>
       </c>
     </row>
     <row r="10">
@@ -2744,7 +2744,7 @@
         <v>85.55288</v>
       </c>
       <c r="H10" t="n">
-        <v>7215820</v>
+        <v>7295921</v>
       </c>
     </row>
     <row r="11">
@@ -2776,7 +2776,7 @@
         <v>88.93698999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>7209185</v>
+        <v>7266198</v>
       </c>
     </row>
     <row r="12">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>["25", "40", "6", "33", "36"]</t>
+          <t>["36", "6", "40", "33", "39"]</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2808,7 +2808,7 @@
         <v>54.21418</v>
       </c>
       <c r="H12" t="n">
-        <v>9884445</v>
+        <v>10070894</v>
       </c>
     </row>
     <row r="13">
@@ -2840,7 +2840,7 @@
         <v>54.20737</v>
       </c>
       <c r="H13" t="n">
-        <v>9926262</v>
+        <v>9961360</v>
       </c>
     </row>
     <row r="14">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>["36", "11", "20", "29", "12"]</t>
+          <t>["12", "29", "11", "36", "1"]</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2872,7 +2872,7 @@
         <v>55.74734</v>
       </c>
       <c r="H14" t="n">
-        <v>9904732</v>
+        <v>10001348</v>
       </c>
     </row>
     <row r="15">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>["3", "15", "39", "32", "22"]</t>
+          <t>["15", "9", "30", "32", "22"]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2904,7 +2904,7 @@
         <v>53.8571</v>
       </c>
       <c r="H15" t="n">
-        <v>9959931</v>
+        <v>9895675</v>
       </c>
     </row>
     <row r="16">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["38", "49", "17", "6", "25"]</t>
+          <t>["17", "44", "43", "25", "6"]</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2936,7 +2936,7 @@
         <v>56.50811</v>
       </c>
       <c r="H16" t="n">
-        <v>9910691</v>
+        <v>9996850</v>
       </c>
     </row>
     <row r="17">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>["23", "21", "27", "26", "29"]</t>
+          <t>["35", "26", "29", "21", "32"]</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2968,7 +2968,7 @@
         <v>50.83433</v>
       </c>
       <c r="H17" t="n">
-        <v>9959818</v>
+        <v>9875606</v>
       </c>
     </row>
     <row r="18">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["37", "16", "2", "49", "19"]</t>
+          <t>["49", "16", "19", "2", "37"]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3000,7 +3000,7 @@
         <v>57.84889</v>
       </c>
       <c r="H18" t="n">
-        <v>9835812</v>
+        <v>10091241</v>
       </c>
     </row>
     <row r="19">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>["2", "10", "8", "5", "14"]</t>
+          <t>["8", "5", "14", "10", "2"]</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3032,7 +3032,7 @@
         <v>50.62569</v>
       </c>
       <c r="H19" t="n">
-        <v>9928175</v>
+        <v>10114583</v>
       </c>
     </row>
     <row r="20">
@@ -3064,7 +3064,7 @@
         <v>52.21945</v>
       </c>
       <c r="H20" t="n">
-        <v>9907684</v>
+        <v>10055431</v>
       </c>
     </row>
     <row r="21">
@@ -3096,7 +3096,7 @@
         <v>57.47996</v>
       </c>
       <c r="H21" t="n">
-        <v>9971998</v>
+        <v>10008146</v>
       </c>
     </row>
     <row r="22">
@@ -3118,17 +3118,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>["17", "38", "9", "46", "47", "4", "6", "96", "82", "91"]</t>
+          <t>["32", "60", "62", "18", "71", "22", "14", "69", "86", "27"]</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>31.22725</v>
+        <v>30.43833</v>
       </c>
       <c r="H22" t="n">
-        <v>8992330</v>
+        <v>9100115</v>
       </c>
     </row>
     <row r="23">
@@ -3150,17 +3150,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>["66", "50", "89", "74", "78", "39", "83", "54", "45", "43"]</t>
+          <t>["36", "39", "32", "58", "42", "18", "66", "46", "48", "67"]</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>29.27689</v>
+        <v>29.09736</v>
       </c>
       <c r="H23" t="n">
-        <v>8979703</v>
+        <v>9061940</v>
       </c>
     </row>
     <row r="24">
@@ -3192,7 +3192,7 @@
         <v>30.32437</v>
       </c>
       <c r="H24" t="n">
-        <v>8928338</v>
+        <v>9074985</v>
       </c>
     </row>
     <row r="25">
@@ -3214,17 +3214,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>["63", "40", "48", "2", "84", "11", "34", "60", "67", "5"]</t>
+          <t>["37", "5", "76", "82", "51", "84", "23", "15", "0", "1"]</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>30.91772</v>
+        <v>30.34997</v>
       </c>
       <c r="H25" t="n">
-        <v>8942784</v>
+        <v>9071734</v>
       </c>
     </row>
     <row r="26">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>["70", "44", "53", "14", "33", "65", "12", "86", "25", "11"]</t>
+          <t>["95", "65", "71", "87", "42", "16", "10", "90", "76", "51"]</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>29.95241</v>
+        <v>29.92558</v>
       </c>
       <c r="H26" t="n">
-        <v>9002678</v>
+        <v>9086005</v>
       </c>
     </row>
     <row r="27">
@@ -3288,7 +3288,7 @@
         <v>31.19735</v>
       </c>
       <c r="H27" t="n">
-        <v>8983503</v>
+        <v>9061242</v>
       </c>
     </row>
     <row r="28">
@@ -3310,17 +3310,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>["15", "66", "61", "42", "43", "55", "27", "4", "58", "87"]</t>
+          <t>["23", "96", "49", "59", "40", "76", "42", "75", "93", "43"]</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>30.89551</v>
+        <v>32.53505</v>
       </c>
       <c r="H28" t="n">
-        <v>8826444</v>
+        <v>9074733</v>
       </c>
     </row>
     <row r="29">
@@ -3352,7 +3352,7 @@
         <v>30.01654</v>
       </c>
       <c r="H29" t="n">
-        <v>8899911</v>
+        <v>9090389</v>
       </c>
     </row>
     <row r="30">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>["87", "55", "38", "5", "91", "8", "84", "43", "64", "95"]</t>
+          <t>["88", "75", "5", "62", "2", "22", "64", "74", "68", "12"]</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>31.88074</v>
+        <v>30.94268</v>
       </c>
       <c r="H30" t="n">
-        <v>9031376</v>
+        <v>9099041</v>
       </c>
     </row>
     <row r="31">
@@ -3406,17 +3406,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>["63", "32", "37", "79", "55", "50", "67", "96", "78", "5"]</t>
+          <t>["84", "6", "49", "65", "41", "14", "78", "67", "74", "35"]</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>29.4634</v>
+        <v>31.12947</v>
       </c>
       <c r="H31" t="n">
-        <v>8969387</v>
+        <v>9197297</v>
       </c>
     </row>
     <row r="32">
@@ -3442,13 +3442,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G32" t="n">
         <v>18.0066</v>
       </c>
       <c r="H32" t="n">
-        <v>2247460</v>
+        <v>5793316</v>
       </c>
     </row>
     <row r="33">
@@ -3474,13 +3474,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G33" t="n">
         <v>18.97669</v>
       </c>
       <c r="H33" t="n">
-        <v>2242825</v>
+        <v>5701327</v>
       </c>
     </row>
     <row r="34">
@@ -3506,13 +3506,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G34" t="n">
         <v>16.99478</v>
       </c>
       <c r="H34" t="n">
-        <v>2240296</v>
+        <v>5708618</v>
       </c>
     </row>
     <row r="35">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G35" t="n">
         <v>15.50381</v>
       </c>
       <c r="H35" t="n">
-        <v>2235181</v>
+        <v>5682064</v>
       </c>
     </row>
     <row r="36">
@@ -3570,13 +3570,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G36" t="n">
         <v>16.43693</v>
       </c>
       <c r="H36" t="n">
-        <v>2171439</v>
+        <v>5697506</v>
       </c>
     </row>
     <row r="37">
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G37" t="n">
         <v>17.42062</v>
       </c>
       <c r="H37" t="n">
-        <v>2229692</v>
+        <v>5681542</v>
       </c>
     </row>
     <row r="38">
@@ -3634,13 +3634,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G38" t="n">
         <v>16.48831</v>
       </c>
       <c r="H38" t="n">
-        <v>2242496</v>
+        <v>5699783</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G39" t="n">
         <v>16.92862</v>
       </c>
       <c r="H39" t="n">
-        <v>2248649</v>
+        <v>5706171</v>
       </c>
     </row>
     <row r="40">
@@ -3698,13 +3698,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G40" t="n">
         <v>16.46085</v>
       </c>
       <c r="H40" t="n">
-        <v>2246020</v>
+        <v>5764198</v>
       </c>
     </row>
     <row r="41">
@@ -3730,13 +3730,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G41" t="n">
         <v>17.06545</v>
       </c>
       <c r="H41" t="n">
-        <v>2229518</v>
+        <v>5743482</v>
       </c>
     </row>
     <row r="42">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100.06</v>
+        <v>500.06</v>
       </c>
       <c r="G42" t="n">
         <v>10.63389</v>
       </c>
       <c r="H42" t="n">
-        <v>604161</v>
+        <v>3125612</v>
       </c>
     </row>
     <row r="43">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100.06</v>
+        <v>500.06</v>
       </c>
       <c r="G43" t="n">
         <v>10.8462</v>
       </c>
       <c r="H43" t="n">
-        <v>600946</v>
+        <v>3070893</v>
       </c>
     </row>
     <row r="44">
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100.06</v>
+        <v>500.06</v>
       </c>
       <c r="G44" t="n">
         <v>11.3367</v>
       </c>
       <c r="H44" t="n">
-        <v>597415</v>
+        <v>3065470</v>
       </c>
     </row>
     <row r="45">
@@ -3858,13 +3858,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100.08</v>
+        <v>500.06</v>
       </c>
       <c r="G45" t="n">
         <v>11.19765</v>
       </c>
       <c r="H45" t="n">
-        <v>596491</v>
+        <v>3068423</v>
       </c>
     </row>
     <row r="46">
@@ -3890,13 +3890,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100.07</v>
+        <v>500.06</v>
       </c>
       <c r="G46" t="n">
         <v>11.18143</v>
       </c>
       <c r="H46" t="n">
-        <v>599953</v>
+        <v>2884430</v>
       </c>
     </row>
     <row r="47">
@@ -3922,13 +3922,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100.07</v>
+        <v>500.06</v>
       </c>
       <c r="G47" t="n">
         <v>10.77303</v>
       </c>
       <c r="H47" t="n">
-        <v>589947</v>
+        <v>3133095</v>
       </c>
     </row>
     <row r="48">
@@ -3954,13 +3954,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100.07</v>
+        <v>500.06</v>
       </c>
       <c r="G48" t="n">
         <v>11.36334</v>
       </c>
       <c r="H48" t="n">
-        <v>604397</v>
+        <v>3107467</v>
       </c>
     </row>
     <row r="49">
@@ -3986,13 +3986,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100.06</v>
+        <v>500.06</v>
       </c>
       <c r="G49" t="n">
         <v>11.06908</v>
       </c>
       <c r="H49" t="n">
-        <v>594147</v>
+        <v>3059440</v>
       </c>
     </row>
     <row r="50">
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100.06</v>
+        <v>500.06</v>
       </c>
       <c r="G50" t="n">
         <v>10.83097</v>
       </c>
       <c r="H50" t="n">
-        <v>593943</v>
+        <v>3089772</v>
       </c>
     </row>
     <row r="51">
@@ -4050,13 +4050,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100.07</v>
+        <v>500.06</v>
       </c>
       <c r="G51" t="n">
         <v>11.26237</v>
       </c>
       <c r="H51" t="n">
-        <v>600671</v>
+        <v>3080114</v>
       </c>
     </row>
     <row r="52">
@@ -4082,13 +4082,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100.72</v>
+        <v>1000.68</v>
       </c>
       <c r="G52" t="n">
         <v>7.64769</v>
       </c>
       <c r="H52" t="n">
-        <v>154248</v>
+        <v>1583747</v>
       </c>
     </row>
     <row r="53">
@@ -4114,13 +4114,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100.84</v>
+        <v>1000.72</v>
       </c>
       <c r="G53" t="n">
         <v>7.66389</v>
       </c>
       <c r="H53" t="n">
-        <v>152497</v>
+        <v>1586895</v>
       </c>
     </row>
     <row r="54">
@@ -4146,13 +4146,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100.71</v>
+        <v>1000.65</v>
       </c>
       <c r="G54" t="n">
         <v>7.44725</v>
       </c>
       <c r="H54" t="n">
-        <v>152309</v>
+        <v>1562022</v>
       </c>
     </row>
     <row r="55">
@@ -4178,13 +4178,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100.83</v>
+        <v>1000.76</v>
       </c>
       <c r="G55" t="n">
         <v>7.54853</v>
       </c>
       <c r="H55" t="n">
-        <v>152498</v>
+        <v>1569366</v>
       </c>
     </row>
     <row r="56">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100.74</v>
+        <v>1000.69</v>
       </c>
       <c r="G56" t="n">
         <v>7.65908</v>
       </c>
       <c r="H56" t="n">
-        <v>151288</v>
+        <v>1555766</v>
       </c>
     </row>
     <row r="57">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100.75</v>
+        <v>1000.76</v>
       </c>
       <c r="G57" t="n">
         <v>7.52963</v>
       </c>
       <c r="H57" t="n">
-        <v>153706</v>
+        <v>1558794</v>
       </c>
     </row>
     <row r="58">
@@ -4274,13 +4274,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100.75</v>
+        <v>1000.76</v>
       </c>
       <c r="G58" t="n">
         <v>7.35592</v>
       </c>
       <c r="H58" t="n">
-        <v>152350</v>
+        <v>1566919</v>
       </c>
     </row>
     <row r="59">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100.74</v>
+        <v>1000.68</v>
       </c>
       <c r="G59" t="n">
         <v>7.63126</v>
       </c>
       <c r="H59" t="n">
-        <v>154615</v>
+        <v>1565161</v>
       </c>
     </row>
     <row r="60">
@@ -4338,13 +4338,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100.77</v>
+        <v>1000.69</v>
       </c>
       <c r="G60" t="n">
         <v>7.7134</v>
       </c>
       <c r="H60" t="n">
-        <v>151932</v>
+        <v>1569296</v>
       </c>
     </row>
     <row r="61">
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100.76</v>
+        <v>1000.75</v>
       </c>
       <c r="G61" t="n">
         <v>7.66154</v>
       </c>
       <c r="H61" t="n">
-        <v>152727</v>
+        <v>1573207</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4469,7 @@
         <v>80.28497</v>
       </c>
       <c r="H2" t="n">
-        <v>112664</v>
+        <v>114352</v>
       </c>
     </row>
     <row r="3">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>["24", "13", "22"]</t>
+          <t>["13", "22", "24"]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -4501,7 +4501,7 @@
         <v>78.42063</v>
       </c>
       <c r="H3" t="n">
-        <v>111695</v>
+        <v>112945</v>
       </c>
     </row>
     <row r="4">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>["5", "14", "22"]</t>
+          <t>["14", "5", "22"]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4533,7 +4533,7 @@
         <v>81.20881</v>
       </c>
       <c r="H4" t="n">
-        <v>112280</v>
+        <v>112715</v>
       </c>
     </row>
     <row r="5">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>["24", "2", "17"]</t>
+          <t>["17", "24", "2"]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4565,7 +4565,7 @@
         <v>81.5193</v>
       </c>
       <c r="H5" t="n">
-        <v>111075</v>
+        <v>113239</v>
       </c>
     </row>
     <row r="6">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["4", "12", "20"]</t>
+          <t>["20", "12", "4"]</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4597,7 +4597,7 @@
         <v>77.95853</v>
       </c>
       <c r="H6" t="n">
-        <v>112387</v>
+        <v>112310</v>
       </c>
     </row>
     <row r="7">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>["23", "24", "15"]</t>
+          <t>["24", "15", "23"]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4629,7 +4629,7 @@
         <v>74.06856999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>113090</v>
+        <v>113673</v>
       </c>
     </row>
     <row r="8">
@@ -4661,7 +4661,7 @@
         <v>77.00823</v>
       </c>
       <c r="H8" t="n">
-        <v>111714</v>
+        <v>113403</v>
       </c>
     </row>
     <row r="9">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["24", "21", "19"]</t>
+          <t>["19", "21", "24"]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4693,7 +4693,7 @@
         <v>91.60720999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>111548</v>
+        <v>112717</v>
       </c>
     </row>
     <row r="10">
@@ -4725,7 +4725,7 @@
         <v>85.55288</v>
       </c>
       <c r="H10" t="n">
-        <v>112774</v>
+        <v>113541</v>
       </c>
     </row>
     <row r="11">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>["6", "5", "12"]</t>
+          <t>["12", "6", "5"]</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4757,7 +4757,7 @@
         <v>88.93698999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>112291</v>
+        <v>111860</v>
       </c>
     </row>
     <row r="12">
@@ -4789,7 +4789,7 @@
         <v>53.44376</v>
       </c>
       <c r="H12" t="n">
-        <v>84538</v>
+        <v>84736</v>
       </c>
     </row>
     <row r="13">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>["48", "39", "46", "28", "19"]</t>
+          <t>["19", "48", "39", "46", "28"]</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4821,7 +4821,7 @@
         <v>54.20737</v>
       </c>
       <c r="H13" t="n">
-        <v>83784</v>
+        <v>85251</v>
       </c>
     </row>
     <row r="14">
@@ -4853,7 +4853,7 @@
         <v>52.72219</v>
       </c>
       <c r="H14" t="n">
-        <v>84140</v>
+        <v>85161</v>
       </c>
     </row>
     <row r="15">
@@ -4885,7 +4885,7 @@
         <v>53.8571</v>
       </c>
       <c r="H15" t="n">
-        <v>85001</v>
+        <v>85642</v>
       </c>
     </row>
     <row r="16">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["49", "17", "25", "44", "6"]</t>
+          <t>["44", "25", "17", "49", "6"]</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4917,7 +4917,7 @@
         <v>56.50811</v>
       </c>
       <c r="H16" t="n">
-        <v>84279</v>
+        <v>84947</v>
       </c>
     </row>
     <row r="17">
@@ -4949,7 +4949,7 @@
         <v>48.80959</v>
       </c>
       <c r="H17" t="n">
-        <v>84616</v>
+        <v>85393</v>
       </c>
     </row>
     <row r="18">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["23", "14", "10", "6", "18"]</t>
+          <t>["20", "10", "37", "34", "18"]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4981,7 +4981,7 @@
         <v>54.29069</v>
       </c>
       <c r="H18" t="n">
-        <v>84635</v>
+        <v>84543</v>
       </c>
     </row>
     <row r="19">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>["14", "10", "25", "5", "48"]</t>
+          <t>["34", "14", "25", "7", "48"]</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5013,7 +5013,7 @@
         <v>48.59592</v>
       </c>
       <c r="H19" t="n">
-        <v>83487</v>
+        <v>85546</v>
       </c>
     </row>
     <row r="20">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>["3", "46", "10", "22", "13"]</t>
+          <t>["25", "3", "10", "17", "13"]</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5045,7 +5045,7 @@
         <v>52.21945</v>
       </c>
       <c r="H20" t="n">
-        <v>84548</v>
+        <v>85594</v>
       </c>
     </row>
     <row r="21">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>["41", "27", "28", "49", "29"]</t>
+          <t>["29", "27", "28", "49", "41"]</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5077,7 +5077,7 @@
         <v>57.47996</v>
       </c>
       <c r="H21" t="n">
-        <v>84765</v>
+        <v>85048</v>
       </c>
     </row>
     <row r="22">
@@ -5109,7 +5109,7 @@
         <v>33.3938</v>
       </c>
       <c r="H22" t="n">
-        <v>38132</v>
+        <v>38921</v>
       </c>
     </row>
     <row r="23">
@@ -5141,7 +5141,7 @@
         <v>31.39463</v>
       </c>
       <c r="H23" t="n">
-        <v>38083</v>
+        <v>38655</v>
       </c>
     </row>
     <row r="24">
@@ -5173,7 +5173,7 @@
         <v>34.02584</v>
       </c>
       <c r="H24" t="n">
-        <v>38032</v>
+        <v>38750</v>
       </c>
     </row>
     <row r="25">
@@ -5205,7 +5205,7 @@
         <v>32.73366</v>
       </c>
       <c r="H25" t="n">
-        <v>38287</v>
+        <v>38770</v>
       </c>
     </row>
     <row r="26">
@@ -5237,7 +5237,7 @@
         <v>35.20067</v>
       </c>
       <c r="H26" t="n">
-        <v>38033</v>
+        <v>38760</v>
       </c>
     </row>
     <row r="27">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>["30", "28", "5", "67", "77", "69", "68", "82", "47", "65"]</t>
+          <t>["76", "67", "30", "28", "77", "69", "68", "47", "82", "65"]</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -5269,7 +5269,7 @@
         <v>31.19735</v>
       </c>
       <c r="H27" t="n">
-        <v>38077</v>
+        <v>38725</v>
       </c>
     </row>
     <row r="28">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>["43", "93", "87", "76", "89", "41", "77", "49", "62", "55"]</t>
+          <t>["93", "43", "87", "76", "89", "41", "77", "49", "62", "55"]</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -5301,7 +5301,7 @@
         <v>34.65708</v>
       </c>
       <c r="H28" t="n">
-        <v>38153</v>
+        <v>38870</v>
       </c>
     </row>
     <row r="29">
@@ -5333,7 +5333,7 @@
         <v>30.87721</v>
       </c>
       <c r="H29" t="n">
-        <v>38063</v>
+        <v>38515</v>
       </c>
     </row>
     <row r="30">
@@ -5365,7 +5365,7 @@
         <v>33.26102</v>
       </c>
       <c r="H30" t="n">
-        <v>37876</v>
+        <v>38958</v>
       </c>
     </row>
     <row r="31">
@@ -5397,7 +5397,7 @@
         <v>31.45476</v>
       </c>
       <c r="H31" t="n">
-        <v>38173</v>
+        <v>39009</v>
       </c>
     </row>
     <row r="32">
@@ -5423,13 +5423,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100.01</v>
+        <v>250</v>
       </c>
       <c r="G32" t="n">
         <v>18.102</v>
       </c>
       <c r="H32" t="n">
-        <v>3564</v>
+        <v>9256</v>
       </c>
     </row>
     <row r="33">
@@ -5451,17 +5451,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>["220", "69", "15", "229", "149", "192", "56", "86", "147", "111", "103", "247", "117", "176", "200", "26", "121", "100", "88", "242", "68", "83", "194", "142", "8"]</t>
+          <t>["229", "15", "220", "69", "149", "192", "56", "86", "147", "111", "103", "247", "117", "176", "200", "26", "121", "100", "88", "242", "68", "83", "194", "142", "8"]</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100.01</v>
+        <v>250</v>
       </c>
       <c r="G33" t="n">
         <v>18.97669</v>
       </c>
       <c r="H33" t="n">
-        <v>3538</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="34">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100.02</v>
+        <v>250.02</v>
       </c>
       <c r="G34" t="n">
         <v>18.7203</v>
       </c>
       <c r="H34" t="n">
-        <v>3526</v>
+        <v>9130</v>
       </c>
     </row>
     <row r="35">
@@ -5519,13 +5519,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100.01</v>
+        <v>250.02</v>
       </c>
       <c r="G35" t="n">
         <v>17.59067</v>
       </c>
       <c r="H35" t="n">
-        <v>3510</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="36">
@@ -5551,13 +5551,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100.02</v>
+        <v>250</v>
       </c>
       <c r="G36" t="n">
         <v>18.80037</v>
       </c>
       <c r="H36" t="n">
-        <v>3494</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="37">
@@ -5583,13 +5583,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100.03</v>
+        <v>250.01</v>
       </c>
       <c r="G37" t="n">
         <v>18.61509</v>
       </c>
       <c r="H37" t="n">
-        <v>3499</v>
+        <v>9095</v>
       </c>
     </row>
     <row r="38">
@@ -5615,13 +5615,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100.03</v>
+        <v>250.02</v>
       </c>
       <c r="G38" t="n">
         <v>18.23423</v>
       </c>
       <c r="H38" t="n">
-        <v>3484</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="39">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100.01</v>
+        <v>250.01</v>
       </c>
       <c r="G39" t="n">
         <v>18.51018</v>
       </c>
       <c r="H39" t="n">
-        <v>3473</v>
+        <v>9119</v>
       </c>
     </row>
     <row r="40">
@@ -5679,13 +5679,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100.02</v>
+        <v>250</v>
       </c>
       <c r="G40" t="n">
         <v>18.17407</v>
       </c>
       <c r="H40" t="n">
-        <v>3495</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="41">
@@ -5707,17 +5707,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>["15", "5", "213", "68", "35", "44", "170", "52", "4", "111", "128", "224", "109", "23", "98", "89", "141", "169", "240", "54", "167", "86", "82", "186", "185"]</t>
+          <t>["25", "5", "213", "68", "217", "44", "52", "170", "4", "224", "131", "109", "204", "14", "89", "141", "82", "90", "167", "23", "120", "86", "186", "169", "185"]</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100.02</v>
+        <v>250.01</v>
       </c>
       <c r="G41" t="n">
         <v>17.8195</v>
       </c>
       <c r="H41" t="n">
-        <v>3519</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="42">
@@ -5739,17 +5739,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>["186", "215", "59", "150", "325", "481", "499", "433", "204", "50", "386", "60", "155", "460", "216", "26", "168", "209", "413", "151", "126", "394", "239", "195", "274", "297", "330", "383", "412", "382", "278", "483", "431", "139", "194", "380", "371", "364", "488", "333", "404", "177", "308", "171", "395", "497", "358", "234", "477", "286"]</t>
+          <t>["110", "59", "215", "325", "475", "481", "436", "150", "437", "41", "87", "155", "337", "338", "26", "319", "151", "469", "209", "330", "449", "443", "25", "165", "73", "322", "341", "145", "256", "431", "311", "18", "51", "380", "364", "89", "441", "157", "488", "408", "286", "404", "462", "122", "171", "92", "395", "234", "498", "336"]</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100.19</v>
+        <v>500.04</v>
       </c>
       <c r="G42" t="n">
-        <v>11.79027</v>
+        <v>11.79822</v>
       </c>
       <c r="H42" t="n">
-        <v>483</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="43">
@@ -5771,17 +5771,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>["311", "30", "285", "302", "296", "288", "409", "54", "21", "290", "103", "495", "458", "147", "148", "18", "34", "102", "239", "388", "450", "6", "134", "81", "306", "126", "2", "266", "361", "208", "359", "33", "294", "85", "418", "272", "310", "273", "337", "315", "277", "264", "139", "465", "124", "111", "68", "262", "45", "159"]</t>
+          <t>["154", "285", "296", "30", "97", "288", "321", "302", "118", "103", "156", "314", "271", "217", "63", "61", "148", "34", "357", "0", "366", "15", "418", "463", "316", "92", "388", "449", "354", "398", "53", "51", "137", "185", "42", "242", "358", "334", "315", "433", "318", "324", "341", "253", "8", "9", "104", "262", "259", "159"]</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100.15</v>
+        <v>500.12</v>
       </c>
       <c r="G43" t="n">
         <v>12.10852</v>
       </c>
       <c r="H43" t="n">
-        <v>481</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="44">
@@ -5803,17 +5803,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>["350", "70", "434", "345", "251", "415", "22", "166", "355", "100", "15", "412", "269", "137", "311", "47", "86", "379", "131", "275", "444", "170", "354", "326", "404", "408", "322", "247", "349", "264", "317", "276", "174", "348", "125", "333", "73", "163", "430", "471", "291", "493", "487", "181", "337", "292", "210", "34", "167", "103"]</t>
+          <t>["340", "70", "434", "345", "339", "347", "22", "251", "167", "168", "473", "172", "12", "15", "311", "274", "170", "379", "137", "355", "113", "406", "184", "237", "152", "281", "265", "388", "326", "85", "449", "341", "349", "183", "105", "136", "348", "210", "55", "204", "163", "165", "271", "395", "291", "387", "223", "337", "248", "106"]</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100.14</v>
+        <v>500.15</v>
       </c>
       <c r="G44" t="n">
-        <v>12.2199</v>
+        <v>12.4534</v>
       </c>
       <c r="H44" t="n">
-        <v>479</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="45">
@@ -5835,17 +5835,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>["148", "315", "248", "395", "176", "452", "473", "448", "84", "59", "200", "50", "301", "316", "429", "323", "70", "309", "385", "100", "153", "318", "450", "497", "37", "26", "58", "30", "152", "259", "80", "132", "89", "97", "402", "410", "442", "13", "445", "55", "249", "451", "453", "380", "53", "242", "6", "258", "355", "358"]</t>
+          <t>["92", "315", "248", "395", "113", "473", "365", "176", "409", "353", "310", "261", "304", "418", "136", "299", "115", "372", "320", "366", "451", "455", "445", "318", "235", "120", "140", "450", "152", "89", "442", "7", "293", "423", "68", "262", "55", "410", "32", "389", "431", "465", "497", "179", "5", "53", "457", "460", "154", "146"]</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100.09</v>
+        <v>500.1</v>
       </c>
       <c r="G45" t="n">
-        <v>12.09766</v>
+        <v>12.14869</v>
       </c>
       <c r="H45" t="n">
-        <v>478</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="46">
@@ -5867,17 +5867,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>["288", "398", "381", "373", "97", "333", "452", "177", "34", "312", "89", "204", "47", "270", "184", "477", "410", "172", "375", "313", "81", "163", "123", "392", "286", "336", "481", "292", "73", "214", "424", "360", "151", "189", "93", "132", "265", "75", "33", "402", "242", "465", "290", "475", "469", "440", "201", "439", "185", "408"]</t>
+          <t>["0", "381", "398", "419", "385", "97", "177", "479", "59", "139", "89", "134", "404", "477", "34", "410", "172", "349", "246", "375", "313", "221", "114", "350", "424", "326", "427", "196", "189", "144", "8", "412", "117", "132", "93", "265", "31", "100", "319", "54", "465", "251", "41", "91", "469", "431", "201", "135", "136", "408"]</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100.08</v>
+        <v>500.1</v>
       </c>
       <c r="G46" t="n">
         <v>11.92926</v>
       </c>
       <c r="H46" t="n">
-        <v>480</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="47">
@@ -5899,17 +5899,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>["465", "295", "212", "122", "421", "261", "86", "441", "368", "63", "236", "336", "29", "72", "429", "126", "333", "376", "242", "162", "250", "480", "16", "323", "493", "27", "73", "256", "188", "253", "418", "428", "43", "320", "257", "11", "397", "409", "224", "235", "55", "414", "404", "395", "102", "216", "12", "272", "312", "284"]</t>
+          <t>["242", "421", "427", "250", "198", "57", "368", "290", "403", "129", "295", "351", "108", "72", "39", "49", "441", "265", "326", "360", "254", "422", "429", "98", "481", "200", "280", "184", "16", "160", "10", "8", "249", "467", "235", "409", "77", "211", "414", "232", "132", "391", "395", "364", "62", "358", "12", "478", "212", "237"]</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100.01</v>
+        <v>500.01</v>
       </c>
       <c r="G47" t="n">
-        <v>11.9918</v>
+        <v>12.23881</v>
       </c>
       <c r="H47" t="n">
-        <v>474</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="48">
@@ -5931,17 +5931,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>["353", "160", "95", "124", "243", "93", "315", "318", "340", "341", "278", "205", "402", "244", "74", "388", "435", "439", "142", "77", "217", "114", "302", "245", "313", "30", "327", "75", "231", "222", "399", "20", "103", "235", "211", "338", "470", "370", "403", "354", "173", "440", "479", "201", "467", "62", "481", "273", "53", "380"]</t>
+          <t>["241", "124", "318", "154", "328", "476", "216", "468", "483", "181", "79", "251", "105", "412", "282", "439", "60", "94", "95", "400", "311", "92", "51", "42", "341", "288", "498", "43", "306", "267", "245", "360", "489", "160", "146", "487", "259", "332", "374", "31", "120", "35", "34", "131", "387", "488", "41", "80", "461", "53"]</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100.09</v>
+        <v>500.08</v>
       </c>
       <c r="G48" t="n">
-        <v>11.85959</v>
+        <v>11.9177</v>
       </c>
       <c r="H48" t="n">
-        <v>479</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="49">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100.01</v>
+        <v>500.11</v>
       </c>
       <c r="G49" t="n">
         <v>12.27821</v>
       </c>
       <c r="H49" t="n">
-        <v>478</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="50">
@@ -5999,13 +5999,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100.11</v>
+        <v>500.01</v>
       </c>
       <c r="G50" t="n">
         <v>12.23871</v>
       </c>
       <c r="H50" t="n">
-        <v>480</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="51">
@@ -6031,13 +6031,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100.18</v>
+        <v>500.1</v>
       </c>
       <c r="G51" t="n">
         <v>12.369</v>
       </c>
       <c r="H51" t="n">
-        <v>477</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="52">
@@ -6059,17 +6059,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>["99", "211", "192", "779", "253", "829", "219", "604", "573", "447", "467", "471", "129", "960", "187", "812", "935", "760", "479", "885", "727", "849", "684", "283", "667", "94", "224", "808", "391", "241", "953", "235", "990", "18", "354", "445", "97", "841", "547", "139", "776", "329", "647", "414", "619", "665", "294", "638", "229", "178", "311", "826", "372", "98", "419", "666", "836", "686", "297", "1", "214", "134", "85", "603", "601", "818", "724", "140", "905", "170", "7", "405", "853", "284", "566", "456", "889", "396", "69", "745", "975", "945", "338", "880", "141", "720", "151", "919", "49", "504", "866", "986", "645", "928", "868", "693", "243", "83", "628", "805"]</t>
+          <t>["218", "8", "192", "784", "943", "507", "233", "112", "723", "211", "199", "358", "554", "206", "779", "385", "367", "899", "735", "598", "568", "399", "844", "202", "129", "602", "826", "501", "511", "432", "374", "189", "644", "226", "449", "825", "122", "585", "178", "125", "665", "641", "901", "956", "249", "876", "993", "820", "731", "998", "815", "682", "804", "592", "715", "6", "279", "284", "486", "53", "955", "702", "889", "139", "195", "961", "92", "293", "656", "353", "430", "232", "403", "691", "322", "986", "789", "465", "786", "251", "847", "488", "499", "460", "686", "868", "819", "549", "863", "635", "807", "248", "72", "478", "822", "951", "242", "156", "196", "179"]</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>101.84</v>
+        <v>1000.06</v>
       </c>
       <c r="G52" t="n">
-        <v>8.13687</v>
+        <v>8.269869999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>50</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53">
@@ -6091,17 +6091,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>["335", "722", "122", "681", "478", "770", "965", "68", "617", "567", "72", "709", "172", "82", "178", "815", "843", "9", "219", "559", "418", "818", "54", "677", "256", "468", "42", "210", "743", "309", "542", "967", "780", "318", "60", "515", "215", "507", "293", "939", "11", "409", "579", "739", "888", "236", "924", "718", "597", "699", "752", "529", "413", "167", "202", "829", "496", "769", "486", "928", "491", "95", "300", "522", "525", "547", "262", "771", "630", "372", "667", "974", "24", "35", "301", "464", "490", "883", "717", "985", "37", "46", "92", "123", "398", "179", "897", "513", "955", "629", "643", "789", "360", "476", "393", "113", "421", "750", "860", "831"]</t>
+          <t>["845", "681", "722", "431", "772", "793", "934", "258", "549", "642", "409", "947", "216", "907", "542", "677", "629", "829", "540", "472", "745", "928", "217", "418", "903", "384", "754", "963", "644", "381", "743", "63", "188", "726", "23", "72", "703", "30", "706", "804", "865", "91", "783", "628", "584", "669", "293", "274", "310", "436", "102", "756", "546", "169", "315", "491", "140", "555", "38", "364", "154", "452", "468", "575", "414", "69", "58", "838", "504", "931", "649", "683", "869", "478", "305", "847", "76", "242", "447", "44", "980", "894", "946", "538", "753", "985", "883", "856", "523", "737", "609", "6", "118", "1", "662", "224", "955", "742", "379", "222"]</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100.63</v>
+        <v>1001.07</v>
       </c>
       <c r="G53" t="n">
-        <v>7.86983</v>
+        <v>8.05631</v>
       </c>
       <c r="H53" t="n">
-        <v>48</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54">
@@ -6123,17 +6123,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>["885", "379", "21", "491", "520", "809", "917", "356", "289", "454", "210", "590", "155", "614", "686", "827", "679", "499", "911", "188", "674", "498", "560", "951", "52", "271", "963", "497", "422", "660", "997", "18", "53", "331", "88", "310", "738", "260", "217", "489", "859", "880", "191", "34", "938", "581", "577", "523", "93", "500", "851", "729", "295", "707", "253", "362", "221", "55", "415", "402", "449", "798", "367", "593", "704", "820", "996", "427", "231", "547", "836", "866", "109", "115", "586", "575", "164", "149", "612", "947", "595", "693", "162", "442", "985", "255", "569", "597", "600", "919", "615", "172", "901", "736", "657", "922", "680", "285", "8", "616"]</t>
+          <t>["367", "337", "21", "356", "914", "690", "379", "491", "184", "781", "45", "704", "423", "901", "653", "266", "663", "911", "590", "451", "190", "234", "422", "473", "125", "449", "305", "239", "675", "48", "707", "481", "432", "917", "828", "557", "909", "673", "386", "694", "925", "935", "242", "645", "191", "16", "684", "37", "509", "809", "500", "231", "150", "99", "886", "474", "27", "97", "814", "638", "131", "567", "32", "971", "232", "617", "327", "306", "586", "807", "316", "320", "86", "158", "767", "73", "902", "91", "513", "57", "468", "163", "515", "966", "650", "291", "714", "562", "943", "768", "635", "547", "443", "779", "831", "225", "17", "22", "185", "550"]</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>101.34</v>
+        <v>1000.39</v>
       </c>
       <c r="G54" t="n">
-        <v>7.96451</v>
+        <v>8.15002</v>
       </c>
       <c r="H54" t="n">
-        <v>49</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55">
@@ -6155,17 +6155,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>["455", "709", "458", "588", "349", "979", "393", "435", "751", "933", "50", "320", "70", "902", "329", "732", "491", "898", "953", "89", "83", "689", "366", "470", "46", "381", "508", "133", "359", "244", "700", "554", "987", "420", "981", "292", "615", "362", "610", "688", "786", "413", "330", "842", "627", "261", "527", "367", "977", "263", "409", "450", "60", "510", "262", "833", "328", "346", "708", "56", "94", "528", "815", "775", "893", "399", "237", "29", "680", "310", "426", "253", "873", "352", "721", "182", "108", "138", "357", "512", "825", "475", "638", "579", "571", "91", "343", "456", "242", "635", "827", "777", "339", "552", "5", "440", "758", "966", "978", "245"]</t>
+          <t>["306", "458", "435", "709", "145", "188", "780", "31", "165", "79", "739", "630", "530", "148", "828", "185", "872", "699", "483", "413", "420", "18", "496", "265", "953", "231", "958", "276", "712", "557", "669", "453", "236", "825", "694", "602", "426", "705", "423", "864", "527", "999", "667", "939", "566", "50", "638", "133", "299", "478", "474", "603", "970", "938", "922", "312", "786", "290", "267", "693", "436", "159", "473", "300", "480", "237", "400", "359", "484", "721", "920", "718", "357", "58", "430", "894", "701", "149", "579", "3", "34", "348", "221", "342", "182", "650", "717", "121", "801", "544", "495", "83", "298", "193", "910", "512", "388", "39", "696", "947"]</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100.43</v>
+        <v>1000.97</v>
       </c>
       <c r="G55" t="n">
-        <v>8.12852</v>
+        <v>8.222950000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>48</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56">
@@ -6187,17 +6187,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>["182", "660", "210", "40", "893", "632", "132", "746", "460", "344", "762", "695", "570", "319", "242", "7", "984", "763", "289", "315", "696", "496", "207", "162", "729", "790", "736", "677", "530", "443", "348", "249", "336", "347", "402", "293", "658", "780", "629", "477", "601", "731", "914", "966", "669", "318", "474", "52", "367", "822", "661", "76", "385", "681", "121", "791", "777", "75", "834", "283", "180", "200", "981", "284", "415", "517", "280", "536", "906", "650", "306", "638", "926", "505", "892", "803", "141", "334", "866", "206", "24", "288", "501", "254", "995", "169", "290", "697", "384", "323", "114", "386", "388", "126", "920", "202", "287", "770", "613", "390"]</t>
+          <t>["638", "632", "210", "421", "500", "86", "180", "813", "736", "207", "28", "962", "669", "931", "763", "666", "300", "499", "740", "806", "508", "204", "13", "509", "999", "630", "991", "890", "545", "123", "530", "914", "4", "926", "347", "600", "754", "877", "209", "652", "379", "298", "90", "488", "938", "217", "161", "474", "851", "327", "866", "40", "788", "789", "688", "847", "904", "249", "443", "529", "406", "483", "441", "868", "392", "254", "634", "863", "459", "60", "458", "55", "221", "542", "484", "334", "241", "767", "520", "609", "830", "306", "739", "169", "27", "130", "367", "397", "296", "617", "554", "697", "567", "261", "114", "480", "615", "446", "919", "607"]</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>101.85</v>
+        <v>1001.55</v>
       </c>
       <c r="G56" t="n">
-        <v>8.18252</v>
+        <v>8.22601</v>
       </c>
       <c r="H56" t="n">
-        <v>49</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>["42", "484", "356", "103", "308", "341", "622", "736", "68", "220", "49", "116", "175", "771", "166", "763", "910", "108", "666", "832", "271", "584", "478", "470", "414", "879", "512", "703", "267", "729", "466", "825", "442", "429", "425", "359", "926", "375", "539", "209", "73", "413", "30", "195", "724", "954", "86", "918", "520", "861", "530", "192", "558", "766", "467", "353", "120", "726", "525", "732", "402", "29", "197", "207", "418", "844", "974", "785", "960", "887", "661", "171", "709", "602", "570", "505", "798", "940", "768", "215", "155", "541", "931", "194", "254", "219", "877", "600", "479", "823", "874", "149", "373", "718", "679", "962", "618", "15", "316", "355"]</t>
+          <t>["658", "470", "866", "393", "706", "97", "930", "341", "611", "49", "571", "787", "667", "479", "750", "63", "726", "362", "166", "181", "478", "254", "464", "852", "748", "695", "11", "970", "243", "306", "796", "823", "126", "682", "460", "923", "373", "689", "449", "994", "227", "909", "958", "522", "803", "179", "755", "355", "191", "21", "23", "70", "439", "230", "163", "882", "872", "231", "295", "974", "152", "279", "223", "389", "302", "259", "602", "17", "46", "268", "753", "792", "8", "527", "756", "779", "751", "690", "38", "858", "824", "639", "114", "139", "406", "910", "472", "768", "736", "961", "688", "541", "167", "447", "127", "581", "359", "220", "62", "743"]</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>101.97</v>
+        <v>1001.65</v>
       </c>
       <c r="G57" t="n">
-        <v>8.052440000000001</v>
+        <v>8.285019999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>49</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58">
@@ -6251,17 +6251,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>["303", "989", "36", "923", "465", "890", "86", "109", "49", "394", "959", "218", "518", "379", "584", "986", "545", "8", "849", "173", "537", "578", "931", "999", "682", "573", "119", "546", "132", "927", "404", "413", "220", "880", "517", "677", "723", "816", "184", "233", "75", "139", "596", "974", "164", "234", "646", "861", "37", "591", "924", "64", "46", "215", "414", "696", "918", "626", "146", "348", "406", "197", "393", "275", "189", "550", "892", "866", "401", "869", "614", "455", "239", "563", "788", "472", "398", "673", "660", "27", "70", "278", "540", "756", "560", "473", "898", "387", "362", "955", "145", "809", "32", "744", "203", "384", "337", "627", "766", "619"]</t>
+          <t>["756", "553", "989", "856", "578", "802", "406", "290", "399", "986", "450", "924", "733", "712", "262", "366", "858", "112", "923", "62", "296", "668", "171", "894", "493", "811", "979", "596", "739", "825", "709", "641", "895", "132", "404", "503", "84", "99", "501", "875", "682", "459", "982", "333", "439", "726", "203", "36", "294", "714", "173", "396", "769", "820", "631", "307", "52", "348", "541", "620", "633", "393", "83", "836", "227", "16", "252", "176", "550", "98", "118", "275", "892", "61", "959", "815", "39", "675", "742", "298", "647", "977", "160", "219", "413", "529", "738", "482", "673", "964", "215", "925", "980", "209", "865", "157", "229", "284", "259", "832"]</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>101.57</v>
+        <v>1001.93</v>
       </c>
       <c r="G58" t="n">
-        <v>8.095689999999999</v>
+        <v>8.201639999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>49</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
@@ -6283,17 +6283,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>["723", "74", "959", "697", "899", "955", "707", "733", "440", "283", "694", "736", "168", "286", "76", "928", "446", "392", "713", "305", "956", "600", "363", "751", "288", "512", "752", "304", "108", "726", "296", "173", "812", "648", "390", "628", "945", "925", "746", "224", "194", "91", "21", "386", "796", "382", "567", "550", "983", "714", "165", "710", "817", "206", "166", "241", "473", "808", "886", "830", "22", "129", "174", "859", "231", "484", "423", "152", "575", "413", "133", "595", "72", "486", "192", "102", "162", "376", "203", "554", "20", "904", "565", "337", "483", "478", "792", "825", "250", "898", "430", "255", "889", "403", "672", "66", "929", "529", "692", "891"]</t>
+          <t>["973", "74", "944", "789", "622", "392", "991", "788", "547", "746", "494", "422", "324", "68", "913", "210", "881", "286", "828", "231", "419", "923", "411", "75", "130", "554", "105", "696", "735", "306", "598", "163", "258", "510", "759", "950", "927", "184", "524", "778", "7", "869", "96", "91", "824", "649", "142", "661", "28", "999", "971", "265", "830", "126", "393", "805", "900", "751", "920", "177", "403", "924", "337", "119", "542", "620", "491", "660", "490", "95", "942", "426", "13", "82", "454", "459", "268", "485", "843", "597", "355", "552", "222", "39", "722", "838", "395", "11", "640", "400", "65", "260", "143", "102", "571", "205", "990", "168", "414", "694"]</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>101.8</v>
+        <v>1001.95</v>
       </c>
       <c r="G59" t="n">
-        <v>8.071730000000001</v>
+        <v>8.224460000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>49</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60">
@@ -6315,17 +6315,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>["266", "350", "457", "105", "244", "36", "917", "446", "540", "479", "22", "19", "242", "892", "672", "901", "590", "498", "589", "944", "583", "911", "481", "548", "219", "459", "886", "465", "66", "435", "781", "739", "62", "499", "494", "407", "652", "249", "847", "131", "865", "267", "711", "370", "555", "506", "116", "113", "614", "536", "765", "96", "85", "135", "547", "132", "181", "926", "759", "909", "946", "77", "111", "597", "31", "827", "552", "940", "702", "717", "782", "608", "976", "716", "231", "440", "10", "953", "929", "957", "714", "780", "448", "87", "426", "54", "240", "188", "220", "593", "809", "505", "179", "920", "811", "406", "490", "428", "120", "23"]</t>
+          <t>["858", "446", "865", "508", "900", "803", "604", "249", "413", "613", "571", "328", "684", "569", "811", "511", "402", "225", "441", "973", "405", "168", "932", "855", "351", "499", "350", "718", "397", "516", "849", "944", "550", "614", "437", "482", "642", "461", "761", "565", "772", "17", "667", "122", "470", "487", "920", "492", "132", "457", "270", "705", "78", "631", "946", "105", "314", "471", "208", "200", "84", "897", "455", "890", "825", "463", "171", "862", "605", "290", "440", "775", "98", "725", "20", "87", "206", "832", "826", "576", "235", "65", "43", "430", "192", "479", "54", "549", "997", "155", "31", "462", "554", "908", "227", "842", "839", "34", "589", "856"]</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100.87</v>
+        <v>1000.1</v>
       </c>
       <c r="G60" t="n">
-        <v>8.0555</v>
+        <v>8.2044</v>
       </c>
       <c r="H60" t="n">
-        <v>49</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61">
@@ -6347,17 +6347,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>["73", "80", "421", "389", "523", "39", "923", "303", "935", "606", "133", "657", "909", "512", "908", "461", "548", "618", "321", "30", "167", "579", "696", "698", "178", "876", "576", "33", "360", "863", "376", "381", "173", "419", "855", "89", "87", "621", "837", "358", "441", "511", "705", "759", "507", "604", "51", "559", "28", "490", "479", "19", "166", "689", "816", "558", "452", "254", "519", "125", "954", "796", "595", "831", "79", "277", "992", "13", "812", "200", "491", "497", "762", "233", "250", "596", "41", "95", "8", "577", "347", "489", "530", "861", "841", "611", "197", "348", "735", "411", "185", "637", "414", "387", "562", "117", "113", "625", "384", "517"]</t>
+          <t>["407", "80", "421", "389", "39", "923", "114", "958", "821", "179", "657", "851", "512", "880", "177", "50", "618", "598", "891", "321", "564", "241", "167", "55", "238", "729", "454", "956", "381", "495", "963", "87", "205", "150", "441", "705", "287", "21", "843", "82", "852", "474", "22", "620", "450", "89", "948", "52", "769", "944", "378", "455", "962", "452", "301", "833", "457", "46", "152", "371", "528", "125", "796", "517", "92", "883", "338", "892", "992", "920", "417", "766", "762", "497", "194", "739", "996", "576", "390", "8", "60", "227", "494", "467", "510", "438", "95", "501", "735", "61", "69", "819", "664", "387", "748", "562", "239", "138", "894", "113"]</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100.02</v>
+        <v>1001.49</v>
       </c>
       <c r="G61" t="n">
-        <v>8.066409999999999</v>
+        <v>8.09037</v>
       </c>
       <c r="H61" t="n">
-        <v>48</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>67.34072999999999</v>
+        <v>57.06745</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>["24", "13", "22"]</t>
+          <t>["13", "22", "24"]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -6504,14 +6504,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>["5", "14", "22"]</t>
+          <t>["14", "5", "22"]</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>76.61006</v>
+        <v>81.20881</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>["24", "2", "17"]</t>
+          <t>["17", "24", "2"]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6568,14 +6568,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["4", "12", "20"]</t>
+          <t>["20", "12", "4"]</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>71.56453999999999</v>
+        <v>77.95853</v>
       </c>
       <c r="H6" t="n">
         <v>100</v>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>["23", "24", "15"]</t>
+          <t>["24", "15", "23"]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["24", "21", "19"]</t>
+          <t>["19", "21", "24"]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>85.55288</v>
+        <v>58.21156</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>["6", "5", "12"]</t>
+          <t>["12", "6", "5"]</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>47.55155</v>
+        <v>49.76539</v>
       </c>
       <c r="H12" t="n">
         <v>100</v>
@@ -6792,14 +6792,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>["48", "39", "46", "28", "19"]</t>
+          <t>["19", "48", "39", "46", "28"]</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.99173</v>
+        <v>45.67434</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.36791</v>
+        <v>49.61807</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>46.61752</v>
+        <v>47.37432</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
@@ -6888,14 +6888,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["49", "17", "25", "44", "6"]</t>
+          <t>["44", "25", "17", "49", "6"]</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>45.68958</v>
+        <v>47.48479</v>
       </c>
       <c r="H16" t="n">
         <v>100</v>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.71283</v>
+        <v>48.80959</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
@@ -6952,14 +6952,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["23", "14", "10", "6", "18"]</t>
+          <t>["20", "10", "37", "34", "18"]</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>47.55095</v>
+        <v>47.49716</v>
       </c>
       <c r="H18" t="n">
         <v>100</v>
@@ -6984,14 +6984,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>["14", "10", "25", "5", "48"]</t>
+          <t>["34", "14", "25", "7", "48"]</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>47.11063</v>
+        <v>47.53345</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
@@ -7016,14 +7016,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>["3", "46", "10", "22", "13"]</t>
+          <t>["25", "3", "10", "17", "13"]</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>46.91717</v>
+        <v>48.96302</v>
       </c>
       <c r="H20" t="n">
         <v>100</v>
@@ -7048,14 +7048,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>["41", "27", "28", "49", "29"]</t>
+          <t>["29", "27", "28", "49", "41"]</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>50.11292</v>
+        <v>47.20122</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
@@ -7087,7 +7087,7 @@
         <v>0.01</v>
       </c>
       <c r="G22" t="n">
-        <v>28.86857</v>
+        <v>32.37069</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
@@ -7119,7 +7119,7 @@
         <v>0.01</v>
       </c>
       <c r="G23" t="n">
-        <v>29.19417</v>
+        <v>26.4368</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
@@ -7151,7 +7151,7 @@
         <v>0.01</v>
       </c>
       <c r="G24" t="n">
-        <v>30.68379</v>
+        <v>29.78127</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -7183,7 +7183,7 @@
         <v>0.01</v>
       </c>
       <c r="G25" t="n">
-        <v>28.82272</v>
+        <v>25.16513</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
@@ -7215,7 +7215,7 @@
         <v>0.01</v>
       </c>
       <c r="G26" t="n">
-        <v>33.48853</v>
+        <v>29.92558</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -7240,14 +7240,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>["30", "28", "5", "67", "77", "69", "68", "82", "47", "65"]</t>
+          <t>["76", "67", "30", "28", "77", "69", "68", "47", "82", "65"]</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0.01</v>
       </c>
       <c r="G27" t="n">
-        <v>31.19735</v>
+        <v>27.65623</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -7272,14 +7272,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>["43", "93", "87", "76", "89", "41", "77", "49", "62", "55"]</t>
+          <t>["93", "43", "87", "76", "89", "41", "77", "49", "62", "55"]</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0.01</v>
       </c>
       <c r="G28" t="n">
-        <v>27.9112</v>
+        <v>28.90284</v>
       </c>
       <c r="H28" t="n">
         <v>100</v>
@@ -7311,7 +7311,7 @@
         <v>0.01</v>
       </c>
       <c r="G29" t="n">
-        <v>28.90171</v>
+        <v>29.78196</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -7343,7 +7343,7 @@
         <v>0.01</v>
       </c>
       <c r="G30" t="n">
-        <v>31.89847</v>
+        <v>28.87733</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -7375,7 +7375,7 @@
         <v>0.01</v>
       </c>
       <c r="G31" t="n">
-        <v>29.47174</v>
+        <v>27.61745</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G32" t="n">
-        <v>16.67507</v>
+        <v>16.43987</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -7432,14 +7432,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>["220", "69", "15", "229", "149", "192", "56", "86", "147", "111", "103", "247", "117", "176", "200", "26", "121", "100", "88", "242", "68", "83", "194", "142", "8"]</t>
+          <t>["229", "15", "220", "69", "149", "192", "56", "86", "147", "111", "103", "247", "117", "176", "200", "26", "121", "100", "88", "242", "68", "83", "194", "142", "8"]</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0.11</v>
       </c>
       <c r="G33" t="n">
-        <v>16.88318</v>
+        <v>15.72361</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -7471,7 +7471,7 @@
         <v>0.11</v>
       </c>
       <c r="G34" t="n">
-        <v>17.67559</v>
+        <v>16.47118</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
@@ -7503,7 +7503,7 @@
         <v>0.11</v>
       </c>
       <c r="G35" t="n">
-        <v>16.60233</v>
+        <v>17.09113</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
@@ -7532,10 +7532,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G36" t="n">
-        <v>17.15296</v>
+        <v>17.61813</v>
       </c>
       <c r="H36" t="n">
         <v>100</v>
@@ -7567,7 +7567,7 @@
         <v>0.11</v>
       </c>
       <c r="G37" t="n">
-        <v>15.99206</v>
+        <v>18.13453</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
@@ -7599,7 +7599,7 @@
         <v>0.11</v>
       </c>
       <c r="G38" t="n">
-        <v>17.33963</v>
+        <v>16.4076</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -7660,10 +7660,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>16.7286</v>
+        <v>16.99109</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -7688,14 +7688,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>["15", "5", "213", "68", "35", "44", "170", "52", "4", "111", "128", "224", "109", "23", "98", "89", "141", "169", "240", "54", "167", "86", "82", "186", "185"]</t>
+          <t>["25", "5", "213", "68", "217", "44", "52", "170", "4", "224", "131", "109", "204", "14", "89", "141", "82", "90", "167", "23", "120", "86", "186", "169", "185"]</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G41" t="n">
-        <v>16.76132</v>
+        <v>17.15129</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -7720,14 +7720,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>["186", "215", "59", "150", "325", "481", "499", "433", "204", "50", "386", "60", "155", "460", "216", "26", "168", "209", "413", "151", "126", "394", "239", "195", "274", "297", "330", "383", "412", "382", "278", "483", "431", "139", "194", "380", "371", "364", "488", "333", "404", "177", "308", "171", "395", "497", "358", "234", "477", "286"]</t>
+          <t>["110", "59", "215", "325", "475", "481", "436", "150", "437", "41", "87", "155", "337", "338", "26", "319", "151", "469", "209", "330", "449", "443", "25", "165", "73", "322", "341", "145", "256", "431", "311", "18", "51", "380", "364", "89", "441", "157", "488", "408", "286", "404", "462", "122", "171", "92", "395", "234", "498", "336"]</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="G42" t="n">
-        <v>11.20354</v>
+        <v>11.15746</v>
       </c>
       <c r="H42" t="n">
         <v>100</v>
@@ -7752,14 +7752,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>["311", "30", "285", "302", "296", "288", "409", "54", "21", "290", "103", "495", "458", "147", "148", "18", "34", "102", "239", "388", "450", "6", "134", "81", "306", "126", "2", "266", "361", "208", "359", "33", "294", "85", "418", "272", "310", "273", "337", "315", "277", "264", "139", "465", "124", "111", "68", "262", "45", "159"]</t>
+          <t>["154", "285", "296", "30", "97", "288", "321", "302", "118", "103", "156", "314", "271", "217", "63", "61", "148", "34", "357", "0", "366", "15", "418", "463", "316", "92", "388", "449", "354", "398", "53", "51", "137", "185", "42", "242", "358", "334", "315", "433", "318", "324", "341", "253", "8", "9", "104", "262", "259", "159"]</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="G43" t="n">
-        <v>10.83448</v>
+        <v>11.44895</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -7784,14 +7784,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>["350", "70", "434", "345", "251", "415", "22", "166", "355", "100", "15", "412", "269", "137", "311", "47", "86", "379", "131", "275", "444", "170", "354", "326", "404", "408", "322", "247", "349", "264", "317", "276", "174", "348", "125", "333", "73", "163", "430", "471", "291", "493", "487", "181", "337", "292", "210", "34", "167", "103"]</t>
+          <t>["340", "70", "434", "345", "339", "347", "22", "251", "167", "168", "473", "172", "12", "15", "311", "274", "170", "379", "137", "355", "113", "406", "184", "237", "152", "281", "265", "388", "326", "85", "449", "341", "349", "183", "105", "136", "348", "210", "55", "204", "163", "165", "271", "395", "291", "387", "223", "337", "248", "106"]</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="G44" t="n">
-        <v>11.53715</v>
+        <v>11.37176</v>
       </c>
       <c r="H44" t="n">
         <v>100</v>
@@ -7816,14 +7816,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>["148", "315", "248", "395", "176", "452", "473", "448", "84", "59", "200", "50", "301", "316", "429", "323", "70", "309", "385", "100", "153", "318", "450", "497", "37", "26", "58", "30", "152", "259", "80", "132", "89", "97", "402", "410", "442", "13", "445", "55", "249", "451", "453", "380", "53", "242", "6", "258", "355", "358"]</t>
+          <t>["92", "315", "248", "395", "113", "473", "365", "176", "409", "353", "310", "261", "304", "418", "136", "299", "115", "372", "320", "366", "451", "455", "445", "318", "235", "120", "140", "450", "152", "89", "442", "7", "293", "423", "68", "262", "55", "410", "32", "389", "431", "465", "497", "179", "5", "53", "457", "460", "154", "146"]</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="G45" t="n">
-        <v>11.16706</v>
+        <v>11.72385</v>
       </c>
       <c r="H45" t="n">
         <v>100</v>
@@ -7848,14 +7848,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>["288", "398", "381", "373", "97", "333", "452", "177", "34", "312", "89", "204", "47", "270", "184", "477", "410", "172", "375", "313", "81", "163", "123", "392", "286", "336", "481", "292", "73", "214", "424", "360", "151", "189", "93", "132", "265", "75", "33", "402", "242", "465", "290", "475", "469", "440", "201", "439", "185", "408"]</t>
+          <t>["0", "381", "398", "419", "385", "97", "177", "479", "59", "139", "89", "134", "404", "477", "34", "410", "172", "349", "246", "375", "313", "221", "114", "350", "424", "326", "427", "196", "189", "144", "8", "412", "117", "132", "93", "265", "31", "100", "319", "54", "465", "251", "41", "91", "469", "431", "201", "135", "136", "408"]</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="G46" t="n">
-        <v>11.07704</v>
+        <v>11.13141</v>
       </c>
       <c r="H46" t="n">
         <v>100</v>
@@ -7880,14 +7880,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>["465", "295", "212", "122", "421", "261", "86", "441", "368", "63", "236", "336", "29", "72", "429", "126", "333", "376", "242", "162", "250", "480", "16", "323", "493", "27", "73", "256", "188", "253", "418", "428", "43", "320", "257", "11", "397", "409", "224", "235", "55", "414", "404", "395", "102", "216", "12", "272", "312", "284"]</t>
+          <t>["242", "421", "427", "250", "198", "57", "368", "290", "403", "129", "295", "351", "108", "72", "39", "49", "441", "265", "326", "360", "254", "422", "429", "98", "481", "200", "280", "184", "16", "160", "10", "8", "249", "467", "235", "409", "77", "211", "414", "232", "132", "391", "395", "364", "62", "358", "12", "478", "212", "237"]</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="G47" t="n">
-        <v>10.54811</v>
+        <v>11.52342</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -7912,14 +7912,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>["353", "160", "95", "124", "243", "93", "315", "318", "340", "341", "278", "205", "402", "244", "74", "388", "435", "439", "142", "77", "217", "114", "302", "245", "313", "30", "327", "75", "231", "222", "399", "20", "103", "235", "211", "338", "470", "370", "403", "354", "173", "440", "479", "201", "467", "62", "481", "273", "53", "380"]</t>
+          <t>["241", "124", "318", "154", "328", "476", "216", "468", "483", "181", "79", "251", "105", "412", "282", "439", "60", "94", "95", "400", "311", "92", "51", "42", "341", "288", "498", "43", "306", "267", "245", "360", "489", "160", "146", "487", "259", "332", "374", "31", "120", "35", "34", "131", "387", "488", "41", "80", "461", "53"]</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="G48" t="n">
-        <v>11.373</v>
+        <v>11.48255</v>
       </c>
       <c r="H48" t="n">
         <v>100</v>
@@ -7948,10 +7948,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G49" t="n">
-        <v>11.35595</v>
+        <v>11.7522</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
@@ -7980,10 +7980,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="G50" t="n">
-        <v>11.38184</v>
+        <v>11.60357</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
@@ -8012,10 +8012,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>10.63819</v>
+        <v>11.25091</v>
       </c>
       <c r="H51" t="n">
         <v>100</v>
@@ -8040,14 +8040,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>["99", "211", "192", "779", "253", "829", "219", "604", "573", "447", "467", "471", "129", "960", "187", "812", "935", "760", "479", "885", "727", "849", "684", "283", "667", "94", "224", "808", "391", "241", "953", "235", "990", "18", "354", "445", "97", "841", "547", "139", "776", "329", "647", "414", "619", "665", "294", "638", "229", "178", "311", "826", "372", "98", "419", "666", "836", "686", "297", "1", "214", "134", "85", "603", "601", "818", "724", "140", "905", "170", "7", "405", "853", "284", "566", "456", "889", "396", "69", "745", "975", "945", "338", "880", "141", "720", "151", "919", "49", "504", "866", "986", "645", "928", "868", "693", "243", "83", "628", "805"]</t>
+          <t>["218", "8", "192", "784", "943", "507", "233", "112", "723", "211", "199", "358", "554", "206", "779", "385", "367", "899", "735", "598", "568", "399", "844", "202", "129", "602", "826", "501", "511", "432", "374", "189", "644", "226", "449", "825", "122", "585", "178", "125", "665", "641", "901", "956", "249", "876", "993", "820", "731", "998", "815", "682", "804", "592", "715", "6", "279", "284", "486", "53", "955", "702", "889", "139", "195", "961", "92", "293", "656", "353", "430", "232", "403", "691", "322", "986", "789", "465", "786", "251", "847", "488", "499", "460", "686", "868", "819", "549", "863", "635", "807", "248", "72", "478", "822", "951", "242", "156", "196", "179"]</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6.84</v>
+        <v>6.64</v>
       </c>
       <c r="G52" t="n">
-        <v>7.50774</v>
+        <v>7.81623</v>
       </c>
       <c r="H52" t="n">
         <v>100</v>
@@ -8072,14 +8072,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>["335", "722", "122", "681", "478", "770", "965", "68", "617", "567", "72", "709", "172", "82", "178", "815", "843", "9", "219", "559", "418", "818", "54", "677", "256", "468", "42", "210", "743", "309", "542", "967", "780", "318", "60", "515", "215", "507", "293", "939", "11", "409", "579", "739", "888", "236", "924", "718", "597", "699", "752", "529", "413", "167", "202", "829", "496", "769", "486", "928", "491", "95", "300", "522", "525", "547", "262", "771", "630", "372", "667", "974", "24", "35", "301", "464", "490", "883", "717", "985", "37", "46", "92", "123", "398", "179", "897", "513", "955", "629", "643", "789", "360", "476", "393", "113", "421", "750", "860", "831"]</t>
+          <t>["845", "681", "722", "431", "772", "793", "934", "258", "549", "642", "409", "947", "216", "907", "542", "677", "629", "829", "540", "472", "745", "928", "217", "418", "903", "384", "754", "963", "644", "381", "743", "63", "188", "726", "23", "72", "703", "30", "706", "804", "865", "91", "783", "628", "584", "669", "293", "274", "310", "436", "102", "756", "546", "169", "315", "491", "140", "555", "38", "364", "154", "452", "468", "575", "414", "69", "58", "838", "504", "931", "649", "683", "869", "478", "305", "847", "76", "242", "447", "44", "980", "894", "946", "538", "753", "985", "883", "856", "523", "737", "609", "6", "118", "1", "662", "224", "955", "742", "379", "222"]</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6.93</v>
+        <v>6.59</v>
       </c>
       <c r="G53" t="n">
-        <v>7.68052</v>
+        <v>7.59092</v>
       </c>
       <c r="H53" t="n">
         <v>100</v>
@@ -8104,14 +8104,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>["885", "379", "21", "491", "520", "809", "917", "356", "289", "454", "210", "590", "155", "614", "686", "827", "679", "499", "911", "188", "674", "498", "560", "951", "52", "271", "963", "497", "422", "660", "997", "18", "53", "331", "88", "310", "738", "260", "217", "489", "859", "880", "191", "34", "938", "581", "577", "523", "93", "500", "851", "729", "295", "707", "253", "362", "221", "55", "415", "402", "449", "798", "367", "593", "704", "820", "996", "427", "231", "547", "836", "866", "109", "115", "586", "575", "164", "149", "612", "947", "595", "693", "162", "442", "985", "255", "569", "597", "600", "919", "615", "172", "901", "736", "657", "922", "680", "285", "8", "616"]</t>
+          <t>["367", "337", "21", "356", "914", "690", "379", "491", "184", "781", "45", "704", "423", "901", "653", "266", "663", "911", "590", "451", "190", "234", "422", "473", "125", "449", "305", "239", "675", "48", "707", "481", "432", "917", "828", "557", "909", "673", "386", "694", "925", "935", "242", "645", "191", "16", "684", "37", "509", "809", "500", "231", "150", "99", "886", "474", "27", "97", "814", "638", "131", "567", "32", "971", "232", "617", "327", "306", "586", "807", "316", "320", "86", "158", "767", "73", "902", "91", "513", "57", "468", "163", "515", "966", "650", "291", "714", "562", "943", "768", "635", "547", "443", "779", "831", "225", "17", "22", "185", "550"]</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6.88</v>
+        <v>6.69</v>
       </c>
       <c r="G54" t="n">
-        <v>7.51414</v>
+        <v>7.69617</v>
       </c>
       <c r="H54" t="n">
         <v>100</v>
@@ -8136,14 +8136,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>["455", "709", "458", "588", "349", "979", "393", "435", "751", "933", "50", "320", "70", "902", "329", "732", "491", "898", "953", "89", "83", "689", "366", "470", "46", "381", "508", "133", "359", "244", "700", "554", "987", "420", "981", "292", "615", "362", "610", "688", "786", "413", "330", "842", "627", "261", "527", "367", "977", "263", "409", "450", "60", "510", "262", "833", "328", "346", "708", "56", "94", "528", "815", "775", "893", "399", "237", "29", "680", "310", "426", "253", "873", "352", "721", "182", "108", "138", "357", "512", "825", "475", "638", "579", "571", "91", "343", "456", "242", "635", "827", "777", "339", "552", "5", "440", "758", "966", "978", "245"]</t>
+          <t>["306", "458", "435", "709", "145", "188", "780", "31", "165", "79", "739", "630", "530", "148", "828", "185", "872", "699", "483", "413", "420", "18", "496", "265", "953", "231", "958", "276", "712", "557", "669", "453", "236", "825", "694", "602", "426", "705", "423", "864", "527", "999", "667", "939", "566", "50", "638", "133", "299", "478", "474", "603", "970", "938", "922", "312", "786", "290", "267", "693", "436", "159", "473", "300", "480", "237", "400", "359", "484", "721", "920", "718", "357", "58", "430", "894", "701", "149", "579", "3", "34", "348", "221", "342", "182", "650", "717", "121", "801", "544", "495", "83", "298", "193", "910", "512", "388", "39", "696", "947"]</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6.86</v>
+        <v>7.22</v>
       </c>
       <c r="G55" t="n">
-        <v>7.61988</v>
+        <v>7.83567</v>
       </c>
       <c r="H55" t="n">
         <v>100</v>
@@ -8168,14 +8168,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>["182", "660", "210", "40", "893", "632", "132", "746", "460", "344", "762", "695", "570", "319", "242", "7", "984", "763", "289", "315", "696", "496", "207", "162", "729", "790", "736", "677", "530", "443", "348", "249", "336", "347", "402", "293", "658", "780", "629", "477", "601", "731", "914", "966", "669", "318", "474", "52", "367", "822", "661", "76", "385", "681", "121", "791", "777", "75", "834", "283", "180", "200", "981", "284", "415", "517", "280", "536", "906", "650", "306", "638", "926", "505", "892", "803", "141", "334", "866", "206", "24", "288", "501", "254", "995", "169", "290", "697", "384", "323", "114", "386", "388", "126", "920", "202", "287", "770", "613", "390"]</t>
+          <t>["638", "632", "210", "421", "500", "86", "180", "813", "736", "207", "28", "962", "669", "931", "763", "666", "300", "499", "740", "806", "508", "204", "13", "509", "999", "630", "991", "890", "545", "123", "530", "914", "4", "926", "347", "600", "754", "877", "209", "652", "379", "298", "90", "488", "938", "217", "161", "474", "851", "327", "866", "40", "788", "789", "688", "847", "904", "249", "443", "529", "406", "483", "441", "868", "392", "254", "634", "863", "459", "60", "458", "55", "221", "542", "484", "334", "241", "767", "520", "609", "830", "306", "739", "169", "27", "130", "367", "397", "296", "617", "554", "697", "567", "261", "114", "480", "615", "446", "919", "607"]</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6.89</v>
+        <v>6.7</v>
       </c>
       <c r="G56" t="n">
-        <v>7.76503</v>
+        <v>7.83671</v>
       </c>
       <c r="H56" t="n">
         <v>100</v>
@@ -8200,14 +8200,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>["42", "484", "356", "103", "308", "341", "622", "736", "68", "220", "49", "116", "175", "771", "166", "763", "910", "108", "666", "832", "271", "584", "478", "470", "414", "879", "512", "703", "267", "729", "466", "825", "442", "429", "425", "359", "926", "375", "539", "209", "73", "413", "30", "195", "724", "954", "86", "918", "520", "861", "530", "192", "558", "766", "467", "353", "120", "726", "525", "732", "402", "29", "197", "207", "418", "844", "974", "785", "960", "887", "661", "171", "709", "602", "570", "505", "798", "940", "768", "215", "155", "541", "931", "194", "254", "219", "877", "600", "479", "823", "874", "149", "373", "718", "679", "962", "618", "15", "316", "355"]</t>
+          <t>["658", "470", "866", "393", "706", "97", "930", "341", "611", "49", "571", "787", "667", "479", "750", "63", "726", "362", "166", "181", "478", "254", "464", "852", "748", "695", "11", "970", "243", "306", "796", "823", "126", "682", "460", "923", "373", "689", "449", "994", "227", "909", "958", "522", "803", "179", "755", "355", "191", "21", "23", "70", "439", "230", "163", "882", "872", "231", "295", "974", "152", "279", "223", "389", "302", "259", "602", "17", "46", "268", "753", "792", "8", "527", "756", "779", "751", "690", "38", "858", "824", "639", "114", "139", "406", "910", "472", "768", "736", "961", "688", "541", "167", "447", "127", "581", "359", "220", "62", "743"]</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6.98</v>
+        <v>6.71</v>
       </c>
       <c r="G57" t="n">
-        <v>7.73765</v>
+        <v>7.81845</v>
       </c>
       <c r="H57" t="n">
         <v>100</v>
@@ -8232,14 +8232,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>["303", "989", "36", "923", "465", "890", "86", "109", "49", "394", "959", "218", "518", "379", "584", "986", "545", "8", "849", "173", "537", "578", "931", "999", "682", "573", "119", "546", "132", "927", "404", "413", "220", "880", "517", "677", "723", "816", "184", "233", "75", "139", "596", "974", "164", "234", "646", "861", "37", "591", "924", "64", "46", "215", "414", "696", "918", "626", "146", "348", "406", "197", "393", "275", "189", "550", "892", "866", "401", "869", "614", "455", "239", "563", "788", "472", "398", "673", "660", "27", "70", "278", "540", "756", "560", "473", "898", "387", "362", "955", "145", "809", "32", "744", "203", "384", "337", "627", "766", "619"]</t>
+          <t>["756", "553", "989", "856", "578", "802", "406", "290", "399", "986", "450", "924", "733", "712", "262", "366", "858", "112", "923", "62", "296", "668", "171", "894", "493", "811", "979", "596", "739", "825", "709", "641", "895", "132", "404", "503", "84", "99", "501", "875", "682", "459", "982", "333", "439", "726", "203", "36", "294", "714", "173", "396", "769", "820", "631", "307", "52", "348", "541", "620", "633", "393", "83", "836", "227", "16", "252", "176", "550", "98", "118", "275", "892", "61", "959", "815", "39", "675", "742", "298", "647", "977", "160", "219", "413", "529", "738", "482", "673", "964", "215", "925", "980", "209", "865", "157", "229", "284", "259", "832"]</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6.91</v>
+        <v>6.66</v>
       </c>
       <c r="G58" t="n">
-        <v>7.47285</v>
+        <v>7.59051</v>
       </c>
       <c r="H58" t="n">
         <v>100</v>
@@ -8264,14 +8264,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>["723", "74", "959", "697", "899", "955", "707", "733", "440", "283", "694", "736", "168", "286", "76", "928", "446", "392", "713", "305", "956", "600", "363", "751", "288", "512", "752", "304", "108", "726", "296", "173", "812", "648", "390", "628", "945", "925", "746", "224", "194", "91", "21", "386", "796", "382", "567", "550", "983", "714", "165", "710", "817", "206", "166", "241", "473", "808", "886", "830", "22", "129", "174", "859", "231", "484", "423", "152", "575", "413", "133", "595", "72", "486", "192", "102", "162", "376", "203", "554", "20", "904", "565", "337", "483", "478", "792", "825", "250", "898", "430", "255", "889", "403", "672", "66", "929", "529", "692", "891"]</t>
+          <t>["973", "74", "944", "789", "622", "392", "991", "788", "547", "746", "494", "422", "324", "68", "913", "210", "881", "286", "828", "231", "419", "923", "411", "75", "130", "554", "105", "696", "735", "306", "598", "163", "258", "510", "759", "950", "927", "184", "524", "778", "7", "869", "96", "91", "824", "649", "142", "661", "28", "999", "971", "265", "830", "126", "393", "805", "900", "751", "920", "177", "403", "924", "337", "119", "542", "620", "491", "660", "490", "95", "942", "426", "13", "82", "454", "459", "268", "485", "843", "597", "355", "552", "222", "39", "722", "838", "395", "11", "640", "400", "65", "260", "143", "102", "571", "205", "990", "168", "414", "694"]</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6.87</v>
+        <v>6.71</v>
       </c>
       <c r="G59" t="n">
-        <v>7.8681</v>
+        <v>7.74332</v>
       </c>
       <c r="H59" t="n">
         <v>100</v>
@@ -8296,14 +8296,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>["266", "350", "457", "105", "244", "36", "917", "446", "540", "479", "22", "19", "242", "892", "672", "901", "590", "498", "589", "944", "583", "911", "481", "548", "219", "459", "886", "465", "66", "435", "781", "739", "62", "499", "494", "407", "652", "249", "847", "131", "865", "267", "711", "370", "555", "506", "116", "113", "614", "536", "765", "96", "85", "135", "547", "132", "181", "926", "759", "909", "946", "77", "111", "597", "31", "827", "552", "940", "702", "717", "782", "608", "976", "716", "231", "440", "10", "953", "929", "957", "714", "780", "448", "87", "426", "54", "240", "188", "220", "593", "809", "505", "179", "920", "811", "406", "490", "428", "120", "23"]</t>
+          <t>["858", "446", "865", "508", "900", "803", "604", "249", "413", "613", "571", "328", "684", "569", "811", "511", "402", "225", "441", "973", "405", "168", "932", "855", "351", "499", "350", "718", "397", "516", "849", "944", "550", "614", "437", "482", "642", "461", "761", "565", "772", "17", "667", "122", "470", "487", "920", "492", "132", "457", "270", "705", "78", "631", "946", "105", "314", "471", "208", "200", "84", "897", "455", "890", "825", "463", "171", "862", "605", "290", "440", "775", "98", "725", "20", "87", "206", "832", "826", "576", "235", "65", "43", "430", "192", "479", "54", "549", "997", "155", "31", "462", "554", "908", "227", "842", "839", "34", "589", "856"]</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6.87</v>
+        <v>6.66</v>
       </c>
       <c r="G60" t="n">
-        <v>7.77875</v>
+        <v>7.91043</v>
       </c>
       <c r="H60" t="n">
         <v>100</v>
@@ -8328,14 +8328,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>["73", "80", "421", "389", "523", "39", "923", "303", "935", "606", "133", "657", "909", "512", "908", "461", "548", "618", "321", "30", "167", "579", "696", "698", "178", "876", "576", "33", "360", "863", "376", "381", "173", "419", "855", "89", "87", "621", "837", "358", "441", "511", "705", "759", "507", "604", "51", "559", "28", "490", "479", "19", "166", "689", "816", "558", "452", "254", "519", "125", "954", "796", "595", "831", "79", "277", "992", "13", "812", "200", "491", "497", "762", "233", "250", "596", "41", "95", "8", "577", "347", "489", "530", "861", "841", "611", "197", "348", "735", "411", "185", "637", "414", "387", "562", "117", "113", "625", "384", "517"]</t>
+          <t>["407", "80", "421", "389", "39", "923", "114", "958", "821", "179", "657", "851", "512", "880", "177", "50", "618", "598", "891", "321", "564", "241", "167", "55", "238", "729", "454", "956", "381", "495", "963", "87", "205", "150", "441", "705", "287", "21", "843", "82", "852", "474", "22", "620", "450", "89", "948", "52", "769", "944", "378", "455", "962", "452", "301", "833", "457", "46", "152", "371", "528", "125", "796", "517", "92", "883", "338", "892", "992", "920", "417", "766", "762", "497", "194", "739", "996", "576", "390", "8", "60", "227", "494", "467", "510", "438", "95", "501", "735", "61", "69", "819", "664", "387", "748", "562", "239", "138", "894", "113"]</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6.91</v>
+        <v>6.68</v>
       </c>
       <c r="G61" t="n">
-        <v>7.67002</v>
+        <v>7.67499</v>
       </c>
       <c r="H61" t="n">
         <v>100</v>

--- a/src/resultados.xlsx
+++ b/src/resultados.xlsx
@@ -497,14 +497,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>["8", "7", "20"]</t>
+          <t>["9", "24", "23"]</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.06745</v>
+        <v>76.71225</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -529,14 +529,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>["16", "13", "24"]</t>
+          <t>["10", "13", "24"]</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53.93899</v>
+        <v>72.84650000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -561,14 +561,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>["8", "5", "22"]</t>
+          <t>["20", "16", "5"]</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>71.64939</v>
+        <v>59.08759</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -593,14 +593,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>["24", "8", "3"]</t>
+          <t>["12", "18", "2"]</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.27731</v>
+        <v>76.0322</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -625,14 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["22", "12", "4"]</t>
+          <t>["6", "12", "4"]</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>67.83212</v>
+        <v>71.64003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -657,14 +657,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>["17", "22", "15"]</t>
+          <t>["12", "21", "23"]</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>56.64417</v>
+        <v>61.85758</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -689,14 +689,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>["14", "15", "6"]</t>
+          <t>["1", "15", "21"]</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>53.4779</v>
+        <v>56.28453</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -721,14 +721,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["17", "24", "19"]</t>
+          <t>["21", "24", "19"]</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>73.91059</v>
+        <v>91.60720999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -753,14 +753,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>["12", "9", "11"]</t>
+          <t>["13", "7", "8"]</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>56.61589</v>
+        <v>82.6986</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -785,14 +785,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>["9", "5", "12"]</t>
+          <t>["13", "5", "20"]</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>54.46675</v>
+        <v>77.28716</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -817,14 +817,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>["13", "24", "34", "9", "30"]</t>
+          <t>["26", "35", "33", "24", "49"]</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>49.76539</v>
+        <v>43.83432</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -849,14 +849,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>["23", "28", "39", "48", "4"]</t>
+          <t>["20", "39", "30", "28", "4"]</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>45.67434</v>
+        <v>44.43357</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -881,14 +881,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>["23", "29", "5", "46", "40"]</t>
+          <t>["39", "40", "37", "30", "12"]</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>49.61807</v>
+        <v>42.99913</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -913,14 +913,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>["37", "39", "32", "7", "3"]</t>
+          <t>["1", "15", "30", "39", "22"]</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>47.37432</v>
+        <v>50.59379</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -945,14 +945,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["7", "17", "25", "48", "6"]</t>
+          <t>["34", "17", "49", "25", "38"]</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.48479</v>
+        <v>55.70177</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -977,14 +977,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>["9", "14", "11", "28", "36"]</t>
+          <t>["49", "14", "0", "26", "37"]</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>48.80959</v>
+        <v>45.06391</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["47", "10", "37", "2", "27"]</t>
+          <t>["9", "10", "37", "33", "27"]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>["2", "1", "10", "23", "40"]</t>
+          <t>["23", "10", "1", "2", "40"]</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1073,14 +1073,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>["9", "46", "22", "10", "3"]</t>
+          <t>["4", "3", "10", "17", "13"]</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>48.96302</v>
+        <v>52.21945</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1105,14 +1105,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>["14", "49", "46", "36", "26"]</t>
+          <t>["2", "29", "24", "33", "35"]</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.20122</v>
+        <v>53.26086</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1137,14 +1137,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>["99", "27", "69", "37", "55", "79", "22", "29", "60", "35"]</t>
+          <t>["70", "69", "27", "96", "37", "23", "85", "43", "60", "50"]</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.37069</v>
+        <v>30.94689</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1169,14 +1169,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>["31", "36", "41", "74", "27", "88", "66", "82", "26", "77"]</t>
+          <t>["49", "36", "41", "28", "9", "88", "92", "29", "76", "52"]</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>26.4368</v>
+        <v>27.81169</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>["58", "70", "68", "23", "30", "59", "73", "21", "76", "3"]</t>
+          <t>["63", "30", "21", "31", "1", "69", "39", "65", "2", "76"]</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>29.78127</v>
+        <v>26.73539</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1233,14 +1233,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>["37", "84", "5", "31", "71", "2", "16", "24", "89", "12"]</t>
+          <t>["61", "5", "91", "4", "24", "64", "8", "77", "46", "33"]</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.16513</v>
+        <v>32.05552</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1265,14 +1265,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>["65", "95", "71", "87", "42", "16", "10", "90", "76", "51"]</t>
+          <t>["59", "65", "87", "71", "34", "90", "95", "16", "18", "76"]</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>29.92558</v>
+        <v>30.15652</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>["81", "5", "30", "56", "39", "25", "28", "68", "14", "42"]</t>
+          <t>["98", "30", "5", "67", "28", "35", "69", "68", "78", "36"]</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>27.65623</v>
+        <v>26.92331</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1329,14 +1329,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>["1", "93", "87", "76", "39", "77", "95", "62", "41", "0"]</t>
+          <t>["90", "87", "93", "36", "92", "49", "77", "40", "72", "53"]</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>28.90284</v>
+        <v>31.26076</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>["16", "9", "82", "1", "53", "84", "10", "17", "4", "87"]</t>
+          <t>["15", "51", "87", "79", "31", "68", "40", "95", "5", "3"]</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>29.78196</v>
+        <v>28.85217</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1393,14 +1393,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>["13", "64", "38", "15", "85", "26", "61", "55", "51", "93"]</t>
+          <t>["88", "15", "64", "46", "53", "83", "28", "55", "61", "77"]</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>28.87733</v>
+        <v>29.85088</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1425,14 +1425,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>["84", "92", "78", "52", "18", "94", "35", "96", "50", "39"]</t>
+          <t>["58", "22", "49", "68", "84", "50", "78", "14", "92", "97"]</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.61745</v>
+        <v>28.7056</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1457,14 +1457,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>["49", "190", "43", "217", "179", "75", "202", "229", "13", "146", "174", "223", "77", "232", "65", "109", "148", "203", "126", "68", "55", "236", "225", "185", "19"]</t>
+          <t>["101", "43", "215", "190", "14", "174", "92", "78", "217", "107", "125", "185", "192", "208", "24", "179", "27", "21", "66", "108", "203", "123", "226", "0", "180"]</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0.01</v>
       </c>
       <c r="G32" t="n">
-        <v>16.43987</v>
+        <v>15.8286</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1489,14 +1489,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>["41", "193", "220", "69", "136", "88", "232", "15", "56", "117", "57", "228", "111", "139", "158", "200", "242", "222", "176", "190", "68", "9", "47", "98", "130"]</t>
+          <t>["220", "69", "15", "229", "149", "192", "56", "86", "147", "111", "103", "247", "117", "176", "200", "26", "121", "100", "88", "242", "68", "83", "194", "142", "8"]</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0.01</v>
       </c>
       <c r="G33" t="n">
-        <v>15.72361</v>
+        <v>18.97669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1521,14 +1521,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>["81", "48", "204", "24", "99", "15", "94", "75", "167", "220", "7", "153", "4", "88", "67", "6", "30", "76", "211", "128", "96", "229", "138", "214", "89"]</t>
+          <t>["17", "167", "130", "202", "9", "238", "90", "128", "158", "48", "199", "245", "83", "137", "53", "26", "8", "145", "146", "138", "43", "66", "123", "33", "109"]</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0.01</v>
       </c>
       <c r="G34" t="n">
-        <v>16.47118</v>
+        <v>16.73283</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1553,14 +1553,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>["48", "68", "55", "237", "244", "122", "234", "123", "113", "126", "235", "43", "225", "205", "206", "231", "62", "52", "112", "132", "129", "245", "47", "156", "98"]</t>
+          <t>["42", "235", "186", "216", "249", "109", "225", "129", "153", "164", "159", "46", "115", "126", "156", "246", "179", "39", "127", "98", "120", "10", "200", "33", "114"]</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>0.01</v>
       </c>
       <c r="G35" t="n">
-        <v>17.09113</v>
+        <v>17.23164</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1585,14 +1585,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>["27", "232", "247", "11", "58", "115", "100", "46", "61", "128", "207", "54", "210", "150", "135", "76", "236", "240", "143", "155", "215", "202", "226", "145", "203"]</t>
+          <t>["233", "232", "38", "247", "186", "46", "195", "121", "244", "55", "92", "73", "44", "229", "115", "106", "212", "26", "196", "41", "0", "12", "54", "45", "163"]</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0.01</v>
       </c>
       <c r="G36" t="n">
-        <v>17.61813</v>
+        <v>16.02173</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1617,14 +1617,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>["144", "116", "157", "231", "103", "67", "225", "120", "52", "44", "18", "163", "208", "132", "34", "127", "216", "70", "98", "48", "178", "8", "118", "11", "240"]</t>
+          <t>["141", "118", "39", "127", "209", "82", "105", "36", "188", "211", "157", "72", "69", "235", "226", "120", "4", "233", "122", "177", "23", "12", "129", "208", "231"]</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>0.01</v>
       </c>
       <c r="G37" t="n">
-        <v>18.13453</v>
+        <v>17.36056</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>["64", "7", "30", "10", "48", "203", "184", "31", "68", "115", "172", "33", "83", "4", "2", "93", "163", "192", "222", "143", "125", "174", "87", "78", "24"]</t>
+          <t>["243", "7", "30", "101", "20", "115", "92", "160", "3", "22", "175", "33", "178", "229", "2", "18", "180", "166", "103", "5", "44", "28", "202", "53", "75"]</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0.01</v>
       </c>
       <c r="G38" t="n">
-        <v>16.4076</v>
+        <v>17.83965</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1681,14 +1681,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>["68", "7", "37", "168", "23", "104", "217", "17", "172", "175", "82", "93", "192", "173", "8", "202", "63", "118", "185", "184", "59", "126", "90", "26", "161"]</t>
+          <t>["25", "173", "172", "7", "61", "64", "241", "104", "82", "56", "175", "41", "50", "29", "219", "161", "28", "76", "185", "145", "199", "234", "109", "211", "84"]</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0.01</v>
       </c>
       <c r="G39" t="n">
-        <v>17.29626</v>
+        <v>15.82266</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1713,14 +1713,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>["134", "162", "229", "2", "132", "67", "192", "212", "227", "12", "194", "248", "222", "102", "243", "88", "106", "26", "179", "240", "52", "158", "31", "24", "200"]</t>
+          <t>["162", "12", "229", "243", "53", "67", "81", "56", "240", "248", "87", "84", "32", "26", "186", "52", "45", "119", "210", "232", "2", "68", "106", "212", "171"]</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0.01</v>
       </c>
       <c r="G40" t="n">
-        <v>16.99109</v>
+        <v>16.46085</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>["126", "5", "26", "185", "232", "2", "135", "172", "193", "231", "86", "160", "204", "213", "190", "13", "167", "93", "112", "122", "210", "80", "163", "120", "18"]</t>
+          <t>["70", "129", "26", "94", "40", "13", "233", "170", "181", "159", "131", "230", "148", "245", "37", "104", "14", "5", "3", "167", "235", "120", "96", "132", "18"]</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>0.01</v>
       </c>
       <c r="G41" t="n">
-        <v>17.15129</v>
+        <v>16.12452</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1777,14 +1777,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>["211", "325", "263", "215", "150", "27", "353", "43", "436", "411", "355", "279", "478", "109", "143", "407", "449", "154", "17", "311", "318", "481", "232", "209", "469", "324", "367", "443", "317", "189", "415", "229", "473", "363", "122", "452", "222", "163", "271", "299", "166", "30", "336", "241", "89", "60", "224", "177", "234", "259"]</t>
+          <t>["449", "215", "263", "51", "483", "43", "373", "204", "357", "104", "420", "337", "197", "253", "385", "143", "114", "106", "81", "119", "403", "140", "34", "318", "9", "485", "86", "69", "325", "139", "486", "237", "103", "25", "98", "458", "275", "342", "404", "377", "328", "355", "137", "206", "274", "213", "330", "66", "41", "323"]</t>
         </is>
       </c>
       <c r="F42" t="n">
         <v>0.04</v>
       </c>
       <c r="G42" t="n">
-        <v>11.15746</v>
+        <v>10.83621</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1809,14 +1809,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>["427", "285", "30", "234", "260", "54", "269", "155", "323", "161", "112", "372", "31", "204", "463", "465", "51", "464", "106", "311", "25", "394", "257", "300", "197", "212", "415", "480", "457", "492", "359", "438", "191", "255", "470", "296", "45", "89", "167", "181", "316", "102", "140", "409", "48", "53", "174", "377", "491", "302"]</t>
+          <t>["458", "285", "296", "30", "86", "160", "321", "493", "302", "443", "357", "156", "387", "271", "314", "420", "43", "239", "408", "39", "463", "51", "438", "210", "366", "69", "479", "365", "388", "263", "251", "354", "109", "379", "0", "331", "145", "100", "144", "358", "104", "218", "259", "241", "369", "290", "161", "44", "223", "376"]</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G43" t="n">
-        <v>11.44895</v>
+        <v>11.21072</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1841,14 +1841,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>["111", "70", "345", "434", "251", "22", "166", "355", "415", "38", "222", "332", "412", "132", "194", "311", "379", "170", "47", "116", "354", "453", "185", "404", "252", "424", "445", "349", "264", "247", "281", "183", "317", "455", "125", "292", "324", "163", "428", "481", "487", "337", "210", "83", "330", "177", "36", "458", "400", "60"]</t>
+          <t>["376", "345", "251", "495", "116", "294", "434", "216", "100", "479", "457", "460", "233", "185", "192", "212", "231", "425", "170", "198", "418", "205", "109", "152", "404", "136", "351", "350", "145", "181", "287", "424", "14", "263", "322", "164", "163", "73", "486", "174", "429", "289", "305", "105", "483", "191", "47", "449", "456", "309"]</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>0.05</v>
       </c>
       <c r="G44" t="n">
-        <v>11.37176</v>
+        <v>10.97606</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1873,14 +1873,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>["295", "395", "315", "176", "96", "386", "490", "485", "475", "498", "379", "316", "388", "349", "231", "23", "468", "192", "334", "299", "489", "81", "22", "47", "154", "210", "417", "197", "464", "255", "297", "263", "169", "30", "458", "293", "269", "164", "5", "109", "451", "170", "448", "267", "70", "175", "261", "284", "433", "106"]</t>
+          <t>["454", "315", "475", "395", "176", "473", "217", "365", "77", "124", "352", "59", "21", "54", "27", "431", "394", "299", "100", "321", "164", "285", "464", "65", "172", "205", "445", "158", "467", "259", "89", "237", "314", "477", "271", "38", "22", "74", "13", "312", "313", "6", "323", "309", "273", "419", "465", "137", "58", "337"]</t>
         </is>
       </c>
       <c r="F45" t="n">
         <v>0.04</v>
       </c>
       <c r="G45" t="n">
-        <v>11.72385</v>
+        <v>11.03593</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1905,11 +1905,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>["215", "373", "334", "452", "191", "169", "483", "28", "381", "338", "34", "295", "47", "410", "309", "363", "65", "81", "33", "79", "446", "111", "372", "286", "498", "422", "458", "60", "214", "165", "273", "196", "261", "203", "385", "102", "157", "251", "113", "8", "73", "159", "173", "440", "13", "420", "308", "450", "444", "313"]</t>
+          <t>["345", "479", "452", "334", "251", "353", "235", "94", "248", "308", "331", "451", "46", "35", "78", "402", "487", "394", "432", "104", "191", "421", "283", "318", "131", "175", "290", "77", "22", "392", "465", "255", "475", "88", "157", "296", "100", "28", "99", "482", "261", "121", "135", "466", "183", "113", "166", "269", "445", "313"]</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G46" t="n">
         <v>11.13141</v>
@@ -1937,14 +1937,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>["143", "421", "122", "212", "68", "479", "475", "326", "332", "459", "235", "439", "125", "383", "343", "442", "239", "75", "317", "160", "242", "268", "119", "318", "461", "338", "139", "166", "495", "448", "349", "476", "480", "472", "16", "331", "169", "351", "471", "103", "321", "407", "223", "456", "414", "174", "345", "211", "384", "58"]</t>
+          <t>["473", "421", "212", "122", "66", "397", "441", "448", "174", "171", "344", "351", "87", "382", "378", "297", "98", "250", "289", "268", "177", "285", "16", "245", "476", "334", "184", "498", "41", "436", "398", "434", "15", "235", "400", "391", "223", "120", "29", "53", "149", "50", "319", "136", "475", "464", "243", "55", "133", "157"]</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G47" t="n">
-        <v>11.52342</v>
+        <v>11.01469</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1969,14 +1969,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>["159", "318", "124", "140", "328", "476", "315", "128", "483", "235", "431", "79", "78", "487", "399", "393", "36", "385", "400", "160", "439", "16", "311", "51", "19", "60", "395", "288", "333", "50", "99", "239", "363", "495", "438", "165", "20", "109", "467", "120", "2", "482", "488", "71", "112", "61", "494", "30", "261", "493"]</t>
+          <t>["70", "124", "160", "200", "412", "94", "53", "211", "425", "376", "95", "458", "428", "318", "107", "300", "243", "406", "32", "225", "342", "79", "476", "344", "2", "339", "489", "354", "235", "370", "147", "245", "323", "471", "473", "226", "405", "33", "62", "315", "457", "77", "259", "288", "154", "267", "482", "284", "294", "185"]</t>
         </is>
       </c>
       <c r="F48" t="n">
         <v>0.04</v>
       </c>
       <c r="G48" t="n">
-        <v>11.48255</v>
+        <v>11.06341</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>["409", "306", "45", "378", "181", "388", "351", "390", "459", "362", "400", "421", "177", "247", "253", "124", "350", "310", "44", "480", "439", "292", "33", "492", "125", "11", "428", "314", "25", "318", "63", "334", "79", "99", "155", "353", "119", "363", "423", "355", "96", "98", "147", "24", "180", "401", "221", "257", "477", "190"]</t>
+          <t>["483", "306", "247", "45", "57", "469", "395", "137", "145", "355", "220", "30", "339", "378", "490", "230", "295", "293", "429", "425", "406", "482", "111", "313", "328", "251", "116", "202", "424", "178", "141", "115", "235", "311", "184", "158", "61", "394", "26", "73", "64", "329", "232", "396", "79", "307", "372", "358", "493", "249"]</t>
         </is>
       </c>
       <c r="F49" t="n">
         <v>0.04</v>
       </c>
       <c r="G49" t="n">
-        <v>11.7522</v>
+        <v>11.06908</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2033,14 +2033,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>["379", "3", "92", "408", "454", "440", "196", "189", "264", "149", "137", "422", "148", "293", "400", "369", "153", "287", "106", "102", "111", "354", "178", "414", "349", "406", "28", "225", "384", "68", "334", "315", "274", "265", "215", "11", "237", "434", "17", "174", "390", "114", "497", "227", "209", "496", "425", "208", "291", "351"]</t>
+          <t>["62", "400", "92", "178", "403", "32", "148", "440", "399", "282", "182", "180", "484", "372", "269", "175", "290", "248", "285", "153", "119", "468", "432", "438", "3", "435", "293", "137", "350", "78", "133", "155", "333", "27", "259", "493", "348", "17", "460", "390", "205", "118", "361", "322", "219", "482", "154", "379", "335", "43"]</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>0.05</v>
       </c>
       <c r="G50" t="n">
-        <v>11.60357</v>
+        <v>11.3115</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2065,14 +2065,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>["204", "481", "357", "491", "419", "478", "341", "62", "473", "162", "460", "409", "425", "215", "67", "257", "150", "335", "36", "339", "33", "6", "388", "434", "122", "258", "220", "100", "58", "149", "55", "158", "286", "362", "410", "316", "436", "265", "161", "264", "484", "206", "160", "185", "191", "148", "24", "440", "28", "184"]</t>
+          <t>["254", "473", "383", "331", "206", "323", "109", "423", "149", "304", "222", "100", "21", "185", "277", "152", "492", "456", "139", "187", "469", "350", "71", "41", "181", "81", "125", "372", "493", "156", "194", "404", "381", "411", "120", "232", "63", "115", "299", "297", "29", "341", "447", "148", "322", "171", "175", "31", "46", "90"]</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>0.04</v>
       </c>
       <c r="G51" t="n">
-        <v>11.25091</v>
+        <v>10.82326</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2097,14 +2097,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>["638", "8", "192", "796", "170", "211", "629", "424", "886", "306", "115", "204", "101", "934", "466", "195", "19", "139", "546", "447", "472", "22", "482", "30", "174", "339", "432", "129", "933", "913", "389", "461", "338", "89", "27", "649", "17", "490", "100", "44", "595", "532", "131", "93", "401", "190", "459", "989", "429", "304", "414", "322", "539", "544", "404", "944", "252", "576", "791", "992", "97", "693", "421", "480", "246", "705", "463", "506", "949", "548", "352", "889", "141", "870", "894", "203", "489", "374", "880", "570", "815", "904", "366", "812", "549", "970", "159", "72", "250", "601", "475", "842", "715", "887", "988", "730", "12", "193", "310", "665"]</t>
+          <t>["250", "8", "192", "796", "211", "141", "424", "128", "165", "306", "763", "204", "958", "456", "851", "705", "546", "447", "173", "665", "515", "728", "600", "978", "409", "787", "942", "112", "769", "558", "949", "977", "732", "17", "284", "260", "406", "459", "138", "382", "816", "725", "544", "375", "962", "708", "633", "304", "291", "288", "421", "554", "798", "322", "877", "451", "501", "271", "148", "716", "197", "301", "251", "219", "659", "818", "648", "316", "686", "373", "294", "790", "677", "254", "418", "875", "29", "432", "170", "272", "876", "749", "815", "824", "187", "203", "152", "407", "847", "399", "233", "715", "768", "555", "280", "90", "74", "510", "380", "589"]</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="G52" t="n">
-        <v>7.81623</v>
+        <v>7.69598</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2129,14 +2129,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>["860", "681", "722", "256", "122", "390", "799", "890", "238", "282", "265", "566", "352", "442", "66", "399", "765", "268", "585", "418", "269", "949", "582", "20", "581", "107", "825", "604", "756", "498", "283", "264", "855", "459", "743", "244", "218", "733", "621", "928", "176", "317", "277", "925", "243", "487", "156", "619", "225", "95", "623", "363", "276", "669", "360", "356", "90", "451", "434", "491", "234", "180", "631", "912", "767", "186", "329", "46", "603", "800", "286", "79", "560", "899", "826", "60", "521", "54", "292", "904", "23", "637", "943", "972", "179", "345", "492", "991", "694", "470", "818", "905", "397", "801", "864", "993", "49", "545", "525", "786"]</t>
+          <t>["962", "122", "258", "837", "346", "772", "473", "302", "448", "904", "297", "476", "681", "79", "843", "890", "755", "454", "660", "894", "216", "949", "294", "543", "807", "155", "318", "776", "68", "704", "578", "172", "499", "825", "218", "339", "34", "243", "741", "72", "637", "124", "982", "756", "516", "575", "777", "699", "197", "740", "690", "643", "669", "227", "360", "617", "439", "387", "113", "168", "717", "524", "506", "668", "212", "133", "284", "385", "603", "829", "329", "816", "15", "605", "649", "224", "158", "21", "142", "844", "430", "518", "296", "123", "820", "793", "290", "927", "931", "202", "394", "160", "49", "313", "696", "525", "382", "54", "137", "225"]</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="G53" t="n">
-        <v>7.59092</v>
+        <v>7.61547</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2161,14 +2161,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>["716", "21", "148", "951", "26", "917", "404", "348", "995", "518", "198", "568", "721", "938", "960", "420", "17", "109", "399", "15", "928", "465", "314", "820", "184", "264", "269", "999", "947", "259", "104", "432", "408", "450", "378", "842", "848", "340", "16", "454", "442", "260", "124", "672", "374", "339", "93", "776", "422", "248", "566", "228", "236", "318", "297", "783", "31", "898", "901", "160", "414", "832", "83", "758", "692", "570", "182", "810", "36", "513", "573", "211", "289", "575", "977", "122", "221", "336", "100", "809", "905", "756", "829", "815", "200", "401", "386", "695", "600", "127", "341", "643", "188", "539", "837", "347", "71", "923", "729", "619"]</t>
+          <t>["320", "742", "337", "379", "411", "809", "142", "336", "597", "431", "886", "986", "175", "644", "119", "679", "918", "635", "318", "902", "762", "477", "335", "734", "686", "306", "500", "259", "356", "708", "485", "715", "208", "948", "254", "53", "229", "200", "937", "171", "198", "394", "926", "21", "818", "93", "626", "824", "125", "289", "736", "139", "328", "713", "358", "670", "408", "234", "982", "552", "305", "45", "602", "911", "180", "461", "729", "829", "231", "151", "195", "940", "915", "872", "144", "547", "565", "618", "55", "581", "925", "473", "404", "932", "389", "114", "718", "267", "145", "831", "438", "391", "109", "498", "22", "157", "261", "494", "681", "678"]</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="G54" t="n">
-        <v>7.69617</v>
+        <v>7.74448</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>["720", "435", "31", "458", "709", "273", "467", "78", "196", "612", "105", "716", "51", "553", "776", "764", "205", "689", "828", "630", "449", "702", "845", "489", "739", "817", "416", "98", "791", "669", "193", "863", "441", "334", "535", "157", "171", "565", "615", "498", "813", "785", "232", "478", "588", "600", "179", "101", "808", "180", "975", "939", "259", "744", "15", "866", "222", "92", "338", "923", "299", "503", "547", "150", "457", "762", "927", "84", "262", "400", "97", "637", "261", "697", "237", "829", "315", "169", "440", "302", "922", "442", "930", "696", "820", "83", "89", "267", "659", "48", "793", "414", "827", "916", "943", "540", "156", "57", "766", "589"]</t>
+          <t>["305", "31", "435", "938", "739", "261", "882", "483", "557", "160", "675", "886", "595", "689", "709", "299", "449", "225", "591", "383", "542", "987", "187", "714", "43", "459", "633", "963", "350", "823", "476", "52", "297", "262", "82", "334", "986", "79", "838", "812", "939", "190", "362", "516", "618", "83", "588", "766", "685", "204", "257", "501", "577", "113", "842", "183", "132", "397", "744", "965", "974", "579", "3", "697", "547", "148", "151", "988", "177", "440", "721", "783", "809", "152", "15", "791", "348", "322", "992", "290", "808", "267", "182", "535", "205", "146", "649", "231", "388", "550", "237", "60", "827", "916", "933", "196", "601", "429", "799", "884"]</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="G55" t="n">
-        <v>7.83567</v>
+        <v>7.8065</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>["155", "660", "712", "906", "599", "189", "821", "111", "544", "310", "119", "762", "519", "564", "738", "16", "576", "99", "632", "634", "521", "563", "541", "687", "159", "371", "678", "461", "429", "179", "862", "759", "943", "210", "923", "34", "831", "962", "988", "910", "245", "528", "118", "966", "925", "221", "539", "830", "375", "446", "276", "297", "473", "249", "566", "810", "94", "14", "57", "515", "976", "78", "776", "911", "547", "631", "368", "739", "450", "454", "470", "879", "153", "514", "777", "262", "305", "123", "19", "826", "1", "858", "748", "25", "414", "286", "420", "431", "86", "669", "112", "253", "60", "388", "652", "222", "758", "581", "148", "381"]</t>
+          <t>["380", "632", "210", "40", "331", "469", "849", "660", "773", "49", "315", "183", "417", "931", "798", "507", "85", "411", "943", "613", "522", "504", "17", "641", "256", "125", "658", "229", "289", "692", "663", "737", "630", "286", "378", "401", "323", "809", "62", "379", "786", "703", "928", "936", "476", "160", "42", "526", "781", "765", "123", "261", "638", "213", "451", "403", "186", "305", "508", "307", "338", "607", "528", "906", "373", "110", "868", "907", "395", "914", "887", "249", "819", "923", "942", "954", "742", "501", "768", "470", "391", "587", "295", "154", "968", "491", "334", "316", "617", "912", "443", "423", "975", "415", "314", "749", "66", "659", "73", "13"]</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>7.83671</v>
+        <v>8.00182</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2257,14 +2257,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>["933", "470", "356", "726", "512", "479", "155", "706", "181", "390", "781", "367", "345", "190", "687", "778", "141", "974", "768", "443", "254", "320", "413", "29", "929", "923", "98", "719", "116", "284", "700", "33", "154", "577", "56", "976", "53", "83", "42", "678", "412", "698", "34", "463", "331", "378", "607", "260", "295", "402", "473", "630", "91", "44", "352", "553", "910", "856", "230", "444", "8", "825", "110", "103", "327", "240", "442", "960", "654", "534", "661", "987", "667", "343", "197", "787", "439", "673", "486", "880", "364", "265", "503", "806", "346", "639", "194", "911", "119", "170", "664", "584", "167", "710", "459", "593", "135", "841", "804", "793"]</t>
+          <t>["936", "470", "866", "393", "484", "930", "35", "341", "736", "854", "250", "503", "49", "771", "432", "566", "413", "165", "584", "178", "782", "910", "887", "615", "478", "80", "307", "5", "648", "310", "684", "339", "825", "893", "578", "628", "724", "507", "151", "558", "596", "781", "480", "350", "770", "669", "86", "929", "448", "414", "336", "407", "712", "577", "45", "621", "710", "726", "369", "219", "766", "175", "402", "234", "600", "974", "416", "795", "316", "821", "502", "939", "121", "439", "187", "124", "790", "47", "841", "545", "815", "580", "509", "29", "279", "987", "786", "479", "695", "698", "436", "888", "321", "166", "267", "444", "248", "701", "920", "703"]</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="G57" t="n">
-        <v>7.81845</v>
+        <v>7.55481</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2289,14 +2289,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>["193", "345", "425", "697", "668", "863", "912", "429", "545", "294", "510", "316", "488", "634", "152", "309", "939", "924", "396", "379", "357", "76", "796", "712", "465", "768", "596", "412", "553", "602", "563", "117", "526", "487", "872", "681", "927", "604", "790", "161", "8", "418", "7", "911", "464", "445", "109", "368", "859", "675", "591", "81", "972", "533", "250", "977", "631", "86", "391", "12", "416", "516", "45", "153", "541", "56", "474", "645", "339", "751", "452", "307", "347", "456", "438", "354", "989", "257", "421", "987", "35", "315", "626", "213", "865", "773", "136", "237", "266", "818", "442", "760", "470", "699", "829", "469", "441", "409", "372", "408"]</t>
+          <t>["815", "553", "697", "499", "498", "221", "964", "712", "408", "922", "342", "411", "920", "345", "343", "406", "596", "986", "262", "766", "625", "761", "567", "171", "890", "251", "827", "850", "28", "29", "841", "511", "477", "161", "713", "428", "507", "807", "68", "624", "506", "714", "297", "796", "82", "634", "782", "726", "412", "521", "143", "114", "533", "36", "932", "817", "500", "987", "838", "970", "707", "494", "384", "257", "977", "959", "873", "765", "754", "204", "607", "112", "476", "330", "151", "435", "72", "215", "470", "953", "39", "391", "569", "897", "909", "601", "319", "649", "245", "980", "38", "362", "23", "746", "610", "938", "816", "924", "783", "478"]</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="G58" t="n">
-        <v>7.59051</v>
+        <v>7.73021</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>["611", "697", "446", "462", "478", "233", "911", "522", "13", "298", "640", "357", "529", "38", "516", "110", "305", "634", "158", "694", "1", "888", "873", "162", "3", "354", "130", "654", "646", "937", "384", "270", "971", "273", "407", "166", "202", "152", "229", "285", "999", "194", "624", "206", "136", "471", "317", "133", "783", "905", "663", "28", "615", "343", "376", "942", "15", "875", "164", "745", "55", "31", "497", "902", "935", "789", "675", "483", "599", "411", "40", "92", "244", "390", "238", "21", "706", "121", "819", "582", "733", "378", "210", "866", "177", "572", "30", "844", "403", "27", "838", "165", "772", "928", "144", "542", "926", "9", "917", "690"]</t>
+          <t>["66", "74", "959", "697", "392", "269", "942", "733", "665", "422", "376", "446", "748", "575", "360", "992", "67", "655", "403", "622", "896", "506", "159", "882", "288", "853", "873", "73", "889", "812", "614", "844", "163", "48", "93", "528", "903", "377", "728", "410", "499", "315", "387", "649", "291", "261", "142", "36", "60", "35", "900", "983", "531", "660", "49", "265", "637", "40", "946", "106", "365", "683", "414", "825", "102", "686", "13", "175", "612", "432", "136", "595", "293", "221", "706", "393", "497", "905", "267", "904", "9", "450", "854", "972", "319", "270", "571", "694", "838", "995", "766", "407", "874", "880", "680", "275", "287", "932", "148", "337"]</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="G59" t="n">
-        <v>7.74332</v>
+        <v>7.68381</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2353,14 +2353,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>["218", "457", "350", "325", "80", "105", "499", "796", "865", "748", "810", "855", "612", "183", "590", "665", "653", "583", "419", "662", "269", "362", "397", "426", "908", "521", "978", "548", "377", "859", "969", "828", "446", "711", "569", "762", "308", "901", "630", "321", "626", "492", "718", "423", "601", "251", "533", "830", "614", "127", "545", "616", "343", "524", "953", "102", "272", "471", "169", "979", "975", "201", "917", "248", "396", "784", "233", "827", "361", "420", "358", "702", "506", "594", "10", "899", "994", "370", "295", "838", "973", "716", "815", "857", "675", "811", "575", "576", "235", "498", "98", "900", "406", "490", "45", "294", "608", "652", "623", "428"]</t>
+          <t>["370", "457", "350", "446", "905", "604", "288", "600", "796", "996", "628", "754", "946", "892", "83", "736", "504", "899", "603", "783", "846", "718", "428", "742", "727", "137", "924", "531", "459", "162", "234", "494", "295", "273", "847", "90", "780", "517", "481", "460", "797", "865", "771", "578", "540", "124", "345", "670", "210", "85", "602", "515", "256", "442", "194", "691", "316", "575", "552", "815", "702", "69", "43", "58", "903", "614", "371", "144", "874", "313", "148", "959", "682", "631", "775", "401", "916", "612", "431", "70", "430", "859", "220", "244", "426", "204", "898", "811", "406", "568", "96", "405", "784", "608", "701", "120", "728", "549", "799", "639"]</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="G60" t="n">
-        <v>7.91043</v>
+        <v>7.71916</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2385,14 +2385,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>["527", "958", "389", "931", "319", "429", "774", "982", "9", "733", "764", "592", "323", "479", "28", "291", "74", "129", "546", "375", "908", "221", "434", "107", "605", "677", "437", "80", "680", "629", "531", "658", "607", "223", "613", "868", "345", "789", "421", "371", "278", "472", "851", "559", "433", "668", "343", "535", "903", "644", "239", "63", "651", "441", "624", "904", "965", "574", "738", "301", "6", "213", "636", "23", "106", "159", "872", "114", "942", "149", "614", "736", "743", "56", "991", "919", "202", "194", "670", "184", "390", "864", "678", "665", "996", "42", "562", "452", "85", "47", "619", "966", "233", "648", "840", "174", "328", "87", "228", "172"]</t>
+          <t>["931", "389", "80", "194", "432", "340", "57", "774", "682", "119", "283", "903", "407", "543", "438", "496", "734", "30", "291", "660", "396", "546", "375", "113", "175", "861", "953", "498", "902", "395", "678", "4", "158", "337", "584", "699", "552", "831", "588", "421", "371", "278", "276", "646", "458", "23", "21", "470", "707", "242", "531", "757", "976", "154", "824", "762", "780", "402", "899", "967", "760", "213", "270", "941", "559", "159", "917", "106", "125", "190", "18", "181", "813", "419", "56", "991", "852", "214", "670", "411", "730", "271", "631", "560", "506", "504", "592", "268", "656", "483", "713", "48", "621", "840", "512", "172", "424", "89", "770", "583"]</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G61" t="n">
-        <v>7.67499</v>
+        <v>7.46452</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>["20", "7", "12"]</t>
+          <t>["7", "12", "20"]</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2488,7 +2488,7 @@
         <v>80.28497</v>
       </c>
       <c r="H2" t="n">
-        <v>7289359</v>
+        <v>7284605</v>
       </c>
     </row>
     <row r="3">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>["24", "13", "22"]</t>
+          <t>["22", "13", "24"]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2520,7 +2520,7 @@
         <v>78.42063</v>
       </c>
       <c r="H3" t="n">
-        <v>7271878</v>
+        <v>7238182</v>
       </c>
     </row>
     <row r="4">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>["22", "14", "5"]</t>
+          <t>["5", "14", "22"]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2552,7 +2552,7 @@
         <v>81.20881</v>
       </c>
       <c r="H4" t="n">
-        <v>7300529</v>
+        <v>7188014</v>
       </c>
     </row>
     <row r="5">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>["17", "2", "24"]</t>
+          <t>["24", "2", "17"]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2584,7 +2584,7 @@
         <v>81.5193</v>
       </c>
       <c r="H5" t="n">
-        <v>7291174</v>
+        <v>7272425</v>
       </c>
     </row>
     <row r="6">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["4", "12", "20"]</t>
+          <t>["12", "4", "20"]</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2616,7 +2616,7 @@
         <v>77.95853</v>
       </c>
       <c r="H6" t="n">
-        <v>7307061</v>
+        <v>7268602</v>
       </c>
     </row>
     <row r="7">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>["23", "15", "24"]</t>
+          <t>["15", "24", "23"]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2648,7 +2648,7 @@
         <v>74.06856999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>7296244</v>
+        <v>7234906</v>
       </c>
     </row>
     <row r="8">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>["3", "0", "6"]</t>
+          <t>["6", "3", "0"]</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2680,7 +2680,7 @@
         <v>77.00823</v>
       </c>
       <c r="H8" t="n">
-        <v>7283890</v>
+        <v>7239054</v>
       </c>
     </row>
     <row r="9">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["21", "24", "19"]</t>
+          <t>["24", "19", "21"]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2712,7 +2712,7 @@
         <v>91.60720999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>7372655</v>
+        <v>7210250</v>
       </c>
     </row>
     <row r="10">
@@ -2744,7 +2744,7 @@
         <v>85.55288</v>
       </c>
       <c r="H10" t="n">
-        <v>7295921</v>
+        <v>7267410</v>
       </c>
     </row>
     <row r="11">
@@ -2776,7 +2776,7 @@
         <v>88.93698999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>7266198</v>
+        <v>7223349</v>
       </c>
     </row>
     <row r="12">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>["36", "6", "40", "33", "39"]</t>
+          <t>["39", "36", "6", "40", "33"]</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2808,7 +2808,7 @@
         <v>54.21418</v>
       </c>
       <c r="H12" t="n">
-        <v>10070894</v>
+        <v>10017812</v>
       </c>
     </row>
     <row r="13">
@@ -2840,7 +2840,7 @@
         <v>54.20737</v>
       </c>
       <c r="H13" t="n">
-        <v>9961360</v>
+        <v>9992174</v>
       </c>
     </row>
     <row r="14">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>["12", "29", "11", "36", "1"]</t>
+          <t>["46", "16", "29", "12", "36"]</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2872,7 +2872,7 @@
         <v>55.74734</v>
       </c>
       <c r="H14" t="n">
-        <v>10001348</v>
+        <v>10018533</v>
       </c>
     </row>
     <row r="15">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>["15", "9", "30", "32", "22"]</t>
+          <t>["3", "32", "39", "22", "15"]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2904,7 +2904,7 @@
         <v>53.8571</v>
       </c>
       <c r="H15" t="n">
-        <v>9895675</v>
+        <v>9911579</v>
       </c>
     </row>
     <row r="16">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["17", "44", "43", "25", "6"]</t>
+          <t>["44", "17", "43", "25", "6"]</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2936,7 +2936,7 @@
         <v>56.50811</v>
       </c>
       <c r="H16" t="n">
-        <v>9996850</v>
+        <v>10100403</v>
       </c>
     </row>
     <row r="17">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>["35", "26", "29", "21", "32"]</t>
+          <t>["23", "21", "32", "29", "26"]</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2968,7 +2968,7 @@
         <v>50.83433</v>
       </c>
       <c r="H17" t="n">
-        <v>9875606</v>
+        <v>10091259</v>
       </c>
     </row>
     <row r="18">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["49", "16", "19", "2", "37"]</t>
+          <t>["16", "49", "19", "37", "2"]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3000,7 +3000,7 @@
         <v>57.84889</v>
       </c>
       <c r="H18" t="n">
-        <v>10091241</v>
+        <v>10122570</v>
       </c>
     </row>
     <row r="19">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>["8", "5", "14", "10", "2"]</t>
+          <t>["8", "14", "2", "10", "5"]</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3032,7 +3032,7 @@
         <v>50.62569</v>
       </c>
       <c r="H19" t="n">
-        <v>10114583</v>
+        <v>10085594</v>
       </c>
     </row>
     <row r="20">
@@ -3064,7 +3064,7 @@
         <v>52.21945</v>
       </c>
       <c r="H20" t="n">
-        <v>10055431</v>
+        <v>9959676</v>
       </c>
     </row>
     <row r="21">
@@ -3096,7 +3096,7 @@
         <v>57.47996</v>
       </c>
       <c r="H21" t="n">
-        <v>10008146</v>
+        <v>10060256</v>
       </c>
     </row>
     <row r="22">
@@ -3118,17 +3118,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>["32", "60", "62", "18", "71", "22", "14", "69", "86", "27"]</t>
+          <t>["60", "70", "77", "56", "62", "43", "14", "97", "84", "6"]</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>30.43833</v>
+        <v>31.51818</v>
       </c>
       <c r="H22" t="n">
-        <v>9100115</v>
+        <v>9220306</v>
       </c>
     </row>
     <row r="23">
@@ -3150,17 +3150,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>["36", "39", "32", "58", "42", "18", "66", "46", "48", "67"]</t>
+          <t>["54", "28", "13", "83", "80", "84", "69", "44", "33", "5"]</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>29.09736</v>
+        <v>29.4652</v>
       </c>
       <c r="H23" t="n">
-        <v>9061940</v>
+        <v>9175723</v>
       </c>
     </row>
     <row r="24">
@@ -3182,17 +3182,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>["21", "31", "30", "10", "84", "7", "69", "56", "65", "9"]</t>
+          <t>["38", "56", "16", "34", "19", "53", "10", "69", "15", "85"]</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>30.32437</v>
+        <v>30.60735</v>
       </c>
       <c r="H24" t="n">
-        <v>9074985</v>
+        <v>9176239</v>
       </c>
     </row>
     <row r="25">
@@ -3214,17 +3214,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>["37", "5", "76", "82", "51", "84", "23", "15", "0", "1"]</t>
+          <t>["45", "73", "14", "23", "39", "53", "84", "94", "11", "29"]</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>30.34997</v>
+        <v>32.22756</v>
       </c>
       <c r="H25" t="n">
-        <v>9071734</v>
+        <v>9214205</v>
       </c>
     </row>
     <row r="26">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>["95", "65", "71", "87", "42", "16", "10", "90", "76", "51"]</t>
+          <t>["93", "12", "44", "22", "54", "86", "65", "34", "39", "11"]</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>29.92558</v>
+        <v>31.6112</v>
       </c>
       <c r="H26" t="n">
-        <v>9086005</v>
+        <v>9217467</v>
       </c>
     </row>
     <row r="27">
@@ -3288,7 +3288,7 @@
         <v>31.19735</v>
       </c>
       <c r="H27" t="n">
-        <v>9061242</v>
+        <v>9367857</v>
       </c>
     </row>
     <row r="28">
@@ -3310,17 +3310,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>["23", "96", "49", "59", "40", "76", "42", "75", "93", "43"]</t>
+          <t>["76", "87", "93", "60", "89", "77", "15", "98", "49", "88"]</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>32.53505</v>
+        <v>30.14792</v>
       </c>
       <c r="H28" t="n">
-        <v>9074733</v>
+        <v>9155411</v>
       </c>
     </row>
     <row r="29">
@@ -3352,7 +3352,7 @@
         <v>30.01654</v>
       </c>
       <c r="H29" t="n">
-        <v>9090389</v>
+        <v>9182853</v>
       </c>
     </row>
     <row r="30">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>["88", "75", "5", "62", "2", "22", "64", "74", "68", "12"]</t>
+          <t>["24", "15", "46", "92", "29", "22", "18", "33", "82", "58"]</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>30.94268</v>
+        <v>31.29341</v>
       </c>
       <c r="H30" t="n">
-        <v>9099041</v>
+        <v>9174432</v>
       </c>
     </row>
     <row r="31">
@@ -3406,17 +3406,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>["84", "6", "49", "65", "41", "14", "78", "67", "74", "35"]</t>
+          <t>["68", "43", "44", "49", "47", "98", "71", "90", "92", "17"]</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>31.12947</v>
+        <v>29.84638</v>
       </c>
       <c r="H31" t="n">
-        <v>9197297</v>
+        <v>9331732</v>
       </c>
     </row>
     <row r="32">
@@ -3448,7 +3448,7 @@
         <v>18.0066</v>
       </c>
       <c r="H32" t="n">
-        <v>5793316</v>
+        <v>5839123</v>
       </c>
     </row>
     <row r="33">
@@ -3480,7 +3480,7 @@
         <v>18.97669</v>
       </c>
       <c r="H33" t="n">
-        <v>5701327</v>
+        <v>5824476</v>
       </c>
     </row>
     <row r="34">
@@ -3512,7 +3512,7 @@
         <v>16.99478</v>
       </c>
       <c r="H34" t="n">
-        <v>5708618</v>
+        <v>5772762</v>
       </c>
     </row>
     <row r="35">
@@ -3544,7 +3544,7 @@
         <v>15.50381</v>
       </c>
       <c r="H35" t="n">
-        <v>5682064</v>
+        <v>5758455</v>
       </c>
     </row>
     <row r="36">
@@ -3576,7 +3576,7 @@
         <v>16.43693</v>
       </c>
       <c r="H36" t="n">
-        <v>5697506</v>
+        <v>5783140</v>
       </c>
     </row>
     <row r="37">
@@ -3608,7 +3608,7 @@
         <v>17.42062</v>
       </c>
       <c r="H37" t="n">
-        <v>5681542</v>
+        <v>5803037</v>
       </c>
     </row>
     <row r="38">
@@ -3640,7 +3640,7 @@
         <v>16.48831</v>
       </c>
       <c r="H38" t="n">
-        <v>5699783</v>
+        <v>5822393</v>
       </c>
     </row>
     <row r="39">
@@ -3672,7 +3672,7 @@
         <v>16.92862</v>
       </c>
       <c r="H39" t="n">
-        <v>5706171</v>
+        <v>5803449</v>
       </c>
     </row>
     <row r="40">
@@ -3704,7 +3704,7 @@
         <v>16.46085</v>
       </c>
       <c r="H40" t="n">
-        <v>5764198</v>
+        <v>5758668</v>
       </c>
     </row>
     <row r="41">
@@ -3736,7 +3736,7 @@
         <v>17.06545</v>
       </c>
       <c r="H41" t="n">
-        <v>5743482</v>
+        <v>5793238</v>
       </c>
     </row>
     <row r="42">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>500.06</v>
+        <v>500.05</v>
       </c>
       <c r="G42" t="n">
         <v>10.63389</v>
       </c>
       <c r="H42" t="n">
-        <v>3125612</v>
+        <v>3087404</v>
       </c>
     </row>
     <row r="43">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>500.06</v>
+        <v>500.05</v>
       </c>
       <c r="G43" t="n">
         <v>10.8462</v>
       </c>
       <c r="H43" t="n">
-        <v>3070893</v>
+        <v>3141641</v>
       </c>
     </row>
     <row r="44">
@@ -3832,7 +3832,7 @@
         <v>11.3367</v>
       </c>
       <c r="H44" t="n">
-        <v>3065470</v>
+        <v>3119785</v>
       </c>
     </row>
     <row r="45">
@@ -3858,13 +3858,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>500.06</v>
+        <v>500.07</v>
       </c>
       <c r="G45" t="n">
         <v>11.19765</v>
       </c>
       <c r="H45" t="n">
-        <v>3068423</v>
+        <v>3131788</v>
       </c>
     </row>
     <row r="46">
@@ -3896,7 +3896,7 @@
         <v>11.18143</v>
       </c>
       <c r="H46" t="n">
-        <v>2884430</v>
+        <v>3108219</v>
       </c>
     </row>
     <row r="47">
@@ -3928,7 +3928,7 @@
         <v>10.77303</v>
       </c>
       <c r="H47" t="n">
-        <v>3133095</v>
+        <v>3116346</v>
       </c>
     </row>
     <row r="48">
@@ -3960,7 +3960,7 @@
         <v>11.36334</v>
       </c>
       <c r="H48" t="n">
-        <v>3107467</v>
+        <v>3125592</v>
       </c>
     </row>
     <row r="49">
@@ -3992,7 +3992,7 @@
         <v>11.06908</v>
       </c>
       <c r="H49" t="n">
-        <v>3059440</v>
+        <v>3135886</v>
       </c>
     </row>
     <row r="50">
@@ -4024,7 +4024,7 @@
         <v>10.83097</v>
       </c>
       <c r="H50" t="n">
-        <v>3089772</v>
+        <v>3129172</v>
       </c>
     </row>
     <row r="51">
@@ -4056,7 +4056,7 @@
         <v>11.26237</v>
       </c>
       <c r="H51" t="n">
-        <v>3080114</v>
+        <v>3138188</v>
       </c>
     </row>
     <row r="52">
@@ -4082,13 +4082,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000.68</v>
+        <v>500.63</v>
       </c>
       <c r="G52" t="n">
         <v>7.64769</v>
       </c>
       <c r="H52" t="n">
-        <v>1583747</v>
+        <v>701429</v>
       </c>
     </row>
     <row r="53">
@@ -4114,13 +4114,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000.72</v>
+        <v>500.52</v>
       </c>
       <c r="G53" t="n">
         <v>7.66389</v>
       </c>
       <c r="H53" t="n">
-        <v>1586895</v>
+        <v>796584</v>
       </c>
     </row>
     <row r="54">
@@ -4146,13 +4146,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000.65</v>
+        <v>500.6</v>
       </c>
       <c r="G54" t="n">
         <v>7.44725</v>
       </c>
       <c r="H54" t="n">
-        <v>1562022</v>
+        <v>793850</v>
       </c>
     </row>
     <row r="55">
@@ -4178,13 +4178,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000.76</v>
+        <v>500.64</v>
       </c>
       <c r="G55" t="n">
         <v>7.54853</v>
       </c>
       <c r="H55" t="n">
-        <v>1569366</v>
+        <v>810201</v>
       </c>
     </row>
     <row r="56">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000.69</v>
+        <v>500.59</v>
       </c>
       <c r="G56" t="n">
         <v>7.65908</v>
       </c>
       <c r="H56" t="n">
-        <v>1555766</v>
+        <v>793977</v>
       </c>
     </row>
     <row r="57">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000.76</v>
+        <v>500.62</v>
       </c>
       <c r="G57" t="n">
         <v>7.52963</v>
       </c>
       <c r="H57" t="n">
-        <v>1558794</v>
+        <v>789127</v>
       </c>
     </row>
     <row r="58">
@@ -4274,13 +4274,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000.76</v>
+        <v>500.56</v>
       </c>
       <c r="G58" t="n">
         <v>7.35592</v>
       </c>
       <c r="H58" t="n">
-        <v>1566919</v>
+        <v>809329</v>
       </c>
     </row>
     <row r="59">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000.68</v>
+        <v>500.62</v>
       </c>
       <c r="G59" t="n">
         <v>7.63126</v>
       </c>
       <c r="H59" t="n">
-        <v>1565161</v>
+        <v>802557</v>
       </c>
     </row>
     <row r="60">
@@ -4338,13 +4338,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000.69</v>
+        <v>500.6</v>
       </c>
       <c r="G60" t="n">
         <v>7.7134</v>
       </c>
       <c r="H60" t="n">
-        <v>1569296</v>
+        <v>803613</v>
       </c>
     </row>
     <row r="61">
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000.75</v>
+        <v>500.57</v>
       </c>
       <c r="G61" t="n">
         <v>7.66154</v>
       </c>
       <c r="H61" t="n">
-        <v>1573207</v>
+        <v>785392</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4469,7 @@
         <v>80.28497</v>
       </c>
       <c r="H2" t="n">
-        <v>114352</v>
+        <v>79260</v>
       </c>
     </row>
     <row r="3">
@@ -4501,7 +4501,7 @@
         <v>78.42063</v>
       </c>
       <c r="H3" t="n">
-        <v>112945</v>
+        <v>77195</v>
       </c>
     </row>
     <row r="4">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>["14", "5", "22"]</t>
+          <t>["5", "14", "22"]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4533,7 +4533,7 @@
         <v>81.20881</v>
       </c>
       <c r="H4" t="n">
-        <v>112715</v>
+        <v>78163</v>
       </c>
     </row>
     <row r="5">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>["17", "24", "2"]</t>
+          <t>["24", "2", "17"]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4565,7 +4565,7 @@
         <v>81.5193</v>
       </c>
       <c r="H5" t="n">
-        <v>113239</v>
+        <v>78420</v>
       </c>
     </row>
     <row r="6">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["20", "12", "4"]</t>
+          <t>["4", "12", "20"]</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4597,7 +4597,7 @@
         <v>77.95853</v>
       </c>
       <c r="H6" t="n">
-        <v>112310</v>
+        <v>77995</v>
       </c>
     </row>
     <row r="7">
@@ -4629,7 +4629,7 @@
         <v>74.06856999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>113673</v>
+        <v>78007</v>
       </c>
     </row>
     <row r="8">
@@ -4661,7 +4661,7 @@
         <v>77.00823</v>
       </c>
       <c r="H8" t="n">
-        <v>113403</v>
+        <v>78105</v>
       </c>
     </row>
     <row r="9">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["19", "21", "24"]</t>
+          <t>["24", "21", "19"]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4693,7 +4693,7 @@
         <v>91.60720999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>112717</v>
+        <v>74856</v>
       </c>
     </row>
     <row r="10">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>["11", "5", "7"]</t>
+          <t>["5", "11", "7"]</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4725,7 +4725,7 @@
         <v>85.55288</v>
       </c>
       <c r="H10" t="n">
-        <v>113541</v>
+        <v>77151</v>
       </c>
     </row>
     <row r="11">
@@ -4757,7 +4757,7 @@
         <v>88.93698999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>111860</v>
+        <v>77922</v>
       </c>
     </row>
     <row r="12">
@@ -4789,7 +4789,7 @@
         <v>53.44376</v>
       </c>
       <c r="H12" t="n">
-        <v>84736</v>
+        <v>59645</v>
       </c>
     </row>
     <row r="13">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>["19", "48", "39", "46", "28"]</t>
+          <t>["39", "48", "46", "28", "19"]</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4821,7 +4821,7 @@
         <v>54.20737</v>
       </c>
       <c r="H13" t="n">
-        <v>85251</v>
+        <v>59277</v>
       </c>
     </row>
     <row r="14">
@@ -4853,7 +4853,7 @@
         <v>52.72219</v>
       </c>
       <c r="H14" t="n">
-        <v>85161</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="15">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>["22", "39", "32", "3", "15"]</t>
+          <t>["9", "3", "15", "32", "22"]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4885,7 +4885,7 @@
         <v>53.8571</v>
       </c>
       <c r="H15" t="n">
-        <v>85642</v>
+        <v>60595</v>
       </c>
     </row>
     <row r="16">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["44", "25", "17", "49", "6"]</t>
+          <t>["49", "17", "25", "44", "6"]</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4917,7 +4917,7 @@
         <v>56.50811</v>
       </c>
       <c r="H16" t="n">
-        <v>84947</v>
+        <v>60246</v>
       </c>
     </row>
     <row r="17">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>["9", "14", "11", "28", "36"]</t>
+          <t>["14", "9", "11", "28", "36"]</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4949,7 +4949,7 @@
         <v>48.80959</v>
       </c>
       <c r="H17" t="n">
-        <v>85393</v>
+        <v>60156</v>
       </c>
     </row>
     <row r="18">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["20", "10", "37", "34", "18"]</t>
+          <t>["18", "6", "14", "34", "10"]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4981,7 +4981,7 @@
         <v>54.29069</v>
       </c>
       <c r="H18" t="n">
-        <v>84543</v>
+        <v>59820</v>
       </c>
     </row>
     <row r="19">
@@ -5013,7 +5013,7 @@
         <v>48.59592</v>
       </c>
       <c r="H19" t="n">
-        <v>85546</v>
+        <v>60857</v>
       </c>
     </row>
     <row r="20">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>["25", "3", "10", "17", "13"]</t>
+          <t>["3", "46", "10", "22", "13"]</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5045,7 +5045,7 @@
         <v>52.21945</v>
       </c>
       <c r="H20" t="n">
-        <v>85594</v>
+        <v>57846</v>
       </c>
     </row>
     <row r="21">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>["29", "27", "28", "49", "41"]</t>
+          <t>["41", "27", "28", "49", "29"]</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5077,7 +5077,7 @@
         <v>57.47996</v>
       </c>
       <c r="H21" t="n">
-        <v>85048</v>
+        <v>60311</v>
       </c>
     </row>
     <row r="22">
@@ -5109,7 +5109,7 @@
         <v>33.3938</v>
       </c>
       <c r="H22" t="n">
-        <v>38921</v>
+        <v>28078</v>
       </c>
     </row>
     <row r="23">
@@ -5141,7 +5141,7 @@
         <v>31.39463</v>
       </c>
       <c r="H23" t="n">
-        <v>38655</v>
+        <v>27840</v>
       </c>
     </row>
     <row r="24">
@@ -5173,7 +5173,7 @@
         <v>34.02584</v>
       </c>
       <c r="H24" t="n">
-        <v>38750</v>
+        <v>27953</v>
       </c>
     </row>
     <row r="25">
@@ -5205,7 +5205,7 @@
         <v>32.73366</v>
       </c>
       <c r="H25" t="n">
-        <v>38770</v>
+        <v>28086</v>
       </c>
     </row>
     <row r="26">
@@ -5237,7 +5237,7 @@
         <v>35.20067</v>
       </c>
       <c r="H26" t="n">
-        <v>38760</v>
+        <v>27327</v>
       </c>
     </row>
     <row r="27">
@@ -5269,7 +5269,7 @@
         <v>31.19735</v>
       </c>
       <c r="H27" t="n">
-        <v>38725</v>
+        <v>28031</v>
       </c>
     </row>
     <row r="28">
@@ -5301,7 +5301,7 @@
         <v>34.65708</v>
       </c>
       <c r="H28" t="n">
-        <v>38870</v>
+        <v>27804</v>
       </c>
     </row>
     <row r="29">
@@ -5333,7 +5333,7 @@
         <v>30.87721</v>
       </c>
       <c r="H29" t="n">
-        <v>38515</v>
+        <v>27742</v>
       </c>
     </row>
     <row r="30">
@@ -5365,7 +5365,7 @@
         <v>33.26102</v>
       </c>
       <c r="H30" t="n">
-        <v>38958</v>
+        <v>27912</v>
       </c>
     </row>
     <row r="31">
@@ -5397,7 +5397,7 @@
         <v>31.45476</v>
       </c>
       <c r="H31" t="n">
-        <v>39009</v>
+        <v>27775</v>
       </c>
     </row>
     <row r="32">
@@ -5419,17 +5419,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>["241", "19", "216", "109", "43", "188", "114", "174", "192", "68", "185", "57", "51", "240", "130", "32", "217", "232", "135", "13", "111", "149", "98", "199", "95"]</t>
+          <t>["94", "19", "216", "109", "43", "188", "114", "174", "192", "68", "185", "57", "51", "24", "74", "32", "217", "232", "135", "13", "111", "149", "98", "199", "95"]</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>250.02</v>
       </c>
       <c r="G32" t="n">
         <v>18.102</v>
       </c>
       <c r="H32" t="n">
-        <v>9256</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="33">
@@ -5451,17 +5451,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>["229", "15", "220", "69", "149", "192", "56", "86", "147", "111", "103", "247", "117", "176", "200", "26", "121", "100", "88", "242", "68", "83", "194", "142", "8"]</t>
+          <t>["173", "220", "15", "229", "149", "192", "86", "71", "147", "111", "103", "247", "117", "68", "200", "26", "161", "121", "100", "88", "242", "83", "194", "142", "8"]</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>250.01</v>
       </c>
       <c r="G33" t="n">
         <v>18.97669</v>
       </c>
       <c r="H33" t="n">
-        <v>9166</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="34">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>250.02</v>
+        <v>250.01</v>
       </c>
       <c r="G34" t="n">
         <v>18.7203</v>
       </c>
       <c r="H34" t="n">
-        <v>9130</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="35">
@@ -5519,13 +5519,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250.02</v>
+        <v>250.03</v>
       </c>
       <c r="G35" t="n">
         <v>17.59067</v>
       </c>
       <c r="H35" t="n">
-        <v>9071</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="36">
@@ -5551,13 +5551,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>250.03</v>
       </c>
       <c r="G36" t="n">
         <v>18.80037</v>
       </c>
       <c r="H36" t="n">
-        <v>9114</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="37">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>["102", "157", "116", "117", "68", "161", "33", "82", "150", "32", "118", "191", "44", "25", "208", "223", "79", "27", "185", "159", "50", "96", "98", "202", "84"]</t>
+          <t>["101", "157", "116", "117", "68", "161", "33", "82", "150", "32", "118", "191", "22", "25", "208", "223", "79", "27", "203", "121", "50", "96", "98", "202", "84"]</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5589,7 +5589,7 @@
         <v>18.61509</v>
       </c>
       <c r="H37" t="n">
-        <v>9095</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="38">
@@ -5621,7 +5621,7 @@
         <v>18.23423</v>
       </c>
       <c r="H38" t="n">
-        <v>9093</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="39">
@@ -5653,7 +5653,7 @@
         <v>18.51018</v>
       </c>
       <c r="H39" t="n">
-        <v>9119</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="40">
@@ -5679,13 +5679,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>250.03</v>
       </c>
       <c r="G40" t="n">
         <v>18.17407</v>
       </c>
       <c r="H40" t="n">
-        <v>9087</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="41">
@@ -5707,17 +5707,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>["25", "5", "213", "68", "217", "44", "52", "170", "4", "224", "131", "109", "204", "14", "89", "141", "82", "90", "167", "23", "120", "86", "186", "169", "185"]</t>
+          <t>["182", "213", "5", "172", "35", "44", "4", "52", "114", "128", "224", "109", "157", "37", "89", "141", "122", "57", "167", "80", "82", "87", "186", "23", "185"]</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>250.01</v>
+        <v>250.02</v>
       </c>
       <c r="G41" t="n">
         <v>17.8195</v>
       </c>
       <c r="H41" t="n">
-        <v>8927</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="42">
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>500.04</v>
+        <v>500.23</v>
       </c>
       <c r="G42" t="n">
         <v>11.79822</v>
       </c>
       <c r="H42" t="n">
-        <v>2522</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="43">
@@ -5775,13 +5775,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>500.12</v>
+        <v>500.18</v>
       </c>
       <c r="G43" t="n">
         <v>12.10852</v>
       </c>
       <c r="H43" t="n">
-        <v>2512</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="44">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>500.15</v>
+        <v>500.06</v>
       </c>
       <c r="G44" t="n">
         <v>12.4534</v>
       </c>
       <c r="H44" t="n">
-        <v>2504</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="45">
@@ -5839,13 +5839,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>500.1</v>
+        <v>500.14</v>
       </c>
       <c r="G45" t="n">
         <v>12.14869</v>
       </c>
       <c r="H45" t="n">
-        <v>2514</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="46">
@@ -5871,13 +5871,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>500.1</v>
+        <v>500.01</v>
       </c>
       <c r="G46" t="n">
         <v>11.92926</v>
       </c>
       <c r="H46" t="n">
-        <v>2509</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="47">
@@ -5903,13 +5903,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>500.01</v>
+        <v>500.26</v>
       </c>
       <c r="G47" t="n">
         <v>12.23881</v>
       </c>
       <c r="H47" t="n">
-        <v>2517</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="48">
@@ -5935,13 +5935,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>500.08</v>
+        <v>500.22</v>
       </c>
       <c r="G48" t="n">
         <v>11.9177</v>
       </c>
       <c r="H48" t="n">
-        <v>2512</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="49">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>500.11</v>
+        <v>500.09</v>
       </c>
       <c r="G49" t="n">
         <v>12.27821</v>
       </c>
       <c r="H49" t="n">
-        <v>2507</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="50">
@@ -5999,13 +5999,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>500.01</v>
+        <v>500.07</v>
       </c>
       <c r="G50" t="n">
         <v>12.23871</v>
       </c>
       <c r="H50" t="n">
-        <v>2507</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="51">
@@ -6027,17 +6027,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>["16", "473", "263", "383", "343", "481", "96", "413", "180", "452", "427", "234", "450", "228", "159", "257", "185", "320", "195", "350", "344", "165", "459", "197", "122", "470", "68", "421", "109", "161", "333", "120", "375", "160", "346", "361", "447", "38", "92", "49", "238", "436", "138", "434", "248", "102", "494", "341", "297", "484"]</t>
+          <t>["321", "473", "263", "383", "343", "96", "481", "413", "180", "452", "427", "234", "228", "159", "257", "450", "185", "320", "195", "350", "344", "165", "459", "197", "470", "68", "421", "109", "161", "122", "226", "333", "375", "406", "160", "58", "361", "447", "38", "92", "49", "238", "436", "138", "434", "248", "102", "494", "341", "484"]</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>500.1</v>
+        <v>500.05</v>
       </c>
       <c r="G51" t="n">
         <v>12.369</v>
       </c>
       <c r="H51" t="n">
-        <v>2484</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="52">
@@ -6059,17 +6059,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>["218", "8", "192", "784", "943", "507", "233", "112", "723", "211", "199", "358", "554", "206", "779", "385", "367", "899", "735", "598", "568", "399", "844", "202", "129", "602", "826", "501", "511", "432", "374", "189", "644", "226", "449", "825", "122", "585", "178", "125", "665", "641", "901", "956", "249", "876", "993", "820", "731", "998", "815", "682", "804", "592", "715", "6", "279", "284", "486", "53", "955", "702", "889", "139", "195", "961", "92", "293", "656", "353", "430", "232", "403", "691", "322", "986", "789", "465", "786", "251", "847", "488", "499", "460", "686", "868", "819", "549", "863", "635", "807", "248", "72", "478", "822", "951", "242", "156", "196", "179"]</t>
+          <t>["258", "8", "192", "20", "924", "507", "426", "116", "776", "758", "313", "139", "98", "583", "666", "306", "584", "281", "744", "898", "364", "274", "595", "143", "49", "912", "141", "701", "424", "549", "704", "203", "472", "511", "845", "47", "129", "962", "829", "226", "641", "796", "125", "473", "508", "665", "995", "408", "378", "815", "237", "219", "594", "155", "984", "981", "404", "428", "791", "82", "253", "498", "836", "944", "809", "555", "232", "609", "392", "74", "29", "543", "755", "183", "443", "632", "284", "168", "789", "742", "991", "983", "875", "171", "26", "596", "686", "570", "819", "522", "696", "970", "997", "184", "331", "833", "515", "388", "580", "137"]</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000.06</v>
+        <v>501.81</v>
       </c>
       <c r="G52" t="n">
-        <v>8.269869999999999</v>
+        <v>8.161210000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>503</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53">
@@ -6091,17 +6091,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>["845", "681", "722", "431", "772", "793", "934", "258", "549", "642", "409", "947", "216", "907", "542", "677", "629", "829", "540", "472", "745", "928", "217", "418", "903", "384", "754", "963", "644", "381", "743", "63", "188", "726", "23", "72", "703", "30", "706", "804", "865", "91", "783", "628", "584", "669", "293", "274", "310", "436", "102", "756", "546", "169", "315", "491", "140", "555", "38", "364", "154", "452", "468", "575", "414", "69", "58", "838", "504", "931", "649", "683", "869", "478", "305", "847", "76", "242", "447", "44", "980", "894", "946", "538", "753", "985", "883", "856", "523", "737", "609", "6", "118", "1", "662", "224", "955", "742", "379", "222"]</t>
+          <t>["374", "722", "262", "107", "143", "224", "756", "277", "454", "999", "451", "901", "470", "145", "363", "533", "114", "189", "109", "208", "870", "45", "730", "328", "330", "9", "761", "706", "443", "525", "827", "91", "886", "949", "789", "556", "461", "570", "438", "963", "864", "666", "681", "222", "140", "93", "567", "265", "883", "598", "931", "520", "445", "804", "613", "823", "814", "415", "118", "656", "448", "822", "115", "340", "256", "903", "414", "724", "867", "944", "334", "319", "704", "550", "619", "731", "177", "660", "884", "127", "352", "429", "768", "426", "8", "707", "545", "88", "994", "260", "942", "848", "345", "166", "723", "83", "531", "984", "507", "173"]</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1001.07</v>
+        <v>500.7</v>
       </c>
       <c r="G53" t="n">
-        <v>8.05631</v>
+        <v>8.122479999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>497</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54">
@@ -6123,17 +6123,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>["367", "337", "21", "356", "914", "690", "379", "491", "184", "781", "45", "704", "423", "901", "653", "266", "663", "911", "590", "451", "190", "234", "422", "473", "125", "449", "305", "239", "675", "48", "707", "481", "432", "917", "828", "557", "909", "673", "386", "694", "925", "935", "242", "645", "191", "16", "684", "37", "509", "809", "500", "231", "150", "99", "886", "474", "27", "97", "814", "638", "131", "567", "32", "971", "232", "617", "327", "306", "586", "807", "316", "320", "86", "158", "767", "73", "902", "91", "513", "57", "468", "163", "515", "966", "650", "291", "714", "562", "943", "768", "635", "547", "443", "779", "831", "225", "17", "22", "185", "550"]</t>
+          <t>["993", "379", "21", "16", "317", "959", "289", "638", "226", "935", "210", "254", "964", "155", "191", "15", "406", "674", "44", "315", "236", "471", "478", "524", "256", "551", "295", "620", "461", "422", "967", "452", "30", "931", "18", "97", "363", "991", "184", "164", "710", "529", "249", "540", "491", "401", "259", "189", "663", "881", "803", "345", "917", "657", "102", "99", "457", "886", "649", "841", "334", "73", "338", "923", "699", "812", "231", "356", "855", "298", "427", "579", "221", "469", "643", "704", "261", "248", "877", "744", "578", "291", "947", "353", "861", "58", "115", "266", "441", "182", "912", "867", "853", "8", "365", "330", "705", "623", "832", "362"]</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000.39</v>
+        <v>500.34</v>
       </c>
       <c r="G54" t="n">
-        <v>8.15002</v>
+        <v>8.087569999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>501</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55">
@@ -6155,17 +6155,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>["306", "458", "435", "709", "145", "188", "780", "31", "165", "79", "739", "630", "530", "148", "828", "185", "872", "699", "483", "413", "420", "18", "496", "265", "953", "231", "958", "276", "712", "557", "669", "453", "236", "825", "694", "602", "426", "705", "423", "864", "527", "999", "667", "939", "566", "50", "638", "133", "299", "478", "474", "603", "970", "938", "922", "312", "786", "290", "267", "693", "436", "159", "473", "300", "480", "237", "400", "359", "484", "721", "920", "718", "357", "58", "430", "894", "701", "149", "579", "3", "34", "348", "221", "342", "182", "650", "717", "121", "801", "544", "495", "83", "298", "193", "910", "512", "388", "39", "696", "947"]</t>
+          <t>["455", "709", "458", "588", "349", "979", "393", "435", "751", "933", "50", "320", "70", "902", "329", "732", "491", "898", "953", "89", "83", "689", "366", "470", "46", "381", "508", "133", "359", "244", "700", "554", "987", "420", "981", "292", "615", "362", "610", "688", "786", "413", "330", "842", "627", "261", "527", "367", "977", "263", "409", "450", "60", "510", "262", "833", "328", "346", "708", "56", "94", "528", "815", "775", "893", "399", "237", "29", "680", "310", "426", "253", "873", "352", "721", "182", "108", "138", "357", "512", "825", "475", "638", "579", "571", "91", "343", "456", "242", "635", "827", "777", "339", "552", "5", "440", "758", "966", "978", "245"]</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000.97</v>
+        <v>502.27</v>
       </c>
       <c r="G55" t="n">
-        <v>8.222950000000001</v>
+        <v>8.12852</v>
       </c>
       <c r="H55" t="n">
-        <v>496</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56">
@@ -6187,17 +6187,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>["638", "632", "210", "421", "500", "86", "180", "813", "736", "207", "28", "962", "669", "931", "763", "666", "300", "499", "740", "806", "508", "204", "13", "509", "999", "630", "991", "890", "545", "123", "530", "914", "4", "926", "347", "600", "754", "877", "209", "652", "379", "298", "90", "488", "938", "217", "161", "474", "851", "327", "866", "40", "788", "789", "688", "847", "904", "249", "443", "529", "406", "483", "441", "868", "392", "254", "634", "863", "459", "60", "458", "55", "221", "542", "484", "334", "241", "767", "520", "609", "830", "306", "739", "169", "27", "130", "367", "397", "296", "617", "554", "697", "567", "261", "114", "480", "615", "446", "919", "607"]</t>
+          <t>["864", "632", "40", "49", "504", "834", "660", "906", "897", "508", "512", "87", "748", "454", "303", "343", "474", "289", "697", "261", "191", "545", "827", "169", "56", "516", "54", "471", "475", "32", "499", "341", "900", "423", "511", "943", "302", "95", "210", "375", "172", "192", "52", "870", "838", "810", "605", "860", "820", "417", "688", "421", "399", "937", "777", "901", "24", "970", "73", "948", "621", "779", "163", "782", "23", "36", "286", "464", "879", "204", "323", "367", "627", "976", "327", "946", "411", "27", "853", "209", "934", "651", "867", "687", "82", "604", "978", "395", "891", "426", "390", "337", "846", "364", "940", "120", "989", "153", "76", "551"]</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1001.55</v>
+        <v>500.34</v>
       </c>
       <c r="G56" t="n">
-        <v>8.22601</v>
+        <v>8.1922</v>
       </c>
       <c r="H56" t="n">
-        <v>500</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>["658", "470", "866", "393", "706", "97", "930", "341", "611", "49", "571", "787", "667", "479", "750", "63", "726", "362", "166", "181", "478", "254", "464", "852", "748", "695", "11", "970", "243", "306", "796", "823", "126", "682", "460", "923", "373", "689", "449", "994", "227", "909", "958", "522", "803", "179", "755", "355", "191", "21", "23", "70", "439", "230", "163", "882", "872", "231", "295", "974", "152", "279", "223", "389", "302", "259", "602", "17", "46", "268", "753", "792", "8", "527", "756", "779", "751", "690", "38", "858", "824", "639", "114", "139", "406", "910", "472", "768", "736", "961", "688", "541", "167", "447", "127", "581", "359", "220", "62", "743"]</t>
+          <t>["457", "866", "706", "470", "393", "215", "518", "35", "331", "22", "699", "11", "619", "203", "466", "607", "625", "158", "413", "9", "910", "623", "537", "697", "986", "666", "827", "64", "983", "223", "722", "999", "695", "842", "5", "21", "673", "369", "68", "396", "766", "303", "246", "53", "510", "770", "803", "29", "258", "810", "191", "726", "507", "378", "870", "855", "841", "329", "231", "327", "590", "818", "873", "330", "479", "17", "582", "402", "280", "629", "250", "864", "447", "187", "93", "418", "392", "741", "530", "703", "693", "458", "817", "273", "941", "544", "386", "705", "683", "62", "773", "399", "581", "468", "712", "494", "532", "23", "186", "16"]</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1001.65</v>
+        <v>500.63</v>
       </c>
       <c r="G57" t="n">
-        <v>8.285019999999999</v>
+        <v>8.179539999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>497</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58">
@@ -6251,17 +6251,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>["756", "553", "989", "856", "578", "802", "406", "290", "399", "986", "450", "924", "733", "712", "262", "366", "858", "112", "923", "62", "296", "668", "171", "894", "493", "811", "979", "596", "739", "825", "709", "641", "895", "132", "404", "503", "84", "99", "501", "875", "682", "459", "982", "333", "439", "726", "203", "36", "294", "714", "173", "396", "769", "820", "631", "307", "52", "348", "541", "620", "633", "393", "83", "836", "227", "16", "252", "176", "550", "98", "118", "275", "892", "61", "959", "815", "39", "675", "742", "298", "647", "977", "160", "219", "413", "529", "738", "482", "673", "964", "215", "925", "980", "209", "865", "157", "229", "284", "259", "832"]</t>
+          <t>["652", "938", "345", "553", "759", "641", "512", "425", "408", "496", "393", "991", "440", "38", "814", "633", "573", "970", "64", "669", "119", "171", "379", "785", "690", "338", "544", "255", "404", "241", "87", "767", "715", "482", "479", "566", "203", "720", "807", "781", "878", "153", "288", "980", "413", "799", "636", "486", "726", "276", "33", "293", "182", "36", "468", "396", "892", "937", "453", "42", "775", "797", "818", "274", "228", "204", "963", "476", "578", "880", "121", "135", "20", "844", "398", "201", "978", "564", "754", "365", "824", "209", "756", "848", "649", "27", "534", "745", "902", "916", "736", "80", "823", "401", "384", "313", "515", "717", "627", "554"]</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1001.93</v>
+        <v>502.04</v>
       </c>
       <c r="G58" t="n">
-        <v>8.201639999999999</v>
+        <v>8.16408</v>
       </c>
       <c r="H58" t="n">
-        <v>498</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59">
@@ -6283,17 +6283,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>["973", "74", "944", "789", "622", "392", "991", "788", "547", "746", "494", "422", "324", "68", "913", "210", "881", "286", "828", "231", "419", "923", "411", "75", "130", "554", "105", "696", "735", "306", "598", "163", "258", "510", "759", "950", "927", "184", "524", "778", "7", "869", "96", "91", "824", "649", "142", "661", "28", "999", "971", "265", "830", "126", "393", "805", "900", "751", "920", "177", "403", "924", "337", "119", "542", "620", "491", "660", "490", "95", "942", "426", "13", "82", "454", "459", "268", "485", "843", "597", "355", "552", "222", "39", "722", "838", "395", "11", "640", "400", "65", "260", "143", "102", "571", "205", "990", "168", "414", "694"]</t>
+          <t>["872", "407", "788", "380", "36", "719", "399", "70", "880", "697", "434", "440", "507", "220", "12", "65", "3", "470", "336", "870", "873", "73", "67", "935", "4", "209", "259", "396", "162", "633", "844", "560", "931", "979", "223", "609", "812", "941", "762", "142", "616", "613", "91", "412", "951", "341", "514", "483", "300", "268", "138", "780", "478", "278", "789", "165", "554", "727", "584", "205", "28", "526", "96", "454", "468", "658", "430", "421", "949", "269", "9", "337", "508", "824", "338", "805", "779", "859", "15", "102", "920", "804", "89", "240", "832", "628", "130", "571", "839", "23", "875", "637", "720", "137", "166", "229", "670", "759", "27", "838"]</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1001.95</v>
+        <v>501.47</v>
       </c>
       <c r="G59" t="n">
-        <v>8.224460000000001</v>
+        <v>8.136290000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>498</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60">
@@ -6315,17 +6315,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>["858", "446", "865", "508", "900", "803", "604", "249", "413", "613", "571", "328", "684", "569", "811", "511", "402", "225", "441", "973", "405", "168", "932", "855", "351", "499", "350", "718", "397", "516", "849", "944", "550", "614", "437", "482", "642", "461", "761", "565", "772", "17", "667", "122", "470", "487", "920", "492", "132", "457", "270", "705", "78", "631", "946", "105", "314", "471", "208", "200", "84", "897", "455", "890", "825", "463", "171", "862", "605", "290", "440", "775", "98", "725", "20", "87", "206", "832", "826", "576", "235", "65", "43", "430", "192", "479", "54", "549", "997", "155", "31", "462", "554", "908", "227", "842", "839", "34", "589", "856"]</t>
+          <t>["179", "457", "350", "446", "827", "34", "506", "865", "112", "836", "754", "946", "273", "909", "554", "626", "297", "537", "46", "811", "608", "783", "781", "765", "575", "706", "459", "559", "496", "761", "762", "997", "939", "937", "927", "308", "613", "246", "127", "142", "661", "530", "483", "628", "118", "482", "499", "36", "985", "314", "776", "566", "85", "201", "84", "227", "189", "105", "643", "260", "855", "108", "71", "587", "396", "38", "797", "813", "249", "972", "333", "544", "87", "524", "826", "56", "916", "431", "505", "796", "136", "473", "859", "302", "832", "959", "62", "752", "621", "339", "851", "402", "462", "43", "204", "898", "313", "481", "490", "406"]</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000.1</v>
+        <v>502.33</v>
       </c>
       <c r="G60" t="n">
-        <v>8.2044</v>
+        <v>8.06137</v>
       </c>
       <c r="H60" t="n">
-        <v>500</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61">
@@ -6347,17 +6347,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>["407", "80", "421", "389", "39", "923", "114", "958", "821", "179", "657", "851", "512", "880", "177", "50", "618", "598", "891", "321", "564", "241", "167", "55", "238", "729", "454", "956", "381", "495", "963", "87", "205", "150", "441", "705", "287", "21", "843", "82", "852", "474", "22", "620", "450", "89", "948", "52", "769", "944", "378", "455", "962", "452", "301", "833", "457", "46", "152", "371", "528", "125", "796", "517", "92", "883", "338", "892", "992", "920", "417", "766", "762", "497", "194", "739", "996", "576", "390", "8", "60", "227", "494", "467", "510", "438", "95", "501", "735", "61", "69", "819", "664", "387", "748", "562", "239", "138", "894", "113"]</t>
+          <t>["238", "80", "421", "389", "663", "316", "626", "397", "668", "311", "226", "287", "336", "883", "382", "23", "576", "908", "482", "489", "534", "753", "503", "958", "718", "59", "657", "400", "984", "822", "579", "784", "709", "365", "231", "815", "168", "882", "842", "49", "707", "206", "28", "354", "591", "948", "852", "857", "512", "528", "378", "432", "758", "31", "624", "760", "219", "271", "976", "148", "408", "918", "472", "538", "791", "990", "510", "746", "630", "841", "594", "194", "773", "187", "185", "802", "227", "29", "803", "276", "730", "302", "306", "373", "993", "133", "894", "801", "323", "991", "496", "377", "108", "583", "876", "427", "225", "450", "954", "35"]</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1001.49</v>
+        <v>500.91</v>
       </c>
       <c r="G61" t="n">
-        <v>8.09037</v>
+        <v>8.108829999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>495</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.06745</v>
+        <v>76.71225</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -6504,14 +6504,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>["14", "5", "22"]</t>
+          <t>["5", "14", "22"]</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.20881</v>
+        <v>59.08759</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
@@ -6536,14 +6536,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>["17", "24", "2"]</t>
+          <t>["24", "2", "17"]</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>79.59842999999999</v>
+        <v>81.5193</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["20", "12", "4"]</t>
+          <t>["4", "12", "20"]</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>74.06856999999999</v>
+        <v>61.85758</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["19", "21", "24"]</t>
+          <t>["24", "21", "19"]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6696,14 +6696,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>["11", "5", "7"]</t>
+          <t>["5", "11", "7"]</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.21156</v>
+        <v>82.6986</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>49.76539</v>
+        <v>43.83432</v>
       </c>
       <c r="H12" t="n">
         <v>100</v>
@@ -6792,14 +6792,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>["19", "48", "39", "46", "28"]</t>
+          <t>["39", "48", "46", "28", "19"]</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>45.67434</v>
+        <v>44.43357</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>49.61807</v>
+        <v>42.99913</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -6856,14 +6856,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>["22", "39", "32", "3", "15"]</t>
+          <t>["9", "3", "15", "32", "22"]</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>47.37432</v>
+        <v>50.59379</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
@@ -6888,14 +6888,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["44", "25", "17", "49", "6"]</t>
+          <t>["49", "17", "25", "44", "6"]</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.48479</v>
+        <v>55.70177</v>
       </c>
       <c r="H16" t="n">
         <v>100</v>
@@ -6920,14 +6920,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>["9", "14", "11", "28", "36"]</t>
+          <t>["14", "9", "11", "28", "36"]</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>48.80959</v>
+        <v>45.06391</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["20", "10", "37", "34", "18"]</t>
+          <t>["18", "6", "14", "34", "10"]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -7016,14 +7016,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>["25", "3", "10", "17", "13"]</t>
+          <t>["3", "46", "10", "22", "13"]</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>48.96302</v>
+        <v>52.21945</v>
       </c>
       <c r="H20" t="n">
         <v>100</v>
@@ -7048,14 +7048,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>["29", "27", "28", "49", "41"]</t>
+          <t>["41", "27", "28", "49", "29"]</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.20122</v>
+        <v>53.26086</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
@@ -7087,7 +7087,7 @@
         <v>0.01</v>
       </c>
       <c r="G22" t="n">
-        <v>32.37069</v>
+        <v>30.94689</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
@@ -7119,7 +7119,7 @@
         <v>0.01</v>
       </c>
       <c r="G23" t="n">
-        <v>26.4368</v>
+        <v>27.81169</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
@@ -7151,7 +7151,7 @@
         <v>0.01</v>
       </c>
       <c r="G24" t="n">
-        <v>29.78127</v>
+        <v>26.73539</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -7183,7 +7183,7 @@
         <v>0.01</v>
       </c>
       <c r="G25" t="n">
-        <v>25.16513</v>
+        <v>32.05552</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
@@ -7215,7 +7215,7 @@
         <v>0.01</v>
       </c>
       <c r="G26" t="n">
-        <v>29.92558</v>
+        <v>30.15652</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -7247,7 +7247,7 @@
         <v>0.01</v>
       </c>
       <c r="G27" t="n">
-        <v>27.65623</v>
+        <v>26.92331</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -7279,7 +7279,7 @@
         <v>0.01</v>
       </c>
       <c r="G28" t="n">
-        <v>28.90284</v>
+        <v>31.26076</v>
       </c>
       <c r="H28" t="n">
         <v>100</v>
@@ -7311,7 +7311,7 @@
         <v>0.01</v>
       </c>
       <c r="G29" t="n">
-        <v>29.78196</v>
+        <v>28.85217</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -7343,7 +7343,7 @@
         <v>0.01</v>
       </c>
       <c r="G30" t="n">
-        <v>28.87733</v>
+        <v>29.85088</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -7375,7 +7375,7 @@
         <v>0.01</v>
       </c>
       <c r="G31" t="n">
-        <v>27.61745</v>
+        <v>28.7056</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
@@ -7400,14 +7400,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>["241", "19", "216", "109", "43", "188", "114", "174", "192", "68", "185", "57", "51", "240", "130", "32", "217", "232", "135", "13", "111", "149", "98", "199", "95"]</t>
+          <t>["94", "19", "216", "109", "43", "188", "114", "174", "192", "68", "185", "57", "51", "24", "74", "32", "217", "232", "135", "13", "111", "149", "98", "199", "95"]</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0.1</v>
       </c>
       <c r="G32" t="n">
-        <v>16.43987</v>
+        <v>15.8286</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -7432,14 +7432,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>["229", "15", "220", "69", "149", "192", "56", "86", "147", "111", "103", "247", "117", "176", "200", "26", "121", "100", "88", "242", "68", "83", "194", "142", "8"]</t>
+          <t>["173", "220", "15", "229", "149", "192", "86", "71", "147", "111", "103", "247", "117", "68", "200", "26", "161", "121", "100", "88", "242", "83", "194", "142", "8"]</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G33" t="n">
-        <v>15.72361</v>
+        <v>18.97669</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -7468,10 +7468,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G34" t="n">
-        <v>16.47118</v>
+        <v>16.73283</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
@@ -7503,7 +7503,7 @@
         <v>0.11</v>
       </c>
       <c r="G35" t="n">
-        <v>17.09113</v>
+        <v>17.23164</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
@@ -7532,10 +7532,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G36" t="n">
-        <v>17.61813</v>
+        <v>16.02173</v>
       </c>
       <c r="H36" t="n">
         <v>100</v>
@@ -7560,14 +7560,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>["102", "157", "116", "117", "68", "161", "33", "82", "150", "32", "118", "191", "44", "25", "208", "223", "79", "27", "185", "159", "50", "96", "98", "202", "84"]</t>
+          <t>["101", "157", "116", "117", "68", "161", "33", "82", "150", "32", "118", "191", "22", "25", "208", "223", "79", "27", "203", "121", "50", "96", "98", "202", "84"]</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G37" t="n">
-        <v>18.13453</v>
+        <v>17.36056</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G38" t="n">
-        <v>16.4076</v>
+        <v>17.83965</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -7631,7 +7631,7 @@
         <v>0.11</v>
       </c>
       <c r="G39" t="n">
-        <v>17.29626</v>
+        <v>15.82266</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
@@ -7660,10 +7660,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G40" t="n">
-        <v>16.99109</v>
+        <v>16.46085</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -7688,14 +7688,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>["25", "5", "213", "68", "217", "44", "52", "170", "4", "224", "131", "109", "204", "14", "89", "141", "82", "90", "167", "23", "120", "86", "186", "169", "185"]</t>
+          <t>["182", "213", "5", "172", "35", "44", "4", "52", "114", "128", "224", "109", "157", "37", "89", "141", "122", "57", "167", "80", "82", "87", "186", "23", "185"]</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>17.15129</v>
+        <v>16.12452</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="G42" t="n">
-        <v>11.15746</v>
+        <v>10.83621</v>
       </c>
       <c r="H42" t="n">
         <v>100</v>
@@ -7756,10 +7756,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="G43" t="n">
-        <v>11.44895</v>
+        <v>11.21072</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -7788,10 +7788,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="G44" t="n">
-        <v>11.37176</v>
+        <v>10.97606</v>
       </c>
       <c r="H44" t="n">
         <v>100</v>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="G45" t="n">
-        <v>11.72385</v>
+        <v>11.03593</v>
       </c>
       <c r="H45" t="n">
         <v>100</v>
@@ -7884,10 +7884,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="G47" t="n">
-        <v>11.52342</v>
+        <v>11.01469</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -7916,10 +7916,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="G48" t="n">
-        <v>11.48255</v>
+        <v>11.06341</v>
       </c>
       <c r="H48" t="n">
         <v>100</v>
@@ -7948,10 +7948,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G49" t="n">
-        <v>11.7522</v>
+        <v>11.06908</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
@@ -7980,10 +7980,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="G50" t="n">
-        <v>11.60357</v>
+        <v>11.3115</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
@@ -8008,14 +8008,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>["16", "473", "263", "383", "343", "481", "96", "413", "180", "452", "427", "234", "450", "228", "159", "257", "185", "320", "195", "350", "344", "165", "459", "197", "122", "470", "68", "421", "109", "161", "333", "120", "375", "160", "346", "361", "447", "38", "92", "49", "238", "436", "138", "434", "248", "102", "494", "341", "297", "484"]</t>
+          <t>["321", "473", "263", "383", "343", "96", "481", "413", "180", "452", "427", "234", "228", "159", "257", "450", "185", "320", "195", "350", "344", "165", "459", "197", "470", "68", "421", "109", "161", "122", "226", "333", "375", "406", "160", "58", "361", "447", "38", "92", "49", "238", "436", "138", "434", "248", "102", "494", "341", "484"]</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="G51" t="n">
-        <v>11.25091</v>
+        <v>10.82326</v>
       </c>
       <c r="H51" t="n">
         <v>100</v>
@@ -8040,14 +8040,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>["218", "8", "192", "784", "943", "507", "233", "112", "723", "211", "199", "358", "554", "206", "779", "385", "367", "899", "735", "598", "568", "399", "844", "202", "129", "602", "826", "501", "511", "432", "374", "189", "644", "226", "449", "825", "122", "585", "178", "125", "665", "641", "901", "956", "249", "876", "993", "820", "731", "998", "815", "682", "804", "592", "715", "6", "279", "284", "486", "53", "955", "702", "889", "139", "195", "961", "92", "293", "656", "353", "430", "232", "403", "691", "322", "986", "789", "465", "786", "251", "847", "488", "499", "460", "686", "868", "819", "549", "863", "635", "807", "248", "72", "478", "822", "951", "242", "156", "196", "179"]</t>
+          <t>["258", "8", "192", "20", "924", "507", "426", "116", "776", "758", "313", "139", "98", "583", "666", "306", "584", "281", "744", "898", "364", "274", "595", "143", "49", "912", "141", "701", "424", "549", "704", "203", "472", "511", "845", "47", "129", "962", "829", "226", "641", "796", "125", "473", "508", "665", "995", "408", "378", "815", "237", "219", "594", "155", "984", "981", "404", "428", "791", "82", "253", "498", "836", "944", "809", "555", "232", "609", "392", "74", "29", "543", "755", "183", "443", "632", "284", "168", "789", "742", "991", "983", "875", "171", "26", "596", "686", "570", "819", "522", "696", "970", "997", "184", "331", "833", "515", "388", "580", "137"]</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="G52" t="n">
-        <v>7.81623</v>
+        <v>7.69598</v>
       </c>
       <c r="H52" t="n">
         <v>100</v>
@@ -8072,14 +8072,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>["845", "681", "722", "431", "772", "793", "934", "258", "549", "642", "409", "947", "216", "907", "542", "677", "629", "829", "540", "472", "745", "928", "217", "418", "903", "384", "754", "963", "644", "381", "743", "63", "188", "726", "23", "72", "703", "30", "706", "804", "865", "91", "783", "628", "584", "669", "293", "274", "310", "436", "102", "756", "546", "169", "315", "491", "140", "555", "38", "364", "154", "452", "468", "575", "414", "69", "58", "838", "504", "931", "649", "683", "869", "478", "305", "847", "76", "242", "447", "44", "980", "894", "946", "538", "753", "985", "883", "856", "523", "737", "609", "6", "118", "1", "662", "224", "955", "742", "379", "222"]</t>
+          <t>["374", "722", "262", "107", "143", "224", "756", "277", "454", "999", "451", "901", "470", "145", "363", "533", "114", "189", "109", "208", "870", "45", "730", "328", "330", "9", "761", "706", "443", "525", "827", "91", "886", "949", "789", "556", "461", "570", "438", "963", "864", "666", "681", "222", "140", "93", "567", "265", "883", "598", "931", "520", "445", "804", "613", "823", "814", "415", "118", "656", "448", "822", "115", "340", "256", "903", "414", "724", "867", "944", "334", "319", "704", "550", "619", "731", "177", "660", "884", "127", "352", "429", "768", "426", "8", "707", "545", "88", "994", "260", "942", "848", "345", "166", "723", "83", "531", "984", "507", "173"]</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
       <c r="G53" t="n">
-        <v>7.59092</v>
+        <v>7.61547</v>
       </c>
       <c r="H53" t="n">
         <v>100</v>
@@ -8104,14 +8104,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>["367", "337", "21", "356", "914", "690", "379", "491", "184", "781", "45", "704", "423", "901", "653", "266", "663", "911", "590", "451", "190", "234", "422", "473", "125", "449", "305", "239", "675", "48", "707", "481", "432", "917", "828", "557", "909", "673", "386", "694", "925", "935", "242", "645", "191", "16", "684", "37", "509", "809", "500", "231", "150", "99", "886", "474", "27", "97", "814", "638", "131", "567", "32", "971", "232", "617", "327", "306", "586", "807", "316", "320", "86", "158", "767", "73", "902", "91", "513", "57", "468", "163", "515", "966", "650", "291", "714", "562", "943", "768", "635", "547", "443", "779", "831", "225", "17", "22", "185", "550"]</t>
+          <t>["993", "379", "21", "16", "317", "959", "289", "638", "226", "935", "210", "254", "964", "155", "191", "15", "406", "674", "44", "315", "236", "471", "478", "524", "256", "551", "295", "620", "461", "422", "967", "452", "30", "931", "18", "97", "363", "991", "184", "164", "710", "529", "249", "540", "491", "401", "259", "189", "663", "881", "803", "345", "917", "657", "102", "99", "457", "886", "649", "841", "334", "73", "338", "923", "699", "812", "231", "356", "855", "298", "427", "579", "221", "469", "643", "704", "261", "248", "877", "744", "578", "291", "947", "353", "861", "58", "115", "266", "441", "182", "912", "867", "853", "8", "365", "330", "705", "623", "832", "362"]</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6.69</v>
+        <v>6.58</v>
       </c>
       <c r="G54" t="n">
-        <v>7.69617</v>
+        <v>7.74448</v>
       </c>
       <c r="H54" t="n">
         <v>100</v>
@@ -8136,14 +8136,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>["306", "458", "435", "709", "145", "188", "780", "31", "165", "79", "739", "630", "530", "148", "828", "185", "872", "699", "483", "413", "420", "18", "496", "265", "953", "231", "958", "276", "712", "557", "669", "453", "236", "825", "694", "602", "426", "705", "423", "864", "527", "999", "667", "939", "566", "50", "638", "133", "299", "478", "474", "603", "970", "938", "922", "312", "786", "290", "267", "693", "436", "159", "473", "300", "480", "237", "400", "359", "484", "721", "920", "718", "357", "58", "430", "894", "701", "149", "579", "3", "34", "348", "221", "342", "182", "650", "717", "121", "801", "544", "495", "83", "298", "193", "910", "512", "388", "39", "696", "947"]</t>
+          <t>["455", "709", "458", "588", "349", "979", "393", "435", "751", "933", "50", "320", "70", "902", "329", "732", "491", "898", "953", "89", "83", "689", "366", "470", "46", "381", "508", "133", "359", "244", "700", "554", "987", "420", "981", "292", "615", "362", "610", "688", "786", "413", "330", "842", "627", "261", "527", "367", "977", "263", "409", "450", "60", "510", "262", "833", "328", "346", "708", "56", "94", "528", "815", "775", "893", "399", "237", "29", "680", "310", "426", "253", "873", "352", "721", "182", "108", "138", "357", "512", "825", "475", "638", "579", "571", "91", "343", "456", "242", "635", "827", "777", "339", "552", "5", "440", "758", "966", "978", "245"]</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7.22</v>
+        <v>6.66</v>
       </c>
       <c r="G55" t="n">
-        <v>7.83567</v>
+        <v>7.8065</v>
       </c>
       <c r="H55" t="n">
         <v>100</v>
@@ -8168,14 +8168,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>["638", "632", "210", "421", "500", "86", "180", "813", "736", "207", "28", "962", "669", "931", "763", "666", "300", "499", "740", "806", "508", "204", "13", "509", "999", "630", "991", "890", "545", "123", "530", "914", "4", "926", "347", "600", "754", "877", "209", "652", "379", "298", "90", "488", "938", "217", "161", "474", "851", "327", "866", "40", "788", "789", "688", "847", "904", "249", "443", "529", "406", "483", "441", "868", "392", "254", "634", "863", "459", "60", "458", "55", "221", "542", "484", "334", "241", "767", "520", "609", "830", "306", "739", "169", "27", "130", "367", "397", "296", "617", "554", "697", "567", "261", "114", "480", "615", "446", "919", "607"]</t>
+          <t>["864", "632", "40", "49", "504", "834", "660", "906", "897", "508", "512", "87", "748", "454", "303", "343", "474", "289", "697", "261", "191", "545", "827", "169", "56", "516", "54", "471", "475", "32", "499", "341", "900", "423", "511", "943", "302", "95", "210", "375", "172", "192", "52", "870", "838", "810", "605", "860", "820", "417", "688", "421", "399", "937", "777", "901", "24", "970", "73", "948", "621", "779", "163", "782", "23", "36", "286", "464", "879", "204", "323", "367", "627", "976", "327", "946", "411", "27", "853", "209", "934", "651", "867", "687", "82", "604", "978", "395", "891", "426", "390", "337", "846", "364", "940", "120", "989", "153", "76", "551"]</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6.7</v>
+        <v>6.62</v>
       </c>
       <c r="G56" t="n">
-        <v>7.83671</v>
+        <v>8.00182</v>
       </c>
       <c r="H56" t="n">
         <v>100</v>
@@ -8200,14 +8200,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>["658", "470", "866", "393", "706", "97", "930", "341", "611", "49", "571", "787", "667", "479", "750", "63", "726", "362", "166", "181", "478", "254", "464", "852", "748", "695", "11", "970", "243", "306", "796", "823", "126", "682", "460", "923", "373", "689", "449", "994", "227", "909", "958", "522", "803", "179", "755", "355", "191", "21", "23", "70", "439", "230", "163", "882", "872", "231", "295", "974", "152", "279", "223", "389", "302", "259", "602", "17", "46", "268", "753", "792", "8", "527", "756", "779", "751", "690", "38", "858", "824", "639", "114", "139", "406", "910", "472", "768", "736", "961", "688", "541", "167", "447", "127", "581", "359", "220", "62", "743"]</t>
+          <t>["457", "866", "706", "470", "393", "215", "518", "35", "331", "22", "699", "11", "619", "203", "466", "607", "625", "158", "413", "9", "910", "623", "537", "697", "986", "666", "827", "64", "983", "223", "722", "999", "695", "842", "5", "21", "673", "369", "68", "396", "766", "303", "246", "53", "510", "770", "803", "29", "258", "810", "191", "726", "507", "378", "870", "855", "841", "329", "231", "327", "590", "818", "873", "330", "479", "17", "582", "402", "280", "629", "250", "864", "447", "187", "93", "418", "392", "741", "530", "703", "693", "458", "817", "273", "941", "544", "386", "705", "683", "62", "773", "399", "581", "468", "712", "494", "532", "23", "186", "16"]</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="G57" t="n">
-        <v>7.81845</v>
+        <v>7.55481</v>
       </c>
       <c r="H57" t="n">
         <v>100</v>
@@ -8232,14 +8232,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>["756", "553", "989", "856", "578", "802", "406", "290", "399", "986", "450", "924", "733", "712", "262", "366", "858", "112", "923", "62", "296", "668", "171", "894", "493", "811", "979", "596", "739", "825", "709", "641", "895", "132", "404", "503", "84", "99", "501", "875", "682", "459", "982", "333", "439", "726", "203", "36", "294", "714", "173", "396", "769", "820", "631", "307", "52", "348", "541", "620", "633", "393", "83", "836", "227", "16", "252", "176", "550", "98", "118", "275", "892", "61", "959", "815", "39", "675", "742", "298", "647", "977", "160", "219", "413", "529", "738", "482", "673", "964", "215", "925", "980", "209", "865", "157", "229", "284", "259", "832"]</t>
+          <t>["652", "938", "345", "553", "759", "641", "512", "425", "408", "496", "393", "991", "440", "38", "814", "633", "573", "970", "64", "669", "119", "171", "379", "785", "690", "338", "544", "255", "404", "241", "87", "767", "715", "482", "479", "566", "203", "720", "807", "781", "878", "153", "288", "980", "413", "799", "636", "486", "726", "276", "33", "293", "182", "36", "468", "396", "892", "937", "453", "42", "775", "797", "818", "274", "228", "204", "963", "476", "578", "880", "121", "135", "20", "844", "398", "201", "978", "564", "754", "365", "824", "209", "756", "848", "649", "27", "534", "745", "902", "916", "736", "80", "823", "401", "384", "313", "515", "717", "627", "554"]</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="G58" t="n">
-        <v>7.59051</v>
+        <v>7.73021</v>
       </c>
       <c r="H58" t="n">
         <v>100</v>
@@ -8264,14 +8264,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>["973", "74", "944", "789", "622", "392", "991", "788", "547", "746", "494", "422", "324", "68", "913", "210", "881", "286", "828", "231", "419", "923", "411", "75", "130", "554", "105", "696", "735", "306", "598", "163", "258", "510", "759", "950", "927", "184", "524", "778", "7", "869", "96", "91", "824", "649", "142", "661", "28", "999", "971", "265", "830", "126", "393", "805", "900", "751", "920", "177", "403", "924", "337", "119", "542", "620", "491", "660", "490", "95", "942", "426", "13", "82", "454", "459", "268", "485", "843", "597", "355", "552", "222", "39", "722", "838", "395", "11", "640", "400", "65", "260", "143", "102", "571", "205", "990", "168", "414", "694"]</t>
+          <t>["872", "407", "788", "380", "36", "719", "399", "70", "880", "697", "434", "440", "507", "220", "12", "65", "3", "470", "336", "870", "873", "73", "67", "935", "4", "209", "259", "396", "162", "633", "844", "560", "931", "979", "223", "609", "812", "941", "762", "142", "616", "613", "91", "412", "951", "341", "514", "483", "300", "268", "138", "780", "478", "278", "789", "165", "554", "727", "584", "205", "28", "526", "96", "454", "468", "658", "430", "421", "949", "269", "9", "337", "508", "824", "338", "805", "779", "859", "15", "102", "920", "804", "89", "240", "832", "628", "130", "571", "839", "23", "875", "637", "720", "137", "166", "229", "670", "759", "27", "838"]</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6.71</v>
+        <v>6.67</v>
       </c>
       <c r="G59" t="n">
-        <v>7.74332</v>
+        <v>7.68381</v>
       </c>
       <c r="H59" t="n">
         <v>100</v>
@@ -8296,14 +8296,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>["858", "446", "865", "508", "900", "803", "604", "249", "413", "613", "571", "328", "684", "569", "811", "511", "402", "225", "441", "973", "405", "168", "932", "855", "351", "499", "350", "718", "397", "516", "849", "944", "550", "614", "437", "482", "642", "461", "761", "565", "772", "17", "667", "122", "470", "487", "920", "492", "132", "457", "270", "705", "78", "631", "946", "105", "314", "471", "208", "200", "84", "897", "455", "890", "825", "463", "171", "862", "605", "290", "440", "775", "98", "725", "20", "87", "206", "832", "826", "576", "235", "65", "43", "430", "192", "479", "54", "549", "997", "155", "31", "462", "554", "908", "227", "842", "839", "34", "589", "856"]</t>
+          <t>["179", "457", "350", "446", "827", "34", "506", "865", "112", "836", "754", "946", "273", "909", "554", "626", "297", "537", "46", "811", "608", "783", "781", "765", "575", "706", "459", "559", "496", "761", "762", "997", "939", "937", "927", "308", "613", "246", "127", "142", "661", "530", "483", "628", "118", "482", "499", "36", "985", "314", "776", "566", "85", "201", "84", "227", "189", "105", "643", "260", "855", "108", "71", "587", "396", "38", "797", "813", "249", "972", "333", "544", "87", "524", "826", "56", "916", "431", "505", "796", "136", "473", "859", "302", "832", "959", "62", "752", "621", "339", "851", "402", "462", "43", "204", "898", "313", "481", "490", "406"]</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6.66</v>
+        <v>6.62</v>
       </c>
       <c r="G60" t="n">
-        <v>7.91043</v>
+        <v>7.71916</v>
       </c>
       <c r="H60" t="n">
         <v>100</v>
@@ -8328,14 +8328,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>["407", "80", "421", "389", "39", "923", "114", "958", "821", "179", "657", "851", "512", "880", "177", "50", "618", "598", "891", "321", "564", "241", "167", "55", "238", "729", "454", "956", "381", "495", "963", "87", "205", "150", "441", "705", "287", "21", "843", "82", "852", "474", "22", "620", "450", "89", "948", "52", "769", "944", "378", "455", "962", "452", "301", "833", "457", "46", "152", "371", "528", "125", "796", "517", "92", "883", "338", "892", "992", "920", "417", "766", "762", "497", "194", "739", "996", "576", "390", "8", "60", "227", "494", "467", "510", "438", "95", "501", "735", "61", "69", "819", "664", "387", "748", "562", "239", "138", "894", "113"]</t>
+          <t>["238", "80", "421", "389", "663", "316", "626", "397", "668", "311", "226", "287", "336", "883", "382", "23", "576", "908", "482", "489", "534", "753", "503", "958", "718", "59", "657", "400", "984", "822", "579", "784", "709", "365", "231", "815", "168", "882", "842", "49", "707", "206", "28", "354", "591", "948", "852", "857", "512", "528", "378", "432", "758", "31", "624", "760", "219", "271", "976", "148", "408", "918", "472", "538", "791", "990", "510", "746", "630", "841", "594", "194", "773", "187", "185", "802", "227", "29", "803", "276", "730", "302", "306", "373", "993", "133", "894", "801", "323", "991", "496", "377", "108", "583", "876", "427", "225", "450", "954", "35"]</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6.68</v>
+        <v>6.73</v>
       </c>
       <c r="G61" t="n">
-        <v>7.67499</v>
+        <v>7.46452</v>
       </c>
       <c r="H61" t="n">
         <v>100</v>
